--- a/Excel_Homework_Exercises.xlsx
+++ b/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINA\Documents\UDEMY\EXCEL\Excel+Homework+Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CCC66E-A627-4FDB-9434-A2FB396B9B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1615DD6C-D47D-43EB-8562-2D6729569CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -5344,7 +5344,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -7246,7 +7246,9 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7291,10 +7293,22 @@
       <c r="C2" s="2">
         <v>90</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="D2" s="43" t="str">
+        <f>IF(C2&gt;=90, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="E2" s="43" t="str">
+        <f>IF(C2&gt;=90,"A",IF(AND(C2&gt;=80,C2&lt;=89),"B",IF(AND(C2&gt;=70,C2&lt;=79),"C",IF(AND(C2&gt;=60,C2&lt;=69),"D","F"))))</f>
+        <v>A</v>
+      </c>
+      <c r="F2" s="43" t="str">
+        <f>IF(OR(C2&lt;60, C2&gt;90), "OUTLIER", "AVG")</f>
+        <v>AVG</v>
+      </c>
+      <c r="G2" s="43" t="str">
+        <f>IF(AND(C2&gt;95, B2="M"), "Male Achiever", IF(AND(C2&gt;95, B2="F"), "Female Achiever", "None"))</f>
+        <v>None</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -7306,10 +7320,22 @@
       <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="43" t="str">
+        <f t="shared" ref="D3:D16" si="0">IF(C3&gt;=90, "PASS", "FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="E3" s="43" t="str">
+        <f t="shared" ref="E3:E16" si="1">IF(C3&gt;=90,"A",IF(AND(C3&gt;=80,C3&lt;=89),"B",IF(AND(C3&gt;=70,C3&lt;=79),"C",IF(AND(C3&gt;=60,C3&lt;=69),"D","F"))))</f>
+        <v>B</v>
+      </c>
+      <c r="F3" s="43" t="str">
+        <f t="shared" ref="F3:F16" si="2">IF(OR(C3&lt;60, C3&gt;90), "OUTLIER", "AVG")</f>
+        <v>AVG</v>
+      </c>
+      <c r="G3" s="43" t="str">
+        <f t="shared" ref="G3:G16" si="3">IF(AND(C3&gt;95, B3="M"), "Male Achiever", IF(AND(C3&gt;95, B3="F"), "Female Achiever", "None"))</f>
+        <v>None</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -7321,10 +7347,22 @@
       <c r="C4" s="2">
         <v>96</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E4" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F4" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G4" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Female Achiever</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -7336,10 +7374,22 @@
       <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="D5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E5" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="F5" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G5" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -7351,10 +7401,22 @@
       <c r="C6" s="2">
         <v>69</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E6" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F6" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G6" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7366,10 +7428,22 @@
       <c r="C7" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E7" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="F7" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G7" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -7381,10 +7455,22 @@
       <c r="C8" s="2">
         <v>99</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E8" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F8" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G8" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Male Achiever</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -7396,10 +7482,22 @@
       <c r="C9" s="2">
         <v>82</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="D9" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E9" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F9" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G9" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -7411,10 +7509,22 @@
       <c r="C10" s="2">
         <v>67</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="D10" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E10" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G10" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -7426,10 +7536,22 @@
       <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="D11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="E11" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="F11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G11" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -7441,10 +7563,22 @@
       <c r="C12" s="2">
         <v>83</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="D12" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E12" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G12" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -7456,10 +7590,22 @@
       <c r="C13" s="2">
         <v>89</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="D13" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E13" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="F13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G13" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -7471,10 +7617,22 @@
       <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="D14" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E14" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G14" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -7486,10 +7644,22 @@
       <c r="C15" s="2">
         <v>63</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="D15" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E15" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="F15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AVG</v>
+      </c>
+      <c r="G15" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -7501,10 +7671,22 @@
       <c r="C16" s="2">
         <v>59</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="D16" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="E16" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="F16" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>OUTLIER</v>
+      </c>
+      <c r="G16" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>None</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_Homework_Exercises.xlsx
+++ b/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINA\Documents\UDEMY\EXCEL\Excel+Homework+Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1615DD6C-D47D-43EB-8562-2D6729569CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A37A63-716A-4193-9F4A-AF0E96D0C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="709" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="709" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -778,7 +778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -786,6 +786,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1095,9 +1096,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1122,6 +1120,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6110,7 +6111,7 @@
     <col min="3" max="3" width="17.44140625" style="31" customWidth="1"/>
     <col min="4" max="5" width="14.88671875" style="31" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6132,7 +6133,7 @@
       <c r="F1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       <c r="F2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="51">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -6181,7 +6182,7 @@
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="53">
+      <c r="G3" s="52">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -6207,7 +6208,7 @@
       <c r="F4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="52">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -6233,7 +6234,7 @@
       <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="52">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -6259,7 +6260,7 @@
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="52">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -6285,7 +6286,7 @@
       <c r="F7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="52">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -6311,7 +6312,7 @@
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -6337,7 +6338,7 @@
       <c r="F9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="52">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -6363,7 +6364,7 @@
       <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="52">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -6389,7 +6390,7 @@
       <c r="F11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="52">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -6415,7 +6416,7 @@
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="52">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -6441,7 +6442,7 @@
       <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="52">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -6467,7 +6468,7 @@
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="52">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -6493,7 +6494,7 @@
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="52">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -6519,7 +6520,7 @@
       <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="52">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -6545,7 +6546,7 @@
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="52">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -6571,7 +6572,7 @@
       <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="52">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -6597,7 +6598,7 @@
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="52">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -6622,7 +6623,7 @@
       <c r="F20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="52">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -6648,7 +6649,7 @@
       <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="52">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -6673,7 +6674,7 @@
       <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="52">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -6699,7 +6700,7 @@
       <c r="F23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="52">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -6725,7 +6726,7 @@
       <c r="F24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="52">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -6751,7 +6752,7 @@
       <c r="F25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="52">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
@@ -6806,19 +6807,19 @@
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="53" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6891,10 +6892,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="53" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6938,7 +6939,7 @@
       <c r="E6" s="8">
         <v>10283</v>
       </c>
-      <c r="G6" s="55"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
@@ -6962,7 +6963,7 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="G7" s="55"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
@@ -6992,7 +6993,7 @@
       <c r="M8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="55" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7039,19 +7040,19 @@
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="54" t="s">
+      <c r="N10" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="54" t="s">
+      <c r="O10" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="54" t="s">
+      <c r="P10" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="Q10" s="54" t="s">
+      <c r="Q10" s="53" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7208,10 +7209,10 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M17" s="54" t="s">
+      <c r="M17" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="54" t="s">
+      <c r="N17" s="53" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7246,8 +7247,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7701,7 +7702,9 @@
   </sheetPr>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7826,7 +7829,10 @@
       <c r="E5" s="8">
         <v>3072</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="36">
+        <f>SUMIFS($D:$D, $A:$A, $H$2)</f>
+        <v>620</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -7890,9 +7896,18 @@
       <c r="G8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="36"/>
+      <c r="H8" s="36">
+        <f>SUMIFS($D:$D, $C:$C,$G8, $A:$A, $H$2)</f>
+        <v>166</v>
+      </c>
+      <c r="I8" s="56">
+        <f>SUMIFS($E:$E, $C:$C,$G8, $A:$A, $H$2)</f>
+        <v>10015</v>
+      </c>
+      <c r="J8" s="36">
+        <f>COUNTIFS($C:$C, G8, $A:$A, $H$2)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -7913,9 +7928,18 @@
       <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="36"/>
+      <c r="H9" s="36">
+        <f t="shared" ref="H9:H10" si="0">SUMIFS($D:$D, $C:$C,$G9, $A:$A, $H$2)</f>
+        <v>372</v>
+      </c>
+      <c r="I9" s="56">
+        <f t="shared" ref="I9:I10" si="1">SUMIFS($E:$E, $C:$C,$G9, $A:$A, $H$2)</f>
+        <v>42628</v>
+      </c>
+      <c r="J9" s="36">
+        <f t="shared" ref="J9:J10" si="2">COUNTIFS($C:$C, G9, $A:$A, $H$2)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -7936,9 +7960,18 @@
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="36"/>
+      <c r="H10" s="36">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="I10" s="56">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+      <c r="J10" s="36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -8983,7 +9016,9 @@
   </sheetPr>
   <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14857,7 +14892,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="48" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
@@ -14867,7 +14902,7 @@
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>204</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -14943,7 +14978,7 @@
       <c r="F5" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="47"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">

--- a/Excel_Homework_Exercises.xlsx
+++ b/Excel_Homework_Exercises.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINA\Documents\UDEMY\EXCEL\Excel+Homework+Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A37A63-716A-4193-9F4A-AF0E96D0C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7DCFC-6E84-400D-8B95-253C8CCB002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="709" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="709" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="235">
   <si>
     <t>State</t>
   </si>
@@ -773,6 +773,12 @@
   <si>
     <t>Growth</t>
   </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>State abbreviation= VLOOKUP(Statecell, array where the value will retrieve from, index column where the value will retrieve from, 1 for exact match)</t>
+  </si>
 </sst>
 </file>
 
@@ -786,7 +792,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -847,7 +853,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,6 +887,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +981,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1122,8 +1134,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2488,8 +2504,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5265420</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -2506,8 +2522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258051" y="457200"/>
-          <a:ext cx="4549774" cy="2168525"/>
+          <a:off x="6541771" y="487680"/>
+          <a:ext cx="5612129" cy="2234565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3035,6 +3051,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152959</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161EE7DC-C31D-B30A-A34E-2E6025286717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="114300"/>
+          <a:ext cx="6447079" cy="998307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9014,10 +9074,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F205"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9027,6 +9087,7 @@
     <col min="4" max="4" width="15" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="121.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
@@ -9062,8 +9123,14 @@
       <c r="D2" s="6">
         <v>177884</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="42"/>
+      <c r="E2" s="45" t="str">
+        <f>VLOOKUP(A2, 'State Abbreviations'!A2:B52,2,1)</f>
+        <v>AL</v>
+      </c>
+      <c r="F2" s="42">
+        <f>IFERROR(VLOOKUP(A2,'State Income (2001-2004)'!A2:C190, 3, 1), "NO INCOME DATA")</f>
+        <v>26338</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -9078,8 +9145,14 @@
       <c r="D3" s="6">
         <v>12538.64</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="42"/>
+      <c r="E3" s="45" t="str">
+        <f>VLOOKUP(A3, 'State Abbreviations'!A3:B53,2,1)</f>
+        <v>AK</v>
+      </c>
+      <c r="F3" s="42">
+        <f>IFERROR(VLOOKUP(A3,'State Income (2001-2004)'!A3:C191, 3, 1), "NO INCOME DATA")</f>
+        <v>33568</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -9094,8 +9167,14 @@
       <c r="D4" s="6">
         <v>102612.64</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="45" t="str">
+        <f>VLOOKUP(A4, 'State Abbreviations'!A4:B54,2,1)</f>
+        <v>AZ</v>
+      </c>
+      <c r="F4" s="42">
+        <f>IFERROR(VLOOKUP(A4,'State Income (2001-2004)'!A4:C192, 3, 1), "NO INCOME DATA")</f>
+        <v>26838</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -9110,8 +9189,14 @@
       <c r="D5" s="6">
         <v>53468</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="45" t="str">
+        <f>VLOOKUP(A5, 'State Abbreviations'!A5:B55,2,1)</f>
+        <v>AR</v>
+      </c>
+      <c r="F5" s="42">
+        <f>IFERROR(VLOOKUP(A5,'State Income (2001-2004)'!A5:C193, 3, 1), "NO INCOME DATA")</f>
+        <v>24289</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -9126,8 +9211,14 @@
       <c r="D6" s="6">
         <v>1016149.44</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="42"/>
+      <c r="E6" s="45" t="str">
+        <f>VLOOKUP(A6, 'State Abbreviations'!A6:B56,2,1)</f>
+        <v>CA</v>
+      </c>
+      <c r="F6" s="42">
+        <f>IFERROR(VLOOKUP(A6,'State Income (2001-2004)'!A6:C194, 3, 1), "NO INCOME DATA")</f>
+        <v>33749</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9142,8 +9233,14 @@
       <c r="D7" s="6">
         <v>172050.44</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="42"/>
+      <c r="E7" s="45" t="str">
+        <f>VLOOKUP(A7, 'State Abbreviations'!A7:B57,2,1)</f>
+        <v>CO</v>
+      </c>
+      <c r="F7" s="42">
+        <f>IFERROR(VLOOKUP(A7,'State Income (2001-2004)'!A7:C195, 3, 1), "NO INCOME DATA")</f>
+        <v>34283</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -9158,8 +9255,14 @@
       <c r="D8" s="6">
         <v>102166.95</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="45" t="str">
+        <f>VLOOKUP(A8, 'State Abbreviations'!A8:B58,2,1)</f>
+        <v>CT</v>
+      </c>
+      <c r="F8" s="42">
+        <f>IFERROR(VLOOKUP(A8,'State Income (2001-2004)'!A8:C196, 3, 1), "NO INCOME DATA")</f>
+        <v>43173</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -9174,8 +9277,14 @@
       <c r="D9" s="6">
         <v>23508</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="45" t="str">
+        <f>VLOOKUP(A9, 'State Abbreviations'!A9:B59,2,1)</f>
+        <v>DC</v>
+      </c>
+      <c r="F9" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A9,'State Income (2001-2004)'!A9:C197, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -9190,8 +9299,14 @@
       <c r="D10" s="6">
         <v>17161.77</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="45" t="str">
+        <f>VLOOKUP(A10, 'State Abbreviations'!A10:B60,2,1)</f>
+        <v>DE</v>
+      </c>
+      <c r="F10" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A10,'State Income (2001-2004)'!A10:C198, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -9206,8 +9321,14 @@
       <c r="D11" s="6">
         <v>319647.56</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="45" t="str">
+        <f>VLOOKUP(A11, 'State Abbreviations'!A11:B61,2,1)</f>
+        <v>FL</v>
+      </c>
+      <c r="F11" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A11,'State Income (2001-2004)'!A11:C199, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -9222,8 +9343,14 @@
       <c r="D12" s="6">
         <v>245593.59</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="42"/>
+      <c r="E12" s="45" t="str">
+        <f>VLOOKUP(A12, 'State Abbreviations'!A12:B62,2,1)</f>
+        <v>GA</v>
+      </c>
+      <c r="F12" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A12,'State Income (2001-2004)'!A12:C200, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -9238,8 +9365,14 @@
       <c r="D13" s="6">
         <v>48461.48</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="42"/>
+      <c r="E13" s="45" t="str">
+        <f>VLOOKUP(A13, 'State Abbreviations'!A13:B63,2,1)</f>
+        <v>HI</v>
+      </c>
+      <c r="F13" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A13,'State Income (2001-2004)'!A13:C201, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -9254,8 +9387,14 @@
       <c r="D14" s="6">
         <v>38818.589999999997</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="42"/>
+      <c r="E14" s="45" t="str">
+        <f>VLOOKUP(A14, 'State Abbreviations'!A14:B64,2,1)</f>
+        <v>ID</v>
+      </c>
+      <c r="F14" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A14,'State Income (2001-2004)'!A14:C202, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -9270,8 +9409,14 @@
       <c r="D15" s="6">
         <v>496771.72000000003</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="45" t="str">
+        <f>VLOOKUP(A15, 'State Abbreviations'!A15:B65,2,1)</f>
+        <v>IL</v>
+      </c>
+      <c r="F15" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A15,'State Income (2001-2004)'!A15:C203, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -9286,10 +9431,16 @@
       <c r="D16" s="6">
         <v>243219.4</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="42"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="45" t="str">
+        <f>VLOOKUP(A16, 'State Abbreviations'!A16:B66,2,1)</f>
+        <v>IN</v>
+      </c>
+      <c r="F16" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A16,'State Income (2001-2004)'!A16:C204, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -9302,10 +9453,19 @@
       <c r="D17" s="6">
         <v>58526.48</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="42"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="45" t="str">
+        <f>VLOOKUP(A17, 'State Abbreviations'!A17:B67,2,1)</f>
+        <v>IA</v>
+      </c>
+      <c r="F17" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A17,'State Income (2001-2004)'!A17:C205, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -9318,10 +9478,19 @@
       <c r="D18" s="6">
         <v>107536.72</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="42"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="45" t="str">
+        <f>VLOOKUP(A18, 'State Abbreviations'!A18:B68,2,1)</f>
+        <v>KS</v>
+      </c>
+      <c r="F18" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A18,'State Income (2001-2004)'!A18:C206, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -9334,10 +9503,16 @@
       <c r="D19" s="6">
         <v>161670.76</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="42"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="45" t="str">
+        <f>VLOOKUP(A19, 'State Abbreviations'!A19:B69,2,1)</f>
+        <v>KY</v>
+      </c>
+      <c r="F19" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A19,'State Income (2001-2004)'!A19:C207, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -9350,10 +9525,16 @@
       <c r="D20" s="6">
         <v>89379.520000000004</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="42"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="45" t="str">
+        <f>VLOOKUP(A20, 'State Abbreviations'!A20:B70,2,1)</f>
+        <v>LA</v>
+      </c>
+      <c r="F20" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A20,'State Income (2001-2004)'!A20:C208, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -9366,10 +9547,16 @@
       <c r="D21" s="6">
         <v>38247.689999999995</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="42"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="45" t="str">
+        <f>VLOOKUP(A21, 'State Abbreviations'!A21:B71,2,1)</f>
+        <v>ME</v>
+      </c>
+      <c r="F21" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A21,'State Income (2001-2004)'!A21:C209, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -9382,10 +9569,16 @@
       <c r="D22" s="6">
         <v>158894.57999999999</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="42"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="45" t="str">
+        <f>VLOOKUP(A22, 'State Abbreviations'!A22:B72,2,1)</f>
+        <v>MD</v>
+      </c>
+      <c r="F22" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A22,'State Income (2001-2004)'!A22:C210, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -9398,10 +9591,16 @@
       <c r="D23" s="6">
         <v>253963.88</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="42"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="45" t="str">
+        <f>VLOOKUP(A23, 'State Abbreviations'!A23:B73,2,1)</f>
+        <v>MA</v>
+      </c>
+      <c r="F23" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A23,'State Income (2001-2004)'!A23:C211, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -9414,10 +9613,16 @@
       <c r="D24" s="6">
         <v>198768.88</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="45" t="str">
+        <f>VLOOKUP(A24, 'State Abbreviations'!A24:B74,2,1)</f>
+        <v>MI</v>
+      </c>
+      <c r="F24" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A24,'State Income (2001-2004)'!A24:C212, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -9430,10 +9635,16 @@
       <c r="D25" s="6">
         <v>196779.16</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E25" s="45" t="str">
+        <f>VLOOKUP(A25, 'State Abbreviations'!A25:B75,2,1)</f>
+        <v>MN</v>
+      </c>
+      <c r="F25" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A25,'State Income (2001-2004)'!A25:C213, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -9446,10 +9657,16 @@
       <c r="D26" s="6">
         <v>85339.739999999991</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="42"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E26" s="45" t="str">
+        <f>VLOOKUP(A26, 'State Abbreviations'!A26:B76,2,1)</f>
+        <v>MS</v>
+      </c>
+      <c r="F26" s="42">
+        <f>IFERROR(VLOOKUP(A26,'State Income (2001-2004)'!A26:C214, 3, 1), "NO INCOME DATA")</f>
+        <v>22372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -9462,10 +9679,16 @@
       <c r="D27" s="6">
         <v>111904.22</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="42"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="45" t="str">
+        <f>VLOOKUP(A27, 'State Abbreviations'!A27:B77,2,1)</f>
+        <v>MO</v>
+      </c>
+      <c r="F27" s="42">
+        <f>IFERROR(VLOOKUP(A27,'State Income (2001-2004)'!A27:C215, 3, 1), "NO INCOME DATA")</f>
+        <v>28936</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -9478,10 +9701,16 @@
       <c r="D28" s="6">
         <v>36087.800000000003</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="42"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="45" t="str">
+        <f>VLOOKUP(A28, 'State Abbreviations'!A28:B78,2,1)</f>
+        <v>MT</v>
+      </c>
+      <c r="F28" s="42">
+        <f>IFERROR(VLOOKUP(A28,'State Income (2001-2004)'!A28:C216, 3, 1), "NO INCOME DATA")</f>
+        <v>25020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -9494,10 +9723,16 @@
       <c r="D29" s="6">
         <v>51337.89</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E29" s="45" t="str">
+        <f>VLOOKUP(A29, 'State Abbreviations'!A29:B79,2,1)</f>
+        <v>NE</v>
+      </c>
+      <c r="F29" s="42">
+        <f>IFERROR(VLOOKUP(A29,'State Income (2001-2004)'!A29:C217, 3, 1), "NO INCOME DATA")</f>
+        <v>29771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -9510,10 +9745,16 @@
       <c r="D30" s="6">
         <v>79930.28</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="42"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E30" s="45" t="str">
+        <f>VLOOKUP(A30, 'State Abbreviations'!A30:B80,2,1)</f>
+        <v>NV</v>
+      </c>
+      <c r="F30" s="42">
+        <f>IFERROR(VLOOKUP(A30,'State Income (2001-2004)'!A30:C218, 3, 1), "NO INCOME DATA")</f>
+        <v>30180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -9526,10 +9767,16 @@
       <c r="D31" s="6">
         <v>37073.58</v>
       </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="42"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E31" s="45" t="str">
+        <f>VLOOKUP(A31, 'State Abbreviations'!A31:B81,2,1)</f>
+        <v>NH</v>
+      </c>
+      <c r="F31" s="42">
+        <f>IFERROR(VLOOKUP(A31,'State Income (2001-2004)'!A31:C219, 3, 1), "NO INCOME DATA")</f>
+        <v>34334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -9542,8 +9789,14 @@
       <c r="D32" s="6">
         <v>336574</v>
       </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="42"/>
+      <c r="E32" s="45" t="str">
+        <f>VLOOKUP(A32, 'State Abbreviations'!A32:B82,2,1)</f>
+        <v>NJ</v>
+      </c>
+      <c r="F32" s="42">
+        <f>IFERROR(VLOOKUP(A32,'State Income (2001-2004)'!A32:C220, 3, 1), "NO INCOME DATA")</f>
+        <v>39453</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -9558,8 +9811,14 @@
       <c r="D33" s="6">
         <v>54571.38</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="42"/>
+      <c r="E33" s="45" t="str">
+        <f>VLOOKUP(A33, 'State Abbreviations'!A33:B83,2,1)</f>
+        <v>NM</v>
+      </c>
+      <c r="F33" s="42">
+        <f>IFERROR(VLOOKUP(A33,'State Income (2001-2004)'!A33:C221, 3, 1), "NO INCOME DATA")</f>
+        <v>23941</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
@@ -9574,8 +9833,14 @@
       <c r="D34" s="6">
         <v>759058.28</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="42"/>
+      <c r="E34" s="45" t="str">
+        <f>VLOOKUP(A34, 'State Abbreviations'!A34:B84,2,1)</f>
+        <v>NY</v>
+      </c>
+      <c r="F34" s="42">
+        <f>IFERROR(VLOOKUP(A34,'State Income (2001-2004)'!A34:C222, 3, 1), "NO INCOME DATA")</f>
+        <v>36043</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -9590,8 +9855,14 @@
       <c r="D35" s="6">
         <v>241479.38999999998</v>
       </c>
-      <c r="E35" s="45"/>
-      <c r="F35" s="42"/>
+      <c r="E35" s="45" t="str">
+        <f>VLOOKUP(A35, 'State Abbreviations'!A35:B85,2,1)</f>
+        <v>NC</v>
+      </c>
+      <c r="F35" s="42">
+        <f>IFERROR(VLOOKUP(A35,'State Income (2001-2004)'!A35:C223, 3, 1), "NO INCOME DATA")</f>
+        <v>27711</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
@@ -9606,8 +9877,14 @@
       <c r="D36" s="6">
         <v>25688</v>
       </c>
-      <c r="E36" s="45"/>
-      <c r="F36" s="42"/>
+      <c r="E36" s="45" t="str">
+        <f>VLOOKUP(A36, 'State Abbreviations'!A36:B86,2,1)</f>
+        <v>ND</v>
+      </c>
+      <c r="F36" s="42">
+        <f>IFERROR(VLOOKUP(A36,'State Income (2001-2004)'!A36:C224, 3, 1), "NO INCOME DATA")</f>
+        <v>26982</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -9622,8 +9899,14 @@
       <c r="D37" s="6">
         <v>227062.80000000002</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="42"/>
+      <c r="E37" s="45" t="str">
+        <f>VLOOKUP(A37, 'State Abbreviations'!A37:B87,2,1)</f>
+        <v>OH</v>
+      </c>
+      <c r="F37" s="42">
+        <f>IFERROR(VLOOKUP(A37,'State Income (2001-2004)'!A37:C225, 3, 1), "NO INCOME DATA")</f>
+        <v>29405</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
@@ -9638,8 +9921,14 @@
       <c r="D38" s="6">
         <v>69013.08</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="42"/>
+      <c r="E38" s="45" t="str">
+        <f>VLOOKUP(A38, 'State Abbreviations'!A38:B88,2,1)</f>
+        <v>OK</v>
+      </c>
+      <c r="F38" s="42">
+        <f>IFERROR(VLOOKUP(A38,'State Income (2001-2004)'!A38:C226, 3, 1), "NO INCOME DATA")</f>
+        <v>25575</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
@@ -9654,8 +9943,14 @@
       <c r="D39" s="6">
         <v>68427.98</v>
       </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="42"/>
+      <c r="E39" s="45" t="str">
+        <f>VLOOKUP(A39, 'State Abbreviations'!A39:B89,2,1)</f>
+        <v>OR</v>
+      </c>
+      <c r="F39" s="42">
+        <f>IFERROR(VLOOKUP(A39,'State Income (2001-2004)'!A39:C227, 3, 1), "NO INCOME DATA")</f>
+        <v>28731</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -9670,8 +9965,14 @@
       <c r="D40" s="6">
         <v>245621.08000000002</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="42"/>
+      <c r="E40" s="45" t="str">
+        <f>VLOOKUP(A40, 'State Abbreviations'!A40:B90,2,1)</f>
+        <v>PA</v>
+      </c>
+      <c r="F40" s="42">
+        <f>IFERROR(VLOOKUP(A40,'State Income (2001-2004)'!A40:C228, 3, 1), "NO INCOME DATA")</f>
+        <v>31727</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
@@ -9686,8 +9987,14 @@
       <c r="D41" s="6">
         <v>41932.76</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="42"/>
+      <c r="E41" s="45" t="str">
+        <f>VLOOKUP(A41, 'State Abbreviations'!A41:B91,2,1)</f>
+        <v>RI</v>
+      </c>
+      <c r="F41" s="42">
+        <f>IFERROR(VLOOKUP(A41,'State Income (2001-2004)'!A41:C229, 3, 1), "NO INCOME DATA")</f>
+        <v>31319</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
@@ -9702,8 +10009,14 @@
       <c r="D42" s="6">
         <v>160480.48000000001</v>
       </c>
-      <c r="E42" s="45"/>
-      <c r="F42" s="42"/>
+      <c r="E42" s="45" t="str">
+        <f>VLOOKUP(A42, 'State Abbreviations'!A42:B92,2,1)</f>
+        <v>SC</v>
+      </c>
+      <c r="F42" s="42">
+        <f>IFERROR(VLOOKUP(A42,'State Income (2001-2004)'!A42:C230, 3, 1), "NO INCOME DATA")</f>
+        <v>25400</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
@@ -9718,8 +10031,14 @@
       <c r="D43" s="6">
         <v>30193.760000000002</v>
       </c>
-      <c r="E43" s="45"/>
-      <c r="F43" s="42"/>
+      <c r="E43" s="45" t="str">
+        <f>VLOOKUP(A43, 'State Abbreviations'!A43:B93,2,1)</f>
+        <v>SD</v>
+      </c>
+      <c r="F43" s="42">
+        <f>IFERROR(VLOOKUP(A43,'State Income (2001-2004)'!A43:C231, 3, 1), "NO INCOME DATA")</f>
+        <v>26894</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
@@ -9734,8 +10053,14 @@
       <c r="D44" s="6">
         <v>170678.49</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="42"/>
+      <c r="E44" s="45" t="str">
+        <f>VLOOKUP(A44, 'State Abbreviations'!A44:B94,2,1)</f>
+        <v>TN</v>
+      </c>
+      <c r="F44" s="42">
+        <f>IFERROR(VLOOKUP(A44,'State Income (2001-2004)'!A44:C232, 3, 1), "NO INCOME DATA")</f>
+        <v>27671</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
@@ -9750,8 +10075,14 @@
       <c r="D45" s="6">
         <v>417036.4</v>
       </c>
-      <c r="E45" s="45"/>
-      <c r="F45" s="42"/>
+      <c r="E45" s="45" t="str">
+        <f>VLOOKUP(A45, 'State Abbreviations'!A45:B95,2,1)</f>
+        <v>TX</v>
+      </c>
+      <c r="F45" s="42">
+        <f>IFERROR(VLOOKUP(A45,'State Income (2001-2004)'!A45:C233, 3, 1), "NO INCOME DATA")</f>
+        <v>28551</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
@@ -9766,8 +10097,14 @@
       <c r="D46" s="6">
         <v>66995.069999999992</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="42"/>
+      <c r="E46" s="45" t="str">
+        <f>VLOOKUP(A46, 'State Abbreviations'!A46:B96,2,1)</f>
+        <v>UT</v>
+      </c>
+      <c r="F46" s="42">
+        <f>IFERROR(VLOOKUP(A46,'State Income (2001-2004)'!A46:C234, 3, 1), "NO INCOME DATA")</f>
+        <v>24306</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
@@ -9782,8 +10119,14 @@
       <c r="D47" s="6">
         <v>18264.809999999998</v>
       </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="42"/>
+      <c r="E47" s="45" t="str">
+        <f>VLOOKUP(A47, 'State Abbreviations'!A47:B97,2,1)</f>
+        <v>VT</v>
+      </c>
+      <c r="F47" s="42">
+        <f>IFERROR(VLOOKUP(A47,'State Income (2001-2004)'!A47:C235, 3, 1), "NO INCOME DATA")</f>
+        <v>29567</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
@@ -9798,8 +10141,14 @@
       <c r="D48" s="6">
         <v>212355.44999999998</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="42"/>
+      <c r="E48" s="45" t="str">
+        <f>VLOOKUP(A48, 'State Abbreviations'!A48:B98,2,1)</f>
+        <v>VA</v>
+      </c>
+      <c r="F48" s="42">
+        <f>IFERROR(VLOOKUP(A48,'State Income (2001-2004)'!A48:C236, 3, 1), "NO INCOME DATA")</f>
+        <v>32922</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -9814,8 +10163,14 @@
       <c r="D49" s="6">
         <v>176823.63</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="42"/>
+      <c r="E49" s="45" t="str">
+        <f>VLOOKUP(A49, 'State Abbreviations'!A49:B99,2,1)</f>
+        <v>WA</v>
+      </c>
+      <c r="F49" s="42">
+        <f>IFERROR(VLOOKUP(A49,'State Income (2001-2004)'!A49:C237, 3, 1), "NO INCOME DATA")</f>
+        <v>32677</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
@@ -9830,8 +10185,14 @@
       <c r="D50" s="6">
         <v>72333.759999999995</v>
       </c>
-      <c r="E50" s="45"/>
-      <c r="F50" s="42"/>
+      <c r="E50" s="45" t="str">
+        <f>VLOOKUP(A50, 'State Abbreviations'!A50:B100,2,1)</f>
+        <v>WV</v>
+      </c>
+      <c r="F50" s="42">
+        <f>IFERROR(VLOOKUP(A50,'State Income (2001-2004)'!A50:C238, 3, 1), "NO INCOME DATA")</f>
+        <v>27215</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -9846,8 +10207,14 @@
       <c r="D51" s="6">
         <v>214547</v>
       </c>
-      <c r="E51" s="45"/>
-      <c r="F51" s="42"/>
+      <c r="E51" s="45" t="str">
+        <f>VLOOKUP(A51, 'State Abbreviations'!A51:B101,2,1)</f>
+        <v>WI</v>
+      </c>
+      <c r="F51" s="42">
+        <f>IFERROR(VLOOKUP(A51,'State Income (2001-2004)'!A51:C239, 3, 1), "NO INCOME DATA")</f>
+        <v>33565</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
@@ -9862,8 +10229,14 @@
       <c r="D52" s="6">
         <v>19751.28</v>
       </c>
-      <c r="E52" s="45"/>
-      <c r="F52" s="42"/>
+      <c r="E52" s="45" t="str">
+        <f>VLOOKUP(A52, 'State Abbreviations'!A52:B102,2,1)</f>
+        <v>WY</v>
+      </c>
+      <c r="F52" s="42">
+        <f>IFERROR(VLOOKUP(A52,'State Income (2001-2004)'!A52:C240, 3, 1), "NO INCOME DATA")</f>
+        <v>36778</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
@@ -9878,8 +10251,14 @@
       <c r="D53" s="6">
         <v>135905.46</v>
       </c>
-      <c r="E53" s="45"/>
-      <c r="F53" s="42"/>
+      <c r="E53" s="45" t="e">
+        <f>VLOOKUP(A53, 'State Abbreviations'!A53:B103,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A53,'State Income (2001-2004)'!A53:C241, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
@@ -9894,8 +10273,14 @@
       <c r="D54" s="6">
         <v>19663.05</v>
       </c>
-      <c r="E54" s="45"/>
-      <c r="F54" s="42"/>
+      <c r="E54" s="45" t="e">
+        <f>VLOOKUP(A54, 'State Abbreviations'!A54:B104,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F54" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A54,'State Income (2001-2004)'!A54:C242, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
@@ -9910,8 +10295,14 @@
       <c r="D55" s="6">
         <v>114876.68000000001</v>
       </c>
-      <c r="E55" s="45"/>
-      <c r="F55" s="42"/>
+      <c r="E55" s="45" t="e">
+        <f>VLOOKUP(A55, 'State Abbreviations'!A55:B105,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F55" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A55,'State Income (2001-2004)'!A55:C243, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
@@ -9926,8 +10317,14 @@
       <c r="D56" s="6">
         <v>110105.16</v>
       </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="42"/>
+      <c r="E56" s="45" t="e">
+        <f>VLOOKUP(A56, 'State Abbreviations'!A56:B106,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F56" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A56,'State Income (2001-2004)'!A56:C244, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
@@ -9942,8 +10339,14 @@
       <c r="D57" s="6">
         <v>1076813.97</v>
       </c>
-      <c r="E57" s="45"/>
-      <c r="F57" s="42"/>
+      <c r="E57" s="45" t="e">
+        <f>VLOOKUP(A57, 'State Abbreviations'!A57:B107,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F57" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A57,'State Income (2001-2004)'!A57:C245, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
@@ -9958,8 +10361,14 @@
       <c r="D58" s="6">
         <v>138042.09</v>
       </c>
-      <c r="E58" s="45"/>
-      <c r="F58" s="42"/>
+      <c r="E58" s="45" t="e">
+        <f>VLOOKUP(A58, 'State Abbreviations'!A58:B108,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F58" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A58,'State Income (2001-2004)'!A58:C246, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
@@ -9974,8 +10383,14 @@
       <c r="D59" s="6">
         <v>140144.16</v>
       </c>
-      <c r="E59" s="45"/>
-      <c r="F59" s="42"/>
+      <c r="E59" s="45" t="e">
+        <f>VLOOKUP(A59, 'State Abbreviations'!A59:B109,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F59" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A59,'State Income (2001-2004)'!A59:C247, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
@@ -9990,8 +10405,14 @@
       <c r="D60" s="6">
         <v>33214.559999999998</v>
       </c>
-      <c r="E60" s="45"/>
-      <c r="F60" s="42"/>
+      <c r="E60" s="45" t="e">
+        <f>VLOOKUP(A60, 'State Abbreviations'!A60:B110,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F60" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A60,'State Income (2001-2004)'!A60:C248, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
@@ -10006,8 +10427,14 @@
       <c r="D61" s="6">
         <v>16605.689999999999</v>
       </c>
-      <c r="E61" s="45"/>
-      <c r="F61" s="42"/>
+      <c r="E61" s="45" t="e">
+        <f>VLOOKUP(A61, 'State Abbreviations'!A61:B111,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F61" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A61,'State Income (2001-2004)'!A61:C249, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
@@ -10022,8 +10449,14 @@
       <c r="D62" s="6">
         <v>695886.44000000006</v>
       </c>
-      <c r="E62" s="45"/>
-      <c r="F62" s="42"/>
+      <c r="E62" s="45" t="e">
+        <f>VLOOKUP(A62, 'State Abbreviations'!A62:B112,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F62" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A62,'State Income (2001-2004)'!A62:C250, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
@@ -10038,8 +10471,14 @@
       <c r="D63" s="6">
         <v>176587.66</v>
       </c>
-      <c r="E63" s="45"/>
-      <c r="F63" s="42"/>
+      <c r="E63" s="45" t="e">
+        <f>VLOOKUP(A63, 'State Abbreviations'!A63:B113,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F63" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A63,'State Income (2001-2004)'!A63:C251, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
@@ -10054,8 +10493,14 @@
       <c r="D64" s="6">
         <v>50513.599999999999</v>
       </c>
-      <c r="E64" s="45"/>
-      <c r="F64" s="42"/>
+      <c r="E64" s="45" t="e">
+        <f>VLOOKUP(A64, 'State Abbreviations'!A64:B114,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F64" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A64,'State Income (2001-2004)'!A64:C252, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
@@ -10070,8 +10515,14 @@
       <c r="D65" s="6">
         <v>55730.48</v>
       </c>
-      <c r="E65" s="45"/>
-      <c r="F65" s="42"/>
+      <c r="E65" s="45" t="e">
+        <f>VLOOKUP(A65, 'State Abbreviations'!A65:B115,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F65" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A65,'State Income (2001-2004)'!A65:C253, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
@@ -10086,8 +10537,14 @@
       <c r="D66" s="6">
         <v>381409.01999999996</v>
       </c>
-      <c r="E66" s="45"/>
-      <c r="F66" s="42"/>
+      <c r="E66" s="45" t="e">
+        <f>VLOOKUP(A66, 'State Abbreviations'!A66:B116,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F66" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A66,'State Income (2001-2004)'!A66:C254, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -10102,8 +10559,14 @@
       <c r="D67" s="6">
         <v>187127.07</v>
       </c>
-      <c r="E67" s="45"/>
-      <c r="F67" s="42"/>
+      <c r="E67" s="45" t="e">
+        <f>VLOOKUP(A67, 'State Abbreviations'!A67:B117,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F67" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A67,'State Income (2001-2004)'!A67:C255, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
@@ -10118,8 +10581,14 @@
       <c r="D68" s="6">
         <v>59089.020000000004</v>
       </c>
-      <c r="E68" s="45"/>
-      <c r="F68" s="42"/>
+      <c r="E68" s="45" t="e">
+        <f>VLOOKUP(A68, 'State Abbreviations'!A68:B118,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F68" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A68,'State Income (2001-2004)'!A68:C256, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
@@ -10134,8 +10603,14 @@
       <c r="D69" s="6">
         <v>109420.08</v>
       </c>
-      <c r="E69" s="45"/>
-      <c r="F69" s="42"/>
+      <c r="E69" s="45" t="e">
+        <f>VLOOKUP(A69, 'State Abbreviations'!A69:B119,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F69" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A69,'State Income (2001-2004)'!A69:C257, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
@@ -10150,8 +10625,14 @@
       <c r="D70" s="6">
         <v>124377.65999999999</v>
       </c>
-      <c r="E70" s="45"/>
-      <c r="F70" s="42"/>
+      <c r="E70" s="45" t="e">
+        <f>VLOOKUP(A70, 'State Abbreviations'!A70:B120,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F70" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A70,'State Income (2001-2004)'!A70:C258, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
@@ -10166,8 +10647,14 @@
       <c r="D71" s="6">
         <v>180630.80000000002</v>
       </c>
-      <c r="E71" s="45"/>
-      <c r="F71" s="42"/>
+      <c r="E71" s="45" t="e">
+        <f>VLOOKUP(A71, 'State Abbreviations'!A71:B121,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F71" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A71,'State Income (2001-2004)'!A71:C259, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
@@ -10182,8 +10669,14 @@
       <c r="D72" s="6">
         <v>52690.12</v>
       </c>
-      <c r="E72" s="45"/>
-      <c r="F72" s="42"/>
+      <c r="E72" s="45" t="e">
+        <f>VLOOKUP(A72, 'State Abbreviations'!A72:B122,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F72" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A72,'State Income (2001-2004)'!A72:C260, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
@@ -10198,8 +10691,14 @@
       <c r="D73" s="6">
         <v>111161.16</v>
       </c>
-      <c r="E73" s="45"/>
-      <c r="F73" s="42"/>
+      <c r="E73" s="45" t="e">
+        <f>VLOOKUP(A73, 'State Abbreviations'!A73:B123,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F73" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A73,'State Income (2001-2004)'!A73:C261, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
@@ -10214,8 +10713,14 @@
       <c r="D74" s="6">
         <v>192495.15</v>
       </c>
-      <c r="E74" s="45"/>
-      <c r="F74" s="42"/>
+      <c r="E74" s="45" t="e">
+        <f>VLOOKUP(A74, 'State Abbreviations'!A74:B124,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F74" s="42">
+        <f>IFERROR(VLOOKUP(A74,'State Income (2001-2004)'!A74:C262, 3, 1), "NO INCOME DATA")</f>
+        <v>39815</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
@@ -10230,8 +10735,14 @@
       <c r="D75" s="6">
         <v>202252.4</v>
       </c>
-      <c r="E75" s="45"/>
-      <c r="F75" s="42"/>
+      <c r="E75" s="45" t="e">
+        <f>VLOOKUP(A75, 'State Abbreviations'!A75:B125,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F75" s="42">
+        <f>IFERROR(VLOOKUP(A75,'State Income (2001-2004)'!A75:C263, 3, 1), "NO INCOME DATA")</f>
+        <v>30439</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
@@ -10246,8 +10757,14 @@
       <c r="D76" s="6">
         <v>102019.16</v>
       </c>
-      <c r="E76" s="45"/>
-      <c r="F76" s="42"/>
+      <c r="E76" s="45" t="e">
+        <f>VLOOKUP(A76, 'State Abbreviations'!A76:B126,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F76" s="42">
+        <f>IFERROR(VLOOKUP(A76,'State Income (2001-2004)'!A76:C264, 3, 1), "NO INCOME DATA")</f>
+        <v>34443</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
@@ -10262,8 +10779,14 @@
       <c r="D77" s="6">
         <v>58059.32</v>
       </c>
-      <c r="E77" s="45"/>
-      <c r="F77" s="42"/>
+      <c r="E77" s="45" t="e">
+        <f>VLOOKUP(A77, 'State Abbreviations'!A77:B127,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F77" s="42">
+        <f>IFERROR(VLOOKUP(A77,'State Income (2001-2004)'!A77:C265, 3, 1), "NO INCOME DATA")</f>
+        <v>23448</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
@@ -10278,8 +10801,14 @@
       <c r="D78" s="6">
         <v>115092.36</v>
       </c>
-      <c r="E78" s="45"/>
-      <c r="F78" s="42"/>
+      <c r="E78" s="45" t="e">
+        <f>VLOOKUP(A78, 'State Abbreviations'!A78:B128,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F78" s="42">
+        <f>IFERROR(VLOOKUP(A78,'State Income (2001-2004)'!A78:C266, 3, 1), "NO INCOME DATA")</f>
+        <v>29252</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
@@ -10294,8 +10823,14 @@
       <c r="D79" s="6">
         <v>27805.95</v>
       </c>
-      <c r="E79" s="45"/>
-      <c r="F79" s="42"/>
+      <c r="E79" s="45" t="e">
+        <f>VLOOKUP(A79, 'State Abbreviations'!A79:B129,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F79" s="42">
+        <f>IFERROR(VLOOKUP(A79,'State Income (2001-2004)'!A79:C267, 3, 1), "NO INCOME DATA")</f>
+        <v>25920</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
@@ -10310,8 +10845,14 @@
       <c r="D80" s="6">
         <v>69888.56</v>
       </c>
-      <c r="E80" s="45"/>
-      <c r="F80" s="42"/>
+      <c r="E80" s="45" t="e">
+        <f>VLOOKUP(A80, 'State Abbreviations'!A80:B130,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F80" s="42">
+        <f>IFERROR(VLOOKUP(A80,'State Income (2001-2004)'!A80:C268, 3, 1), "NO INCOME DATA")</f>
+        <v>30758</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
@@ -10326,8 +10867,14 @@
       <c r="D81" s="6">
         <v>93390.84</v>
       </c>
-      <c r="E81" s="45"/>
-      <c r="F81" s="42"/>
+      <c r="E81" s="45" t="e">
+        <f>VLOOKUP(A81, 'State Abbreviations'!A81:B131,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F81" s="42">
+        <f>IFERROR(VLOOKUP(A81,'State Income (2001-2004)'!A81:C269, 3, 1), "NO INCOME DATA")</f>
+        <v>31266</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
@@ -10342,8 +10889,14 @@
       <c r="D82" s="6">
         <v>51980</v>
       </c>
-      <c r="E82" s="45"/>
-      <c r="F82" s="42"/>
+      <c r="E82" s="45" t="e">
+        <f>VLOOKUP(A82, 'State Abbreviations'!A82:B132,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F82" s="42">
+        <f>IFERROR(VLOOKUP(A82,'State Income (2001-2004)'!A82:C270, 3, 1), "NO INCOME DATA")</f>
+        <v>34702</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
@@ -10358,8 +10911,14 @@
       <c r="D83" s="6">
         <v>260966.37</v>
       </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="42"/>
+      <c r="E83" s="45" t="e">
+        <f>VLOOKUP(A83, 'State Abbreviations'!A83:B133,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F83" s="42">
+        <f>IFERROR(VLOOKUP(A83,'State Income (2001-2004)'!A83:C271, 3, 1), "NO INCOME DATA")</f>
+        <v>40427</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
@@ -10374,8 +10933,14 @@
       <c r="D84" s="6">
         <v>76131.56</v>
       </c>
-      <c r="E84" s="45"/>
-      <c r="F84" s="42"/>
+      <c r="E84" s="45" t="e">
+        <f>VLOOKUP(A84, 'State Abbreviations'!A84:B134,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F84" s="42">
+        <f>IFERROR(VLOOKUP(A84,'State Income (2001-2004)'!A84:C272, 3, 1), "NO INCOME DATA")</f>
+        <v>25541</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
@@ -10390,8 +10955,14 @@
       <c r="D85" s="6">
         <v>576812.64</v>
       </c>
-      <c r="E85" s="45"/>
-      <c r="F85" s="42"/>
+      <c r="E85" s="45" t="e">
+        <f>VLOOKUP(A85, 'State Abbreviations'!A85:B135,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F85" s="42">
+        <f>IFERROR(VLOOKUP(A85,'State Income (2001-2004)'!A85:C273, 3, 1), "NO INCOME DATA")</f>
+        <v>36574</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
@@ -10406,8 +10977,14 @@
       <c r="D86" s="6">
         <v>341648.84</v>
       </c>
-      <c r="E86" s="45"/>
-      <c r="F86" s="42"/>
+      <c r="E86" s="45" t="e">
+        <f>VLOOKUP(A86, 'State Abbreviations'!A86:B136,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F86" s="42">
+        <f>IFERROR(VLOOKUP(A86,'State Income (2001-2004)'!A86:C274, 3, 1), "NO INCOME DATA")</f>
+        <v>28235</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
@@ -10422,8 +10999,14 @@
       <c r="D87" s="6">
         <v>19030.98</v>
       </c>
-      <c r="E87" s="45"/>
-      <c r="F87" s="42"/>
+      <c r="E87" s="45" t="e">
+        <f>VLOOKUP(A87, 'State Abbreviations'!A87:B137,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F87" s="42">
+        <f>IFERROR(VLOOKUP(A87,'State Income (2001-2004)'!A87:C275, 3, 1), "NO INCOME DATA")</f>
+        <v>29204</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
@@ -10438,8 +11021,14 @@
       <c r="D88" s="6">
         <v>343770.33</v>
       </c>
-      <c r="E88" s="45"/>
-      <c r="F88" s="42"/>
+      <c r="E88" s="45" t="e">
+        <f>VLOOKUP(A88, 'State Abbreviations'!A88:B138,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" s="42">
+        <f>IFERROR(VLOOKUP(A88,'State Income (2001-2004)'!A88:C276, 3, 1), "NO INCOME DATA")</f>
+        <v>29944</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
@@ -10454,8 +11043,14 @@
       <c r="D89" s="6">
         <v>140942.12</v>
       </c>
-      <c r="E89" s="45"/>
-      <c r="F89" s="42"/>
+      <c r="E89" s="45" t="e">
+        <f>VLOOKUP(A89, 'State Abbreviations'!A89:B139,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F89" s="42">
+        <f>IFERROR(VLOOKUP(A89,'State Income (2001-2004)'!A89:C277, 3, 1), "NO INCOME DATA")</f>
+        <v>26656</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
@@ -10470,8 +11065,14 @@
       <c r="D90" s="6">
         <v>143783.44</v>
       </c>
-      <c r="E90" s="45"/>
-      <c r="F90" s="42"/>
+      <c r="E90" s="45" t="e">
+        <f>VLOOKUP(A90, 'State Abbreviations'!A90:B140,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F90" s="42">
+        <f>IFERROR(VLOOKUP(A90,'State Income (2001-2004)'!A90:C278, 3, 1), "NO INCOME DATA")</f>
+        <v>29340</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
@@ -10486,8 +11087,14 @@
       <c r="D91" s="6">
         <v>496251.68</v>
       </c>
-      <c r="E91" s="45"/>
-      <c r="F91" s="42"/>
+      <c r="E91" s="45" t="e">
+        <f>VLOOKUP(A91, 'State Abbreviations'!A91:B141,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F91" s="42">
+        <f>IFERROR(VLOOKUP(A91,'State Income (2001-2004)'!A91:C279, 3, 1), "NO INCOME DATA")</f>
+        <v>31998</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
@@ -10502,8 +11109,14 @@
       <c r="D92" s="6">
         <v>43225.279999999999</v>
       </c>
-      <c r="E92" s="45"/>
-      <c r="F92" s="42"/>
+      <c r="E92" s="45" t="e">
+        <f>VLOOKUP(A92, 'State Abbreviations'!A92:B142,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" s="42">
+        <f>IFERROR(VLOOKUP(A92,'State Income (2001-2004)'!A92:C280, 3, 1), "NO INCOME DATA")</f>
+        <v>31916</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
@@ -10518,8 +11131,14 @@
       <c r="D93" s="6">
         <v>83961.36</v>
       </c>
-      <c r="E93" s="45"/>
-      <c r="F93" s="42"/>
+      <c r="E93" s="45" t="e">
+        <f>VLOOKUP(A93, 'State Abbreviations'!A93:B143,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" s="42">
+        <f>IFERROR(VLOOKUP(A93,'State Income (2001-2004)'!A93:C281, 3, 1), "NO INCOME DATA")</f>
+        <v>26132</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
@@ -10534,8 +11153,14 @@
       <c r="D94" s="6">
         <v>23126.489999999998</v>
       </c>
-      <c r="E94" s="45"/>
-      <c r="F94" s="42"/>
+      <c r="E94" s="45" t="e">
+        <f>VLOOKUP(A94, 'State Abbreviations'!A94:B144,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F94" s="42">
+        <f>IFERROR(VLOOKUP(A94,'State Income (2001-2004)'!A94:C282, 3, 1), "NO INCOME DATA")</f>
+        <v>29234</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
@@ -10550,8 +11175,14 @@
       <c r="D95" s="6">
         <v>118019.24</v>
       </c>
-      <c r="E95" s="45"/>
-      <c r="F95" s="42"/>
+      <c r="E95" s="45" t="e">
+        <f>VLOOKUP(A95, 'State Abbreviations'!A95:B145,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F95" s="42">
+        <f>IFERROR(VLOOKUP(A95,'State Income (2001-2004)'!A95:C283, 3, 1), "NO INCOME DATA")</f>
+        <v>28455</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
@@ -10566,8 +11197,14 @@
       <c r="D96" s="6">
         <v>950569.24</v>
       </c>
-      <c r="E96" s="45"/>
-      <c r="F96" s="42"/>
+      <c r="E96" s="45" t="e">
+        <f>VLOOKUP(A96, 'State Abbreviations'!A96:B146,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F96" s="42">
+        <f>IFERROR(VLOOKUP(A96,'State Income (2001-2004)'!A96:C284, 3, 1), "NO INCOME DATA")</f>
+        <v>29372</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
@@ -10582,8 +11219,14 @@
       <c r="D97" s="6">
         <v>47780.78</v>
       </c>
-      <c r="E97" s="45"/>
-      <c r="F97" s="42"/>
+      <c r="E97" s="45" t="e">
+        <f>VLOOKUP(A97, 'State Abbreviations'!A97:B147,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F97" s="42">
+        <f>IFERROR(VLOOKUP(A97,'State Income (2001-2004)'!A97:C285, 3, 1), "NO INCOME DATA")</f>
+        <v>24977</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
@@ -10598,8 +11241,14 @@
       <c r="D98" s="6">
         <v>12427.880000000001</v>
       </c>
-      <c r="E98" s="45"/>
-      <c r="F98" s="42"/>
+      <c r="E98" s="45" t="e">
+        <f>VLOOKUP(A98, 'State Abbreviations'!A98:B148,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F98" s="42">
+        <f>IFERROR(VLOOKUP(A98,'State Income (2001-2004)'!A98:C286, 3, 1), "NO INCOME DATA")</f>
+        <v>33327</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
@@ -10614,8 +11263,14 @@
       <c r="D99" s="6">
         <v>298393.08</v>
       </c>
-      <c r="E99" s="45"/>
-      <c r="F99" s="42"/>
+      <c r="E99" s="45" t="e">
+        <f>VLOOKUP(A99, 'State Abbreviations'!A99:B149,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" s="42">
+        <f>IFERROR(VLOOKUP(A99,'State Income (2001-2004)'!A99:C287, 3, 1), "NO INCOME DATA")</f>
+        <v>38390</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
@@ -10630,8 +11285,14 @@
       <c r="D100" s="6">
         <v>124075.76000000001</v>
       </c>
-      <c r="E100" s="45"/>
-      <c r="F100" s="42"/>
+      <c r="E100" s="45" t="e">
+        <f>VLOOKUP(A100, 'State Abbreviations'!A100:B150,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" s="42">
+        <f>IFERROR(VLOOKUP(A100,'State Income (2001-2004)'!A100:C288, 3, 1), "NO INCOME DATA")</f>
+        <v>35409</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
@@ -10646,8 +11307,14 @@
       <c r="D101" s="6">
         <v>36307.08</v>
       </c>
-      <c r="E101" s="45"/>
-      <c r="F101" s="42"/>
+      <c r="E101" s="45" t="e">
+        <f>VLOOKUP(A101, 'State Abbreviations'!A101:B151,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" s="42">
+        <f>IFERROR(VLOOKUP(A101,'State Income (2001-2004)'!A101:C289, 3, 1), "NO INCOME DATA")</f>
+        <v>27215</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
@@ -10662,8 +11329,14 @@
       <c r="D102" s="6">
         <v>220361.04</v>
       </c>
-      <c r="E102" s="45"/>
-      <c r="F102" s="42"/>
+      <c r="E102" s="45" t="e">
+        <f>VLOOKUP(A102, 'State Abbreviations'!A102:B152,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F102" s="42">
+        <f>IFERROR(VLOOKUP(A102,'State Income (2001-2004)'!A102:C290, 3, 1), "NO INCOME DATA")</f>
+        <v>33565</v>
+      </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
@@ -10678,8 +11351,14 @@
       <c r="D103" s="6">
         <v>15195.869999999999</v>
       </c>
-      <c r="E103" s="45"/>
-      <c r="F103" s="42"/>
+      <c r="E103" s="45" t="e">
+        <f>VLOOKUP(A103, 'State Abbreviations'!A103:B153,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F103" s="42">
+        <f>IFERROR(VLOOKUP(A103,'State Income (2001-2004)'!A103:C291, 3, 1), "NO INCOME DATA")</f>
+        <v>36778</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
@@ -10694,8 +11373,14 @@
       <c r="D104" s="6">
         <v>143392.04999999999</v>
       </c>
-      <c r="E104" s="45"/>
-      <c r="F104" s="42"/>
+      <c r="E104" s="45" t="e">
+        <f>VLOOKUP(A104, 'State Abbreviations'!A104:B154,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F104" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A104,'State Income (2001-2004)'!A104:C292, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
@@ -10710,8 +11395,14 @@
       <c r="D105" s="6">
         <v>14204.62</v>
       </c>
-      <c r="E105" s="45"/>
-      <c r="F105" s="42"/>
+      <c r="E105" s="45" t="e">
+        <f>VLOOKUP(A105, 'State Abbreviations'!A105:B155,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F105" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A105,'State Income (2001-2004)'!A105:C293, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
@@ -10726,8 +11417,14 @@
       <c r="D106" s="6">
         <v>126580.26000000001</v>
       </c>
-      <c r="E106" s="45"/>
-      <c r="F106" s="42"/>
+      <c r="E106" s="45" t="e">
+        <f>VLOOKUP(A106, 'State Abbreviations'!A106:B156,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F106" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A106,'State Income (2001-2004)'!A106:C294, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
@@ -10742,8 +11439,14 @@
       <c r="D107" s="6">
         <v>58318.42</v>
       </c>
-      <c r="E107" s="45"/>
-      <c r="F107" s="42"/>
+      <c r="E107" s="45" t="e">
+        <f>VLOOKUP(A107, 'State Abbreviations'!A107:B157,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F107" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A107,'State Income (2001-2004)'!A107:C295, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
@@ -10758,8 +11461,14 @@
       <c r="D108" s="6">
         <v>745079.12</v>
       </c>
-      <c r="E108" s="45"/>
-      <c r="F108" s="42"/>
+      <c r="E108" s="45" t="e">
+        <f>VLOOKUP(A108, 'State Abbreviations'!A108:B158,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F108" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A108,'State Income (2001-2004)'!A108:C296, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
@@ -10774,8 +11483,14 @@
       <c r="D109" s="6">
         <v>201167.84</v>
       </c>
-      <c r="E109" s="45"/>
-      <c r="F109" s="42"/>
+      <c r="E109" s="45" t="e">
+        <f>VLOOKUP(A109, 'State Abbreviations'!A109:B159,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F109" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A109,'State Income (2001-2004)'!A109:C297, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
@@ -10790,8 +11505,14 @@
       <c r="D110" s="6">
         <v>142963.88</v>
       </c>
-      <c r="E110" s="45"/>
-      <c r="F110" s="42"/>
+      <c r="E110" s="45" t="e">
+        <f>VLOOKUP(A110, 'State Abbreviations'!A110:B160,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F110" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A110,'State Income (2001-2004)'!A110:C298, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
@@ -10806,8 +11527,14 @@
       <c r="D111" s="6">
         <v>26938.02</v>
       </c>
-      <c r="E111" s="45"/>
-      <c r="F111" s="42"/>
+      <c r="E111" s="45" t="e">
+        <f>VLOOKUP(A111, 'State Abbreviations'!A111:B161,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F111" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A111,'State Income (2001-2004)'!A111:C299, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
@@ -10822,8 +11549,14 @@
       <c r="D112" s="6">
         <v>18051.689999999999</v>
       </c>
-      <c r="E112" s="45"/>
-      <c r="F112" s="42"/>
+      <c r="E112" s="45" t="e">
+        <f>VLOOKUP(A112, 'State Abbreviations'!A112:B162,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F112" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A112,'State Income (2001-2004)'!A112:C300, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
@@ -10838,8 +11571,14 @@
       <c r="D113" s="6">
         <v>752052.44000000006</v>
       </c>
-      <c r="E113" s="45"/>
-      <c r="F113" s="42"/>
+      <c r="E113" s="45" t="e">
+        <f>VLOOKUP(A113, 'State Abbreviations'!A113:B163,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F113" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A113,'State Income (2001-2004)'!A113:C301, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
@@ -10854,8 +11593,14 @@
       <c r="D114" s="6">
         <v>193753.06</v>
       </c>
-      <c r="E114" s="45"/>
-      <c r="F114" s="42"/>
+      <c r="E114" s="45" t="e">
+        <f>VLOOKUP(A114, 'State Abbreviations'!A114:B164,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F114" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A114,'State Income (2001-2004)'!A114:C302, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
@@ -10870,8 +11615,14 @@
       <c r="D115" s="6">
         <v>54412.04</v>
       </c>
-      <c r="E115" s="45"/>
-      <c r="F115" s="42"/>
+      <c r="E115" s="45" t="e">
+        <f>VLOOKUP(A115, 'State Abbreviations'!A115:B165,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F115" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A115,'State Income (2001-2004)'!A115:C303, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
@@ -10886,8 +11637,14 @@
       <c r="D116" s="6">
         <v>47027.46</v>
       </c>
-      <c r="E116" s="45"/>
-      <c r="F116" s="42"/>
+      <c r="E116" s="45" t="e">
+        <f>VLOOKUP(A116, 'State Abbreviations'!A116:B166,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F116" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A116,'State Income (2001-2004)'!A116:C304, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
@@ -10902,8 +11659,14 @@
       <c r="D117" s="6">
         <v>256612.64</v>
       </c>
-      <c r="E117" s="45"/>
-      <c r="F117" s="42"/>
+      <c r="E117" s="45" t="e">
+        <f>VLOOKUP(A117, 'State Abbreviations'!A117:B167,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F117" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A117,'State Income (2001-2004)'!A117:C305, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
@@ -10918,8 +11681,14 @@
       <c r="D118" s="6">
         <v>259352</v>
       </c>
-      <c r="E118" s="45"/>
-      <c r="F118" s="42"/>
+      <c r="E118" s="45" t="e">
+        <f>VLOOKUP(A118, 'State Abbreviations'!A118:B168,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F118" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A118,'State Income (2001-2004)'!A118:C306, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
@@ -10934,8 +11703,14 @@
       <c r="D119" s="6">
         <v>60927</v>
       </c>
-      <c r="E119" s="45"/>
-      <c r="F119" s="42"/>
+      <c r="E119" s="45" t="e">
+        <f>VLOOKUP(A119, 'State Abbreviations'!A119:B169,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F119" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A119,'State Income (2001-2004)'!A119:C307, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
@@ -10950,8 +11725,14 @@
       <c r="D120" s="6">
         <v>85593.54</v>
       </c>
-      <c r="E120" s="45"/>
-      <c r="F120" s="42"/>
+      <c r="E120" s="45" t="e">
+        <f>VLOOKUP(A120, 'State Abbreviations'!A120:B170,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F120" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A120,'State Income (2001-2004)'!A120:C308, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
@@ -10966,8 +11747,14 @@
       <c r="D121" s="6">
         <v>130180.86</v>
       </c>
-      <c r="E121" s="45"/>
-      <c r="F121" s="42"/>
+      <c r="E121" s="45" t="e">
+        <f>VLOOKUP(A121, 'State Abbreviations'!A121:B171,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F121" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A121,'State Income (2001-2004)'!A121:C309, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
@@ -10982,8 +11769,14 @@
       <c r="D122" s="6">
         <v>136001.16</v>
       </c>
-      <c r="E122" s="45"/>
-      <c r="F122" s="42"/>
+      <c r="E122" s="45" t="e">
+        <f>VLOOKUP(A122, 'State Abbreviations'!A122:B172,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F122" s="42">
+        <f>IFERROR(VLOOKUP(A122,'State Income (2001-2004)'!A122:C310, 3, 1), "NO INCOME DATA")</f>
+        <v>24820</v>
+      </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
@@ -10998,8 +11791,14 @@
       <c r="D123" s="6">
         <v>26567.22</v>
       </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="42"/>
+      <c r="E123" s="45" t="e">
+        <f>VLOOKUP(A123, 'State Abbreviations'!A123:B173,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F123" s="42">
+        <f>IFERROR(VLOOKUP(A123,'State Income (2001-2004)'!A123:C311, 3, 1), "NO INCOME DATA")</f>
+        <v>31252</v>
+      </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
@@ -11014,8 +11813,14 @@
       <c r="D124" s="6">
         <v>230942.08000000002</v>
       </c>
-      <c r="E124" s="45"/>
-      <c r="F124" s="42"/>
+      <c r="E124" s="45" t="e">
+        <f>VLOOKUP(A124, 'State Abbreviations'!A124:B174,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F124" s="42">
+        <f>IFERROR(VLOOKUP(A124,'State Income (2001-2004)'!A124:C312, 3, 1), "NO INCOME DATA")</f>
+        <v>41760</v>
+      </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -11030,8 +11835,14 @@
       <c r="D125" s="6">
         <v>130952.58</v>
       </c>
-      <c r="E125" s="45"/>
-      <c r="F125" s="42"/>
+      <c r="E125" s="45" t="e">
+        <f>VLOOKUP(A125, 'State Abbreviations'!A125:B175,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F125" s="42">
+        <f>IFERROR(VLOOKUP(A125,'State Income (2001-2004)'!A125:C313, 3, 1), "NO INCOME DATA")</f>
+        <v>44289</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
@@ -11046,8 +11857,14 @@
       <c r="D126" s="6">
         <v>197672.7</v>
       </c>
-      <c r="E126" s="45"/>
-      <c r="F126" s="42"/>
+      <c r="E126" s="45" t="e">
+        <f>VLOOKUP(A126, 'State Abbreviations'!A126:B176,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F126" s="42">
+        <f>IFERROR(VLOOKUP(A126,'State Income (2001-2004)'!A126:C314, 3, 1), "NO INCOME DATA")</f>
+        <v>33116</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
@@ -11062,8 +11879,14 @@
       <c r="D127" s="6">
         <v>106078.5</v>
       </c>
-      <c r="E127" s="45"/>
-      <c r="F127" s="42"/>
+      <c r="E127" s="45" t="e">
+        <f>VLOOKUP(A127, 'State Abbreviations'!A127:B177,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F127" s="42">
+        <f>IFERROR(VLOOKUP(A127,'State Income (2001-2004)'!A127:C315, 3, 1), "NO INCOME DATA")</f>
+        <v>37373</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
@@ -11078,8 +11901,14 @@
       <c r="D128" s="6">
         <v>89018.91</v>
       </c>
-      <c r="E128" s="45"/>
-      <c r="F128" s="42"/>
+      <c r="E128" s="45" t="e">
+        <f>VLOOKUP(A128, 'State Abbreviations'!A128:B178,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F128" s="42">
+        <f>IFERROR(VLOOKUP(A128,'State Income (2001-2004)'!A128:C316, 3, 1), "NO INCOME DATA")</f>
+        <v>25318</v>
+      </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
@@ -11094,8 +11923,14 @@
       <c r="D129" s="6">
         <v>119778.54000000001</v>
       </c>
-      <c r="E129" s="45"/>
-      <c r="F129" s="42"/>
+      <c r="E129" s="45" t="e">
+        <f>VLOOKUP(A129, 'State Abbreviations'!A129:B179,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F129" s="42">
+        <f>IFERROR(VLOOKUP(A129,'State Income (2001-2004)'!A129:C317, 3, 1), "NO INCOME DATA")</f>
+        <v>31899</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
@@ -11110,8 +11945,14 @@
       <c r="D130" s="6">
         <v>29682.449999999997</v>
       </c>
-      <c r="E130" s="45"/>
-      <c r="F130" s="42"/>
+      <c r="E130" s="45" t="e">
+        <f>VLOOKUP(A130, 'State Abbreviations'!A130:B180,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F130" s="42">
+        <f>IFERROR(VLOOKUP(A130,'State Income (2001-2004)'!A130:C318, 3, 1), "NO INCOME DATA")</f>
+        <v>29387</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
@@ -11126,8 +11967,14 @@
       <c r="D131" s="6">
         <v>36526.82</v>
       </c>
-      <c r="E131" s="45"/>
-      <c r="F131" s="42"/>
+      <c r="E131" s="45" t="e">
+        <f>VLOOKUP(A131, 'State Abbreviations'!A131:B181,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F131" s="42">
+        <f>IFERROR(VLOOKUP(A131,'State Income (2001-2004)'!A131:C319, 3, 1), "NO INCOME DATA")</f>
+        <v>33616</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
@@ -11142,8 +11989,14 @@
       <c r="D132" s="6">
         <v>81016.53</v>
       </c>
-      <c r="E132" s="45"/>
-      <c r="F132" s="42"/>
+      <c r="E132" s="45" t="e">
+        <f>VLOOKUP(A132, 'State Abbreviations'!A132:B182,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F132" s="42">
+        <f>IFERROR(VLOOKUP(A132,'State Income (2001-2004)'!A132:C320, 3, 1), "NO INCOME DATA")</f>
+        <v>33616</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
@@ -11158,8 +12011,14 @@
       <c r="D133" s="6">
         <v>26329.440000000002</v>
       </c>
-      <c r="E133" s="45"/>
-      <c r="F133" s="42"/>
+      <c r="E133" s="45" t="e">
+        <f>VLOOKUP(A133, 'State Abbreviations'!A133:B183,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F133" s="42">
+        <f>IFERROR(VLOOKUP(A133,'State Income (2001-2004)'!A133:C321, 3, 1), "NO INCOME DATA")</f>
+        <v>38408</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
@@ -11174,8 +12033,14 @@
       <c r="D134" s="6">
         <v>263756.82</v>
       </c>
-      <c r="E134" s="45"/>
-      <c r="F134" s="42"/>
+      <c r="E134" s="45" t="e">
+        <f>VLOOKUP(A134, 'State Abbreviations'!A134:B184,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F134" s="42">
+        <f>IFERROR(VLOOKUP(A134,'State Income (2001-2004)'!A134:C322, 3, 1), "NO INCOME DATA")</f>
+        <v>38408</v>
+      </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
@@ -11190,8 +12055,14 @@
       <c r="D135" s="6">
         <v>61775.399999999994</v>
       </c>
-      <c r="E135" s="45"/>
-      <c r="F135" s="42"/>
+      <c r="E135" s="45" t="e">
+        <f>VLOOKUP(A135, 'State Abbreviations'!A135:B185,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F135" s="42">
+        <f>IFERROR(VLOOKUP(A135,'State Income (2001-2004)'!A135:C323, 3, 1), "NO INCOME DATA")</f>
+        <v>27644</v>
+      </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
@@ -11206,8 +12077,14 @@
       <c r="D136" s="6">
         <v>387562.08</v>
       </c>
-      <c r="E136" s="45"/>
-      <c r="F136" s="42"/>
+      <c r="E136" s="45" t="e">
+        <f>VLOOKUP(A136, 'State Abbreviations'!A136:B186,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F136" s="42">
+        <f>IFERROR(VLOOKUP(A136,'State Income (2001-2004)'!A136:C324, 3, 1), "NO INCOME DATA")</f>
+        <v>27644</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
@@ -11222,8 +12099,14 @@
       <c r="D137" s="6">
         <v>190709.5</v>
       </c>
-      <c r="E137" s="45"/>
-      <c r="F137" s="42"/>
+      <c r="E137" s="45" t="e">
+        <f>VLOOKUP(A137, 'State Abbreviations'!A137:B187,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F137" s="42">
+        <f>IFERROR(VLOOKUP(A137,'State Income (2001-2004)'!A137:C325, 3, 1), "NO INCOME DATA")</f>
+        <v>30553</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
@@ -11238,8 +12121,14 @@
       <c r="D138" s="6">
         <v>20177.73</v>
       </c>
-      <c r="E138" s="45"/>
-      <c r="F138" s="42"/>
+      <c r="E138" s="45" t="e">
+        <f>VLOOKUP(A138, 'State Abbreviations'!A138:B188,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F138" s="42">
+        <f>IFERROR(VLOOKUP(A138,'State Income (2001-2004)'!A138:C326, 3, 1), "NO INCOME DATA")</f>
+        <v>31395</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
@@ -11254,8 +12143,14 @@
       <c r="D139" s="6">
         <v>346095.06</v>
       </c>
-      <c r="E139" s="45"/>
-      <c r="F139" s="42"/>
+      <c r="E139" s="45" t="e">
+        <f>VLOOKUP(A139, 'State Abbreviations'!A139:B189,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F139" s="42">
+        <f>IFERROR(VLOOKUP(A139,'State Income (2001-2004)'!A139:C327, 3, 1), "NO INCOME DATA")</f>
+        <v>32478</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
@@ -11270,8 +12165,14 @@
       <c r="D140" s="6">
         <v>112540.62</v>
       </c>
-      <c r="E140" s="45"/>
-      <c r="F140" s="42"/>
+      <c r="E140" s="45" t="e">
+        <f>VLOOKUP(A140, 'State Abbreviations'!A140:B190,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F140" s="42">
+        <f>IFERROR(VLOOKUP(A140,'State Income (2001-2004)'!A140:C328, 3, 1), "NO INCOME DATA")</f>
+        <v>29330</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
@@ -11286,8 +12187,14 @@
       <c r="D141" s="6">
         <v>114932.22</v>
       </c>
-      <c r="E141" s="45"/>
-      <c r="F141" s="42"/>
+      <c r="E141" s="45" t="e">
+        <f>VLOOKUP(A141, 'State Abbreviations'!A141:B191,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F141" s="42">
+        <f>IFERROR(VLOOKUP(A141,'State Income (2001-2004)'!A141:C329, 3, 1), "NO INCOME DATA")</f>
+        <v>32103</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
@@ -11302,8 +12209,14 @@
       <c r="D142" s="6">
         <v>254047.58000000002</v>
       </c>
-      <c r="E142" s="45"/>
-      <c r="F142" s="42"/>
+      <c r="E142" s="45" t="e">
+        <f>VLOOKUP(A142, 'State Abbreviations'!A142:B192,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F142" s="42">
+        <f>IFERROR(VLOOKUP(A142,'State Income (2001-2004)'!A142:C330, 3, 1), "NO INCOME DATA")</f>
+        <v>34897</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
@@ -11318,8 +12231,14 @@
       <c r="D143" s="6">
         <v>42102.68</v>
       </c>
-      <c r="E143" s="45"/>
-      <c r="F143" s="42"/>
+      <c r="E143" s="45" t="e">
+        <f>VLOOKUP(A143, 'State Abbreviations'!A143:B193,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F143" s="42">
+        <f>IFERROR(VLOOKUP(A143,'State Income (2001-2004)'!A143:C331, 3, 1), "NO INCOME DATA")</f>
+        <v>36153</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
@@ -11334,8 +12253,14 @@
       <c r="D144" s="6">
         <v>138760.91999999998</v>
       </c>
-      <c r="E144" s="45"/>
-      <c r="F144" s="42"/>
+      <c r="E144" s="45" t="e">
+        <f>VLOOKUP(A144, 'State Abbreviations'!A144:B194,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F144" s="42">
+        <f>IFERROR(VLOOKUP(A144,'State Income (2001-2004)'!A144:C332, 3, 1), "NO INCOME DATA")</f>
+        <v>28352</v>
+      </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
@@ -11350,8 +12275,14 @@
       <c r="D145" s="6">
         <v>24425.399999999998</v>
       </c>
-      <c r="E145" s="45"/>
-      <c r="F145" s="42"/>
+      <c r="E145" s="45" t="e">
+        <f>VLOOKUP(A145, 'State Abbreviations'!A145:B195,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F145" s="42">
+        <f>IFERROR(VLOOKUP(A145,'State Income (2001-2004)'!A145:C333, 3, 1), "NO INCOME DATA")</f>
+        <v>31614</v>
+      </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
@@ -11366,8 +12297,14 @@
       <c r="D146" s="6">
         <v>253844.4</v>
       </c>
-      <c r="E146" s="45"/>
-      <c r="F146" s="42"/>
+      <c r="E146" s="45" t="e">
+        <f>VLOOKUP(A146, 'State Abbreviations'!A146:B196,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F146" s="42">
+        <f>IFERROR(VLOOKUP(A146,'State Income (2001-2004)'!A146:C334, 3, 1), "NO INCOME DATA")</f>
+        <v>31107</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
@@ -11382,8 +12319,14 @@
       <c r="D147" s="6">
         <v>754366.83</v>
       </c>
-      <c r="E147" s="45"/>
-      <c r="F147" s="42"/>
+      <c r="E147" s="45" t="e">
+        <f>VLOOKUP(A147, 'State Abbreviations'!A147:B197,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F147" s="42">
+        <f>IFERROR(VLOOKUP(A147,'State Income (2001-2004)'!A147:C335, 3, 1), "NO INCOME DATA")</f>
+        <v>32462</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
@@ -11398,8 +12341,14 @@
       <c r="D148" s="6">
         <v>55277.700000000004</v>
       </c>
-      <c r="E148" s="45"/>
-      <c r="F148" s="42"/>
+      <c r="E148" s="45" t="e">
+        <f>VLOOKUP(A148, 'State Abbreviations'!A148:B198,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F148" s="42">
+        <f>IFERROR(VLOOKUP(A148,'State Income (2001-2004)'!A148:C336, 3, 1), "NO INCOME DATA")</f>
+        <v>32462</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
@@ -11414,8 +12363,14 @@
       <c r="D149" s="6">
         <v>12514.82</v>
       </c>
-      <c r="E149" s="45"/>
-      <c r="F149" s="42"/>
+      <c r="E149" s="45" t="e">
+        <f>VLOOKUP(A149, 'State Abbreviations'!A149:B199,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F149" s="42">
+        <f>IFERROR(VLOOKUP(A149,'State Income (2001-2004)'!A149:C337, 3, 1), "NO INCOME DATA")</f>
+        <v>33327</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
@@ -11430,8 +12385,14 @@
       <c r="D150" s="6">
         <v>240030.72</v>
       </c>
-      <c r="E150" s="45"/>
-      <c r="F150" s="42"/>
+      <c r="E150" s="45" t="e">
+        <f>VLOOKUP(A150, 'State Abbreviations'!A150:B200,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F150" s="42">
+        <f>IFERROR(VLOOKUP(A150,'State Income (2001-2004)'!A150:C338, 3, 1), "NO INCOME DATA")</f>
+        <v>38390</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
@@ -11446,8 +12407,14 @@
       <c r="D151" s="6">
         <v>268981.59999999998</v>
       </c>
-      <c r="E151" s="45"/>
-      <c r="F151" s="42"/>
+      <c r="E151" s="45" t="e">
+        <f>VLOOKUP(A151, 'State Abbreviations'!A151:B201,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F151" s="42">
+        <f>IFERROR(VLOOKUP(A151,'State Income (2001-2004)'!A151:C339, 3, 1), "NO INCOME DATA")</f>
+        <v>35409</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
@@ -11462,8 +12429,14 @@
       <c r="D152" s="6">
         <v>37059.919999999998</v>
       </c>
-      <c r="E152" s="45"/>
-      <c r="F152" s="42"/>
+      <c r="E152" s="45" t="e">
+        <f>VLOOKUP(A152, 'State Abbreviations'!A152:B202,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F152" s="42">
+        <f>IFERROR(VLOOKUP(A152,'State Income (2001-2004)'!A152:C340, 3, 1), "NO INCOME DATA")</f>
+        <v>27215</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
@@ -11478,8 +12451,14 @@
       <c r="D153" s="6">
         <v>113739.72</v>
       </c>
-      <c r="E153" s="45"/>
-      <c r="F153" s="42"/>
+      <c r="E153" s="45" t="e">
+        <f>VLOOKUP(A153, 'State Abbreviations'!A153:B203,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F153" s="42">
+        <f>IFERROR(VLOOKUP(A153,'State Income (2001-2004)'!A153:C341, 3, 1), "NO INCOME DATA")</f>
+        <v>33565</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
@@ -11494,8 +12473,14 @@
       <c r="D154" s="6">
         <v>11272.52</v>
       </c>
-      <c r="E154" s="45"/>
-      <c r="F154" s="42"/>
+      <c r="E154" s="45" t="e">
+        <f>VLOOKUP(A154, 'State Abbreviations'!A154:B204,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F154" s="42">
+        <f>IFERROR(VLOOKUP(A154,'State Income (2001-2004)'!A154:C342, 3, 1), "NO INCOME DATA")</f>
+        <v>36778</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
@@ -11510,8 +12495,14 @@
       <c r="D155" s="6">
         <v>96440.46</v>
       </c>
-      <c r="E155" s="45"/>
-      <c r="F155" s="42"/>
+      <c r="E155" s="45" t="e">
+        <f>VLOOKUP(A155, 'State Abbreviations'!A155:B205,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F155" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A155,'State Income (2001-2004)'!A155:C343, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
@@ -11526,8 +12517,14 @@
       <c r="D156" s="6">
         <v>14628.98</v>
       </c>
-      <c r="E156" s="45"/>
-      <c r="F156" s="42"/>
+      <c r="E156" s="45" t="e">
+        <f>VLOOKUP(A156, 'State Abbreviations'!A156:B206,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F156" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A156,'State Income (2001-2004)'!A156:C344, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
@@ -11542,8 +12539,14 @@
       <c r="D157" s="6">
         <v>262130.2</v>
       </c>
-      <c r="E157" s="45"/>
-      <c r="F157" s="42"/>
+      <c r="E157" s="45" t="e">
+        <f>VLOOKUP(A157, 'State Abbreviations'!A157:B207,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F157" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A157,'State Income (2001-2004)'!A157:C345, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
@@ -11558,8 +12561,14 @@
       <c r="D158" s="6">
         <v>88473.93</v>
       </c>
-      <c r="E158" s="45"/>
-      <c r="F158" s="42"/>
+      <c r="E158" s="45" t="e">
+        <f>VLOOKUP(A158, 'State Abbreviations'!A158:B208,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F158" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A158,'State Income (2001-2004)'!A158:C346, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
@@ -11574,8 +12583,14 @@
       <c r="D159" s="6">
         <v>1141242.8999999999</v>
       </c>
-      <c r="E159" s="45"/>
-      <c r="F159" s="42"/>
+      <c r="E159" s="45" t="e">
+        <f>VLOOKUP(A159, 'State Abbreviations'!A159:B209,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F159" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A159,'State Income (2001-2004)'!A159:C347, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
@@ -11590,8 +12605,14 @@
       <c r="D160" s="6">
         <v>155627.46</v>
       </c>
-      <c r="E160" s="45"/>
-      <c r="F160" s="42"/>
+      <c r="E160" s="45" t="e">
+        <f>VLOOKUP(A160, 'State Abbreviations'!A160:B210,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F160" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A160,'State Income (2001-2004)'!A160:C348, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
@@ -11606,8 +12627,14 @@
       <c r="D161" s="6">
         <v>71806.94</v>
       </c>
-      <c r="E161" s="45"/>
-      <c r="F161" s="42"/>
+      <c r="E161" s="45" t="e">
+        <f>VLOOKUP(A161, 'State Abbreviations'!A161:B211,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F161" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A161,'State Income (2001-2004)'!A161:C349, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
@@ -11622,8 +12649,14 @@
       <c r="D162" s="6">
         <v>18341.84</v>
       </c>
-      <c r="E162" s="45"/>
-      <c r="F162" s="42"/>
+      <c r="E162" s="45" t="e">
+        <f>VLOOKUP(A162, 'State Abbreviations'!A162:B212,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F162" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A162,'State Income (2001-2004)'!A162:C350, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
@@ -11638,8 +12671,14 @@
       <c r="D163" s="6">
         <v>25292.920000000002</v>
       </c>
-      <c r="E163" s="45"/>
-      <c r="F163" s="42"/>
+      <c r="E163" s="45" t="e">
+        <f>VLOOKUP(A163, 'State Abbreviations'!A163:B213,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F163" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A163,'State Income (2001-2004)'!A163:C351, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
@@ -11654,8 +12693,14 @@
       <c r="D164" s="6">
         <v>579527.03999999992</v>
       </c>
-      <c r="E164" s="45"/>
-      <c r="F164" s="42"/>
+      <c r="E164" s="45" t="e">
+        <f>VLOOKUP(A164, 'State Abbreviations'!A164:B214,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F164" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A164,'State Income (2001-2004)'!A164:C352, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
@@ -11670,8 +12715,14 @@
       <c r="D165" s="6">
         <v>396797.8</v>
       </c>
-      <c r="E165" s="45"/>
-      <c r="F165" s="42"/>
+      <c r="E165" s="45" t="e">
+        <f>VLOOKUP(A165, 'State Abbreviations'!A165:B215,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F165" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A165,'State Income (2001-2004)'!A165:C353, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
@@ -11686,8 +12737,14 @@
       <c r="D166" s="6">
         <v>55692.520000000004</v>
       </c>
-      <c r="E166" s="45"/>
-      <c r="F166" s="42"/>
+      <c r="E166" s="45" t="e">
+        <f>VLOOKUP(A166, 'State Abbreviations'!A166:B216,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F166" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A166,'State Income (2001-2004)'!A166:C354, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
@@ -11702,8 +12759,14 @@
       <c r="D167" s="6">
         <v>31914.560000000001</v>
       </c>
-      <c r="E167" s="45"/>
-      <c r="F167" s="42"/>
+      <c r="E167" s="45" t="e">
+        <f>VLOOKUP(A167, 'State Abbreviations'!A167:B217,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F167" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A167,'State Income (2001-2004)'!A167:C355, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
@@ -11718,8 +12781,14 @@
       <c r="D168" s="6">
         <v>386257.64999999997</v>
       </c>
-      <c r="E168" s="45"/>
-      <c r="F168" s="42"/>
+      <c r="E168" s="45" t="e">
+        <f>VLOOKUP(A168, 'State Abbreviations'!A168:B218,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F168" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A168,'State Income (2001-2004)'!A168:C356, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
@@ -11734,8 +12803,14 @@
       <c r="D169" s="6">
         <v>261493.36000000002</v>
       </c>
-      <c r="E169" s="45"/>
-      <c r="F169" s="42"/>
+      <c r="E169" s="45" t="e">
+        <f>VLOOKUP(A169, 'State Abbreviations'!A169:B219,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F169" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A169,'State Income (2001-2004)'!A169:C357, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
@@ -11750,8 +12825,14 @@
       <c r="D170" s="6">
         <v>122967.44</v>
       </c>
-      <c r="E170" s="45"/>
-      <c r="F170" s="42"/>
+      <c r="E170" s="45" t="e">
+        <f>VLOOKUP(A170, 'State Abbreviations'!A170:B220,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F170" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A170,'State Income (2001-2004)'!A170:C358, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
@@ -11766,8 +12847,14 @@
       <c r="D171" s="6">
         <v>86577.15</v>
       </c>
-      <c r="E171" s="45"/>
-      <c r="F171" s="42"/>
+      <c r="E171" s="45" t="e">
+        <f>VLOOKUP(A171, 'State Abbreviations'!A171:B221,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F171" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A171,'State Income (2001-2004)'!A171:C359, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
@@ -11782,8 +12869,14 @@
       <c r="D172" s="6">
         <v>175216.6</v>
       </c>
-      <c r="E172" s="45"/>
-      <c r="F172" s="42"/>
+      <c r="E172" s="45" t="e">
+        <f>VLOOKUP(A172, 'State Abbreviations'!A172:B222,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F172" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A172,'State Income (2001-2004)'!A172:C360, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
@@ -11798,8 +12891,14 @@
       <c r="D173" s="6">
         <v>92037.86</v>
       </c>
-      <c r="E173" s="45"/>
-      <c r="F173" s="42"/>
+      <c r="E173" s="45" t="e">
+        <f>VLOOKUP(A173, 'State Abbreviations'!A173:B223,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F173" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A173,'State Income (2001-2004)'!A173:C361, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
@@ -11814,8 +12913,14 @@
       <c r="D174" s="6">
         <v>39875.760000000002</v>
       </c>
-      <c r="E174" s="45"/>
-      <c r="F174" s="42"/>
+      <c r="E174" s="45" t="e">
+        <f>VLOOKUP(A174, 'State Abbreviations'!A174:B224,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F174" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A174,'State Income (2001-2004)'!A174:C362, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
@@ -11830,8 +12935,14 @@
       <c r="D175" s="6">
         <v>235382.52000000002</v>
       </c>
-      <c r="E175" s="45"/>
-      <c r="F175" s="42"/>
+      <c r="E175" s="45" t="e">
+        <f>VLOOKUP(A175, 'State Abbreviations'!A175:B225,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F175" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A175,'State Income (2001-2004)'!A175:C363, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
@@ -11846,8 +12957,14 @@
       <c r="D176" s="6">
         <v>265845.76000000001</v>
       </c>
-      <c r="E176" s="45"/>
-      <c r="F176" s="42"/>
+      <c r="E176" s="45" t="e">
+        <f>VLOOKUP(A176, 'State Abbreviations'!A176:B226,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F176" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A176,'State Income (2001-2004)'!A176:C364, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
@@ -11862,8 +12979,14 @@
       <c r="D177" s="6">
         <v>296500.8</v>
       </c>
-      <c r="E177" s="45"/>
-      <c r="F177" s="42"/>
+      <c r="E177" s="45" t="e">
+        <f>VLOOKUP(A177, 'State Abbreviations'!A177:B227,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F177" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A177,'State Income (2001-2004)'!A177:C365, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
@@ -11878,8 +13001,14 @@
       <c r="D178" s="6">
         <v>107582.78</v>
       </c>
-      <c r="E178" s="45"/>
-      <c r="F178" s="42"/>
+      <c r="E178" s="45" t="e">
+        <f>VLOOKUP(A178, 'State Abbreviations'!A178:B228,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F178" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A178,'State Income (2001-2004)'!A178:C366, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
@@ -11894,8 +13023,14 @@
       <c r="D179" s="6">
         <v>119397.04000000001</v>
       </c>
-      <c r="E179" s="45"/>
-      <c r="F179" s="42"/>
+      <c r="E179" s="45" t="e">
+        <f>VLOOKUP(A179, 'State Abbreviations'!A179:B229,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F179" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A179,'State Income (2001-2004)'!A179:C367, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
@@ -11910,8 +13045,14 @@
       <c r="D180" s="6">
         <v>120439.76000000001</v>
       </c>
-      <c r="E180" s="45"/>
-      <c r="F180" s="42"/>
+      <c r="E180" s="45" t="e">
+        <f>VLOOKUP(A180, 'State Abbreviations'!A180:B230,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F180" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A180,'State Income (2001-2004)'!A180:C368, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
@@ -11926,8 +13067,14 @@
       <c r="D181" s="6">
         <v>40205.64</v>
       </c>
-      <c r="E181" s="45"/>
-      <c r="F181" s="42"/>
+      <c r="E181" s="45" t="e">
+        <f>VLOOKUP(A181, 'State Abbreviations'!A181:B231,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F181" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A181,'State Income (2001-2004)'!A181:C369, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
@@ -11942,8 +13089,14 @@
       <c r="D182" s="6">
         <v>55665.75</v>
       </c>
-      <c r="E182" s="45"/>
-      <c r="F182" s="42"/>
+      <c r="E182" s="45" t="e">
+        <f>VLOOKUP(A182, 'State Abbreviations'!A182:B232,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F182" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A182,'State Income (2001-2004)'!A182:C370, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
@@ -11958,8 +13111,14 @@
       <c r="D183" s="6">
         <v>110357.24</v>
       </c>
-      <c r="E183" s="45"/>
-      <c r="F183" s="42"/>
+      <c r="E183" s="45" t="e">
+        <f>VLOOKUP(A183, 'State Abbreviations'!A183:B233,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F183" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A183,'State Income (2001-2004)'!A183:C371, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
@@ -11974,8 +13133,14 @@
       <c r="D184" s="6">
         <v>52828.72</v>
       </c>
-      <c r="E184" s="45"/>
-      <c r="F184" s="42"/>
+      <c r="E184" s="45" t="e">
+        <f>VLOOKUP(A184, 'State Abbreviations'!A184:B234,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F184" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A184,'State Income (2001-2004)'!A184:C372, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
@@ -11990,8 +13155,14 @@
       <c r="D185" s="6">
         <v>177291.80000000002</v>
       </c>
-      <c r="E185" s="45"/>
-      <c r="F185" s="42"/>
+      <c r="E185" s="45" t="e">
+        <f>VLOOKUP(A185, 'State Abbreviations'!A185:B235,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F185" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A185,'State Income (2001-2004)'!A185:C373, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
@@ -12006,8 +13177,14 @@
       <c r="D186" s="6">
         <v>83421.52</v>
       </c>
-      <c r="E186" s="45"/>
-      <c r="F186" s="42"/>
+      <c r="E186" s="45" t="e">
+        <f>VLOOKUP(A186, 'State Abbreviations'!A186:B236,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F186" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A186,'State Income (2001-2004)'!A186:C374, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
@@ -12022,8 +13199,14 @@
       <c r="D187" s="6">
         <v>587107.82999999996</v>
       </c>
-      <c r="E187" s="45"/>
-      <c r="F187" s="42"/>
+      <c r="E187" s="45" t="e">
+        <f>VLOOKUP(A187, 'State Abbreviations'!A187:B237,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F187" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A187,'State Income (2001-2004)'!A187:C375, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
@@ -12038,8 +13221,14 @@
       <c r="D188" s="6">
         <v>195041.46</v>
       </c>
-      <c r="E188" s="45"/>
-      <c r="F188" s="42"/>
+      <c r="E188" s="45" t="e">
+        <f>VLOOKUP(A188, 'State Abbreviations'!A188:B238,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F188" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A188,'State Income (2001-2004)'!A188:C376, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
@@ -12054,8 +13243,14 @@
       <c r="D189" s="6">
         <v>27985.119999999999</v>
       </c>
-      <c r="E189" s="45"/>
-      <c r="F189" s="42"/>
+      <c r="E189" s="45" t="e">
+        <f>VLOOKUP(A189, 'State Abbreviations'!A189:B239,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F189" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A189,'State Income (2001-2004)'!A189:C377, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
@@ -12070,8 +13265,14 @@
       <c r="D190" s="6">
         <v>230884.5</v>
       </c>
-      <c r="E190" s="45"/>
-      <c r="F190" s="42"/>
+      <c r="E190" s="45" t="e">
+        <f>VLOOKUP(A190, 'State Abbreviations'!A190:B240,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F190" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A190,'State Income (2001-2004)'!A190:C378, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
@@ -12086,8 +13287,14 @@
       <c r="D191" s="6">
         <v>152592.80000000002</v>
       </c>
-      <c r="E191" s="45"/>
-      <c r="F191" s="42"/>
+      <c r="E191" s="45" t="e">
+        <f>VLOOKUP(A191, 'State Abbreviations'!A191:B241,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F191" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A191,'State Income (2001-2004)'!A191:C379, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
@@ -12102,8 +13309,14 @@
       <c r="D192" s="6">
         <v>77987.06</v>
       </c>
-      <c r="E192" s="45"/>
-      <c r="F192" s="42"/>
+      <c r="E192" s="45" t="e">
+        <f>VLOOKUP(A192, 'State Abbreviations'!A192:B242,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F192" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A192,'State Income (2001-2004)'!A192:C380, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
@@ -12118,8 +13331,14 @@
       <c r="D193" s="6">
         <v>382906.07999999996</v>
       </c>
-      <c r="E193" s="45"/>
-      <c r="F193" s="42"/>
+      <c r="E193" s="45" t="e">
+        <f>VLOOKUP(A193, 'State Abbreviations'!A193:B243,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F193" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A193,'State Income (2001-2004)'!A193:C381, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
@@ -12134,8 +13353,14 @@
       <c r="D194" s="6">
         <v>31508.76</v>
       </c>
-      <c r="E194" s="45"/>
-      <c r="F194" s="42"/>
+      <c r="E194" s="45" t="e">
+        <f>VLOOKUP(A194, 'State Abbreviations'!A194:B244,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F194" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A194,'State Income (2001-2004)'!A194:C382, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
@@ -12150,8 +13375,14 @@
       <c r="D195" s="6">
         <v>141711.69</v>
       </c>
-      <c r="E195" s="45"/>
-      <c r="F195" s="42"/>
+      <c r="E195" s="45" t="e">
+        <f>VLOOKUP(A195, 'State Abbreviations'!A195:B245,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F195" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A195,'State Income (2001-2004)'!A195:C383, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
@@ -12166,8 +13397,14 @@
       <c r="D196" s="6">
         <v>33334.160000000003</v>
       </c>
-      <c r="E196" s="45"/>
-      <c r="F196" s="42"/>
+      <c r="E196" s="45" t="e">
+        <f>VLOOKUP(A196, 'State Abbreviations'!A196:B246,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F196" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A196,'State Income (2001-2004)'!A196:C384, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
@@ -12182,8 +13419,14 @@
       <c r="D197" s="6">
         <v>258249.72</v>
       </c>
-      <c r="E197" s="45"/>
-      <c r="F197" s="42"/>
+      <c r="E197" s="45" t="e">
+        <f>VLOOKUP(A197, 'State Abbreviations'!A197:B247,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F197" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A197,'State Income (2001-2004)'!A197:C385, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
@@ -12198,8 +13441,14 @@
       <c r="D198" s="6">
         <v>1042368.12</v>
       </c>
-      <c r="E198" s="45"/>
-      <c r="F198" s="42"/>
+      <c r="E198" s="45" t="e">
+        <f>VLOOKUP(A198, 'State Abbreviations'!A198:B248,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F198" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A198,'State Income (2001-2004)'!A198:C386, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
@@ -12214,8 +13463,14 @@
       <c r="D199" s="6">
         <v>114211.48</v>
       </c>
-      <c r="E199" s="45"/>
-      <c r="F199" s="42"/>
+      <c r="E199" s="45" t="e">
+        <f>VLOOKUP(A199, 'State Abbreviations'!A199:B249,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F199" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A199,'State Income (2001-2004)'!A199:C387, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
@@ -12230,8 +13485,14 @@
       <c r="D200" s="6">
         <v>25040.440000000002</v>
       </c>
-      <c r="E200" s="45"/>
-      <c r="F200" s="42"/>
+      <c r="E200" s="45" t="e">
+        <f>VLOOKUP(A200, 'State Abbreviations'!A200:B250,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F200" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A200,'State Income (2001-2004)'!A200:C388, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
@@ -12246,8 +13507,14 @@
       <c r="D201" s="6">
         <v>163717.34</v>
       </c>
-      <c r="E201" s="45"/>
-      <c r="F201" s="42"/>
+      <c r="E201" s="45" t="e">
+        <f>VLOOKUP(A201, 'State Abbreviations'!A201:B251,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F201" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A201,'State Income (2001-2004)'!A201:C389, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
@@ -12262,8 +13529,14 @@
       <c r="D202" s="6">
         <v>137940.24</v>
       </c>
-      <c r="E202" s="45"/>
-      <c r="F202" s="42"/>
+      <c r="E202" s="45" t="e">
+        <f>VLOOKUP(A202, 'State Abbreviations'!A202:B252,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F202" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A202,'State Income (2001-2004)'!A202:C390, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
@@ -12278,8 +13551,14 @@
       <c r="D203" s="6">
         <v>74216.52</v>
       </c>
-      <c r="E203" s="45"/>
-      <c r="F203" s="42"/>
+      <c r="E203" s="45" t="e">
+        <f>VLOOKUP(A203, 'State Abbreviations'!A203:B253,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F203" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A203,'State Income (2001-2004)'!A203:C391, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
@@ -12294,8 +13573,14 @@
       <c r="D204" s="6">
         <v>114527.96</v>
       </c>
-      <c r="E204" s="45"/>
-      <c r="F204" s="42"/>
+      <c r="E204" s="45" t="e">
+        <f>VLOOKUP(A204, 'State Abbreviations'!A204:B254,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F204" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A204,'State Income (2001-2004)'!A204:C392, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
@@ -12310,8 +13595,14 @@
       <c r="D205" s="6">
         <v>11528.24</v>
       </c>
-      <c r="E205" s="45"/>
-      <c r="F205" s="42"/>
+      <c r="E205" s="45" t="e">
+        <f>VLOOKUP(A205, 'State Abbreviations'!A205:B255,2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F205" s="42" t="str">
+        <f>IFERROR(VLOOKUP(A205,'State Income (2001-2004)'!A205:C393, 3, 1), "NO INCOME DATA")</f>
+        <v>NO INCOME DATA</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12331,7 +13622,7 @@
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12772,7 +14063,7 @@
   </sheetPr>
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A162" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14888,7 +16179,9 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14928,7 +16221,9 @@
       <c r="F2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="43">
+        <v>2004</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -14946,7 +16241,9 @@
       <c r="F3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="43" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
@@ -14978,7 +16275,10 @@
       <c r="F5" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="46">
+        <f>INDEX(B2:D18,MATCH(G2,A2:A18,0), MATCH(G3,B1:D1,0))</f>
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -15163,6 +16463,14 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A18 G2" xr:uid="{ABC2D81F-2F4F-4322-817A-337129E9A754}">
+      <formula1>$A$2:$A$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3" xr:uid="{81FE1775-C7F1-41A0-BE8A-9EAA4ED0D9A8}">
+      <formula1>$B$1:$D$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -15180,7 +16488,9 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15209,7 +16519,10 @@
       <c r="C2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="36"/>
+      <c r="D2" s="36">
+        <f>COUNTA(A:A)-1</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
@@ -15230,7 +16543,10 @@
       <c r="C4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="37">
+        <f ca="1">OFFSET(A1,COUNTA(A:A)-1,0,1,1)</f>
+        <v>42389</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
@@ -15251,7 +16567,10 @@
       <c r="C6" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="36">
+        <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0,1,1)</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
@@ -15272,9 +16591,12 @@
       <c r="C8" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="36">
+        <f>SUM(B2:B21)</f>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="33">
         <v>42377</v>
       </c>
@@ -15282,9 +16604,12 @@
         <v>53</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="35">
+        <f ca="1">SUM(OFFSET($B$1,0,0,COUNTA(B:B),1))</f>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
         <v>42378</v>
       </c>
@@ -15294,7 +16619,10 @@
       <c r="C10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="35">
+        <f ca="1">SUM(OFFSET($B$1,0,0,COUNTA(B:B)-1,1))</f>
+        <v>971</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
@@ -15399,8 +16727,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15445,169 +16773,463 @@
       <c r="A2" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="43" t="str">
+        <f>LEFT(A2,6)</f>
+        <v>133462</v>
+      </c>
+      <c r="C2" s="58" t="str">
+        <f>LEFT(A2, SEARCH("-", A2)-1)</f>
+        <v>133462</v>
+      </c>
+      <c r="D2" s="43" t="str">
+        <f>MID(A2,SEARCH("-",A2)+1,2)</f>
+        <v>AA</v>
+      </c>
+      <c r="E2" s="43" t="str">
+        <f>IF(ISNUMBER(SEARCH("SMALL",A2)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A2)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A2)),"Large",IF(ISNUMBER(SEARCH("XL",A2)),"XL"))))</f>
+        <v>Small</v>
+      </c>
+      <c r="F2" s="43" t="str">
+        <f>RIGHT(A2, LEN(A2)-SEARCH("_", A2))</f>
+        <v>SMALL</v>
+      </c>
+      <c r="G2" s="43" t="str">
+        <f>SUBSTITUTE(A2,"-","|", 2)</f>
+        <v>133462-AA|BOS_SMALL</v>
+      </c>
+      <c r="H2" s="43" t="str">
+        <f>MID(G2, SEARCH("|", G2)+1,3)</f>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="B3" s="43" t="str">
+        <f t="shared" ref="B3:B15" si="0">LEFT(A3,6)</f>
+        <v>191768</v>
+      </c>
+      <c r="C3" s="58" t="str">
+        <f t="shared" ref="C3:C15" si="1">LEFT(A3, SEARCH("-", A3)-1)</f>
+        <v>191768</v>
+      </c>
+      <c r="D3" s="43" t="str">
+        <f t="shared" ref="D3:D15" si="2">MID(A3,SEARCH("-",A3)+1,2)</f>
+        <v>AC</v>
+      </c>
+      <c r="E3" s="43" t="str">
+        <f t="shared" ref="E3:E15" si="3">IF(ISNUMBER(SEARCH("SMALL",A3)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A3)),"Large",IF(ISNUMBER(SEARCH("XL",A3)),"XL"))))</f>
+        <v>Medium</v>
+      </c>
+      <c r="F3" s="43" t="str">
+        <f t="shared" ref="F3:F15" si="4">RIGHT(A3, LEN(A3)-SEARCH("_", A3))</f>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G3" s="43" t="str">
+        <f t="shared" ref="G3:G15" si="5">SUBSTITUTE(A3,"-","|", 2)</f>
+        <v>191768-AC|NYC_MEDIUM</v>
+      </c>
+      <c r="H3" s="43" t="str">
+        <f t="shared" ref="H3:H15" si="6">MID(G3, SEARCH("|", G3)+1,3)</f>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
+      <c r="B4" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>157263</v>
+      </c>
+      <c r="C4" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>157263</v>
+      </c>
+      <c r="D4" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E4" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F4" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G4" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>157263-BB|BOS_XL</v>
+      </c>
+      <c r="H4" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="B5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>173437</v>
+      </c>
+      <c r="C5" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>1734372</v>
+      </c>
+      <c r="D5" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AA</v>
+      </c>
+      <c r="E5" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Small</v>
+      </c>
+      <c r="F5" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>SMALL</v>
+      </c>
+      <c r="G5" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>1734372-AA|CHI_SMALL</v>
+      </c>
+      <c r="H5" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="B6" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>135351</v>
+      </c>
+      <c r="C6" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>135351</v>
+      </c>
+      <c r="D6" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BC</v>
+      </c>
+      <c r="E6" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F6" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G6" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>135351-BC|NYC_XL</v>
+      </c>
+      <c r="H6" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="B7" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>143303</v>
+      </c>
+      <c r="C7" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>14330305</v>
+      </c>
+      <c r="D7" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AC</v>
+      </c>
+      <c r="E7" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F7" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G7" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>14330305-AC|BOS_LARGE</v>
+      </c>
+      <c r="H7" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="B8" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>177772</v>
+      </c>
+      <c r="C8" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>177772</v>
+      </c>
+      <c r="D8" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E8" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F8" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G8" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>177772-BB|NYC_MEDIUM</v>
+      </c>
+      <c r="H8" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="B9" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>871928</v>
+      </c>
+      <c r="C9" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>87192837</v>
+      </c>
+      <c r="D9" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AB</v>
+      </c>
+      <c r="E9" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F9" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G9" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>87192837-AB|CHI_XL</v>
+      </c>
+      <c r="H9" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="B10" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>161266</v>
+      </c>
+      <c r="C10" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>161266</v>
+      </c>
+      <c r="D10" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E10" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Small</v>
+      </c>
+      <c r="F10" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>SMALL</v>
+      </c>
+      <c r="G10" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>161266-BB|CHI_SMALL</v>
+      </c>
+      <c r="H10" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="B11" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>122892</v>
+      </c>
+      <c r="C11" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>122892</v>
+      </c>
+      <c r="D11" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AA</v>
+      </c>
+      <c r="E11" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F11" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G11" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>122892-AA|NYC_MEDIUM</v>
+      </c>
+      <c r="H11" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="B12" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>128919</v>
+      </c>
+      <c r="C12" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>128919</v>
+      </c>
+      <c r="D12" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AC</v>
+      </c>
+      <c r="E12" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>XL</v>
+      </c>
+      <c r="F12" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>XL</v>
+      </c>
+      <c r="G12" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>128919-AC|CHI_XL</v>
+      </c>
+      <c r="H12" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>CHI</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="B13" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>191999</v>
+      </c>
+      <c r="C13" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>191999</v>
+      </c>
+      <c r="D13" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BB</v>
+      </c>
+      <c r="E13" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F13" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G13" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>191999-BB|BOS_LARGE</v>
+      </c>
+      <c r="H13" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
+      <c r="B14" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>117091</v>
+      </c>
+      <c r="C14" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>117091126</v>
+      </c>
+      <c r="D14" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>BC</v>
+      </c>
+      <c r="E14" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Large</v>
+      </c>
+      <c r="F14" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>LARGE</v>
+      </c>
+      <c r="G14" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>117091126-BC|NYC_LARGE</v>
+      </c>
+      <c r="H14" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>NYC</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="B15" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>112283</v>
+      </c>
+      <c r="C15" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>112283</v>
+      </c>
+      <c r="D15" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>AB</v>
+      </c>
+      <c r="E15" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v>Medium</v>
+      </c>
+      <c r="F15" s="43" t="str">
+        <f t="shared" si="4"/>
+        <v>MEDIUM</v>
+      </c>
+      <c r="G15" s="43" t="str">
+        <f t="shared" si="5"/>
+        <v>112283-AB|BOS_MEDIUM</v>
+      </c>
+      <c r="H15" s="43" t="str">
+        <f t="shared" si="6"/>
+        <v>BOS</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_Homework_Exercises.xlsx
+++ b/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINA\Documents\UDEMY\EXCEL\Excel+Homework+Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7DCFC-6E84-400D-8B95-253C8CCB002F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B8ED5-545D-4251-B7EB-52DA2100C3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="709" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="709" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -791,8 +791,8 @@
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="dddd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -981,7 +981,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,9 +1093,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1119,12 +1116,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,13 +1132,199 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5450,11 +5627,11 @@
       <c r="D2" s="2">
         <v>18</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="43">
         <f>C2/$B2</f>
         <v>0.5273972602739726</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="43">
         <f>D2/$B2</f>
         <v>0.12328767123287671</v>
       </c>
@@ -5472,11 +5649,11 @@
       <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="43">
         <f t="shared" ref="E3:E26" si="0">C3/$B3</f>
         <v>0.42603550295857989</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="43">
         <f t="shared" ref="F3:F26" si="1">D3/$B3</f>
         <v>8.8757396449704137E-2</v>
       </c>
@@ -5494,11 +5671,11 @@
       <c r="D4" s="2">
         <v>19</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <f t="shared" si="0"/>
         <v>0.35678391959798994</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="43">
         <f t="shared" si="1"/>
         <v>9.5477386934673364E-2</v>
       </c>
@@ -5516,11 +5693,11 @@
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <f t="shared" si="0"/>
         <v>0.23487544483985764</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="43">
         <f t="shared" si="1"/>
         <v>3.5587188612099648E-2</v>
       </c>
@@ -5538,11 +5715,11 @@
       <c r="D6" s="2">
         <v>19</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <f t="shared" si="0"/>
         <v>0.19924812030075187</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -5560,11 +5737,11 @@
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <f t="shared" si="0"/>
         <v>0.30324909747292417</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="43">
         <f t="shared" si="1"/>
         <v>5.4151624548736461E-2</v>
       </c>
@@ -5582,11 +5759,11 @@
       <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <f t="shared" si="0"/>
         <v>0.50344827586206897</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="43">
         <f t="shared" si="1"/>
         <v>0.10344827586206896</v>
       </c>
@@ -5604,11 +5781,11 @@
       <c r="D9" s="2">
         <v>12</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <f t="shared" si="0"/>
         <v>0.30396475770925108</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="43">
         <f t="shared" si="1"/>
         <v>5.2863436123348019E-2</v>
       </c>
@@ -5626,11 +5803,11 @@
       <c r="D10" s="2">
         <v>16</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <f t="shared" si="0"/>
         <v>0.43888888888888888</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="43">
         <f t="shared" si="1"/>
         <v>8.8888888888888892E-2</v>
       </c>
@@ -5648,11 +5825,11 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="44" t="e">
+      <c r="E11" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="44" t="e">
+      <c r="F11" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5670,11 +5847,11 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <f t="shared" si="0"/>
         <v>0.30991735537190085</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="43">
         <f t="shared" si="1"/>
         <v>4.1322314049586778E-2</v>
       </c>
@@ -5692,11 +5869,11 @@
       <c r="D13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="43">
         <f t="shared" si="0"/>
         <v>0.34883720930232559</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="43">
         <f t="shared" si="1"/>
         <v>7.441860465116279E-2</v>
       </c>
@@ -5714,11 +5891,11 @@
       <c r="D14" s="2">
         <v>16</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <f t="shared" si="0"/>
         <v>0.33606557377049179</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="43">
         <f t="shared" si="1"/>
         <v>6.5573770491803282E-2</v>
       </c>
@@ -5736,11 +5913,11 @@
       <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <f t="shared" si="0"/>
         <v>0.39664804469273746</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="43">
         <f t="shared" si="1"/>
         <v>7.2625698324022353E-2</v>
       </c>
@@ -5758,11 +5935,11 @@
       <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <f t="shared" si="0"/>
         <v>0.2608695652173913</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="43">
         <f t="shared" si="1"/>
         <v>5.0724637681159424E-2</v>
       </c>
@@ -5780,11 +5957,11 @@
       <c r="D17" s="2">
         <v>20</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <f t="shared" si="0"/>
         <v>0.61417322834645671</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <f t="shared" si="1"/>
         <v>0.15748031496062992</v>
       </c>
@@ -5802,11 +5979,11 @@
       <c r="D18" s="2">
         <v>18</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <f t="shared" si="0"/>
         <v>0.2756183745583039</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="43">
         <f t="shared" si="1"/>
         <v>6.3604240282685506E-2</v>
       </c>
@@ -5824,11 +6001,11 @@
       <c r="D19" s="2">
         <v>20</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <f t="shared" si="0"/>
         <v>0.60317460317460314</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="43">
         <f t="shared" si="1"/>
         <v>0.15873015873015872</v>
       </c>
@@ -5846,11 +6023,11 @@
       <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <f t="shared" si="0"/>
         <v>0.30916030534351147</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="43">
         <f t="shared" si="1"/>
         <v>7.2519083969465645E-2</v>
       </c>
@@ -5868,11 +6045,11 @@
       <c r="D21" s="2">
         <v>14</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <f t="shared" si="0"/>
         <v>0.28222996515679444</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="43">
         <f t="shared" si="1"/>
         <v>4.878048780487805E-2</v>
       </c>
@@ -5890,11 +6067,11 @@
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <f t="shared" si="0"/>
         <v>0.30483271375464682</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="43">
         <f t="shared" si="1"/>
         <v>5.204460966542751E-2</v>
       </c>
@@ -5912,11 +6089,11 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <f t="shared" si="0"/>
         <v>0.19852941176470587</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="43">
         <f t="shared" si="1"/>
         <v>3.6764705882352942E-2</v>
       </c>
@@ -5934,11 +6111,11 @@
       <c r="D24" s="2">
         <v>11</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <f t="shared" si="0"/>
         <v>0.33823529411764708</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="43">
         <f t="shared" si="1"/>
         <v>5.3921568627450983E-2</v>
       </c>
@@ -5956,11 +6133,11 @@
       <c r="D25" s="2">
         <v>20</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="43">
         <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
@@ -5978,11 +6155,11 @@
       <c r="D26" s="2">
         <v>19</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="43">
         <f t="shared" si="0"/>
         <v>0.34482758620689657</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="43">
         <f t="shared" si="1"/>
         <v>7.2796934865900387E-2</v>
       </c>
@@ -6004,9 +6181,11 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6032,13 +6211,19 @@
       <c r="B3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="38">
+        <f ca="1">TODAY()</f>
+        <v>45149</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="39">
+        <f ca="1">NOW()</f>
+        <v>45149.76140520833</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
@@ -6061,12 +6246,30 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="B7" s="40">
+        <f ca="1">YEAR(C4)</f>
+        <v>2023</v>
+      </c>
+      <c r="C7" s="40">
+        <f ca="1">MONTH(C4)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="40">
+        <f ca="1">DAY(C4)</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="40">
+        <f ca="1">HOUR(C4)</f>
+        <v>18</v>
+      </c>
+      <c r="F7" s="40">
+        <f ca="1">MINUTE(C4)</f>
+        <v>16</v>
+      </c>
+      <c r="G7" s="40">
+        <f ca="1">SECOND(C4)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
@@ -6081,7 +6284,10 @@
       <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="56">
+        <f ca="1">WEEKDAY(C4)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9"/>
@@ -6091,32 +6297,47 @@
       <c r="B11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="38">
+        <f ca="1">WORKDAY(C4, 50)</f>
+        <v>45219</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="57">
+        <f ca="1">NETWORKDAYS(C2, C3)</f>
+        <v>2247</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="38">
+        <f ca="1">EOMONTH(C3, 0)</f>
+        <v>45169</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="38">
+        <f ca="1">EOMONTH(C3, -1)+1</f>
+        <v>45139</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="38">
+        <f ca="1">EOMONTH(C3, -1*MONTH(C3))+1</f>
+        <v>44927</v>
+      </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
@@ -6129,25 +6350,59 @@
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
+      <c r="B20" s="20">
+        <v>42006</v>
+      </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
+      <c r="B21" s="20">
+        <v>42007</v>
+      </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
+      <c r="B22" s="20">
+        <v>42008</v>
+      </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
+      <c r="B23" s="20">
+        <v>42009</v>
+      </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
+      <c r="B24" s="20">
+        <v>42010</v>
+      </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
+      <c r="B25" s="20">
+        <v>42011</v>
+      </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
+      <c r="B26" s="20">
+        <v>42012</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="20">
+        <v>42013</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="20">
+        <v>42014</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="20">
+        <v>42015</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="20">
+        <v>42016</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6162,7 +6417,9 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6171,7 +6428,7 @@
     <col min="3" max="3" width="17.44140625" style="31" customWidth="1"/>
     <col min="4" max="5" width="14.88671875" style="31" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6193,7 +6450,7 @@
       <c r="F1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6201,23 +6458,23 @@
       <c r="A2" s="20">
         <v>41640</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="8">
         <v>1099</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8">
         <v>275</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>643</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="8">
         <f>B2-D2</f>
         <v>456</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="58">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -6226,23 +6483,23 @@
       <c r="A3" s="20">
         <v>41671</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <v>1204</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8">
         <f>B3-B2</f>
         <v>105</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>720</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="8">
         <v>211</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="59">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -6251,24 +6508,24 @@
       <c r="A4" s="20">
         <v>41699</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <v>1944</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:C25" si="1">B4-B3</f>
         <v>740</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>964</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <f t="shared" ref="E4:E25" si="2">B4-D4</f>
         <v>980</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="52">
+      <c r="G4" s="59">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -6277,24 +6534,24 @@
       <c r="A5" s="20">
         <v>41730</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>1743</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8">
         <f t="shared" si="1"/>
         <v>-201</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="8">
         <v>830</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="8">
         <f t="shared" si="2"/>
         <v>913</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="52">
+      <c r="G5" s="59">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -6303,24 +6560,24 @@
       <c r="A6" s="20">
         <v>41760</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="8">
         <v>1609</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8">
         <f t="shared" si="1"/>
         <v>-134</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="8">
         <v>910</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="8">
         <f t="shared" si="2"/>
         <v>699</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="59">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -6329,24 +6586,24 @@
       <c r="A7" s="20">
         <v>41791</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>1494</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="8">
         <f t="shared" si="1"/>
         <v>-115</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="8">
         <v>909</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="8">
         <f t="shared" si="2"/>
         <v>585</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="59">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -6355,24 +6612,24 @@
       <c r="A8" s="20">
         <v>41821</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>1959</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <v>830</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="8">
         <f t="shared" si="2"/>
         <v>1129</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="59">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -6381,24 +6638,24 @@
       <c r="A9" s="20">
         <v>41852</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="8">
         <v>1868</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8">
         <f t="shared" si="1"/>
         <v>-91</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="8">
         <v>906</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="8">
         <f t="shared" si="2"/>
         <v>962</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="59">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -6407,24 +6664,24 @@
       <c r="A10" s="20">
         <v>41883</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>1162</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8">
         <f t="shared" si="1"/>
         <v>-706</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="8">
         <v>606</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="8">
         <f t="shared" si="2"/>
         <v>556</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="59">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -6433,24 +6690,24 @@
       <c r="A11" s="20">
         <v>41913</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>1424</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="8">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="8">
         <v>943</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="8">
         <f t="shared" si="2"/>
         <v>481</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="59">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -6459,24 +6716,24 @@
       <c r="A12" s="20">
         <v>41944</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="8">
         <v>1232</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="8">
         <f t="shared" si="1"/>
         <v>-192</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="8">
         <v>801</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <f t="shared" si="2"/>
         <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="52">
+      <c r="G12" s="59">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -6485,24 +6742,24 @@
       <c r="A13" s="20">
         <v>41974</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>1738</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="8">
         <f t="shared" si="1"/>
         <v>506</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="8">
         <v>786</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="8">
         <f t="shared" si="2"/>
         <v>952</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="59">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -6511,24 +6768,24 @@
       <c r="A14" s="20">
         <v>42005</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="8">
         <v>1435</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="8">
         <f t="shared" si="1"/>
         <v>-303</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="8">
         <v>575</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="8">
         <f t="shared" si="2"/>
         <v>860</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="59">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -6537,24 +6794,24 @@
       <c r="A15" s="20">
         <v>42036</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="8">
         <v>1865</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
         <f t="shared" si="1"/>
         <v>430</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="8">
         <v>754</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="8">
         <f t="shared" si="2"/>
         <v>1111</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="59">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -6563,24 +6820,24 @@
       <c r="A16" s="20">
         <v>42064</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="8">
         <v>1234</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="8">
         <f t="shared" si="1"/>
         <v>-631</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="8">
         <v>599</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="8">
         <f t="shared" si="2"/>
         <v>635</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="59">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -6589,24 +6846,24 @@
       <c r="A17" s="20">
         <v>42095</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="8">
         <v>1577</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="8">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="8">
         <v>940</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="8">
         <f t="shared" si="2"/>
         <v>637</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="59">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -6615,24 +6872,24 @@
       <c r="A18" s="20">
         <v>42125</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="8">
         <v>1983</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="8">
         <v>954</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="8">
         <f t="shared" si="2"/>
         <v>1029</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="59">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -6641,24 +6898,24 @@
       <c r="A19" s="20">
         <v>42156</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="8">
         <v>1356</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="8">
         <f t="shared" si="1"/>
         <v>-627</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="8">
         <v>577</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="8">
         <f t="shared" si="2"/>
         <v>779</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="59">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -6667,23 +6924,23 @@
       <c r="A20" s="20">
         <v>42186</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="8">
         <v>1874</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="8">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="8">
         <v>865</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="8">
         <v>883</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="59">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -6692,24 +6949,24 @@
       <c r="A21" s="20">
         <v>42217</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="8">
         <v>1479</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="8">
         <f t="shared" si="1"/>
         <v>-395</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="8">
         <v>588</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="8">
         <f t="shared" si="2"/>
         <v>891</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="59">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -6718,23 +6975,23 @@
       <c r="A22" s="20">
         <v>42248</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="8">
         <v>1943</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="8">
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="8">
         <v>785</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="8">
         <v>712</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="52">
+      <c r="G22" s="59">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -6743,24 +7000,24 @@
       <c r="A23" s="20">
         <v>42278</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="8">
         <v>1444</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="8">
         <f t="shared" si="1"/>
         <v>-499</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="8">
         <v>657</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="8">
         <f t="shared" si="2"/>
         <v>787</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="52">
+      <c r="G23" s="59">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -6769,24 +7026,24 @@
       <c r="A24" s="20">
         <v>42309</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="8">
         <v>1493</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="8">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="8">
         <v>880</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="8">
         <f t="shared" si="2"/>
         <v>613</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="59">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -6795,29 +7052,56 @@
       <c r="A25" s="20">
         <v>42339</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="8">
         <v>1738</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="8">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="8">
         <v>580</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="8">
         <f t="shared" si="2"/>
         <v>1158</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="52">
+      <c r="G25" s="59">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="-200"/>
+        <cfvo type="num" val="200" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$G2&lt;40%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G25">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$F2="Kids"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6830,8 +7114,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6867,19 +7151,19 @@
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="50" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6899,7 +7183,7 @@
       <c r="E2" s="8">
         <v>22873</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="8"/>
@@ -6952,10 +7236,10 @@
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="N4" s="50" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6980,8 +7264,8 @@
       <c r="I5" s="2"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -6999,7 +7283,7 @@
       <c r="E6" s="8">
         <v>10283</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
@@ -7023,7 +7307,7 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
@@ -7053,7 +7337,7 @@
       <c r="M8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="55" t="s">
+      <c r="N8" s="52" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7100,19 +7384,19 @@
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="M10" s="53" t="s">
+      <c r="M10" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="53" t="s">
+      <c r="N10" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="53" t="s">
+      <c r="P10" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="Q10" s="53" t="s">
+      <c r="Q10" s="50" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7137,7 +7421,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="M11" s="43"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="8"/>
@@ -7269,15 +7553,15 @@
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="50" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M18" s="43"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.3">
@@ -7354,19 +7638,19 @@
       <c r="C2" s="2">
         <v>90</v>
       </c>
-      <c r="D2" s="43" t="str">
+      <c r="D2" s="42" t="str">
         <f>IF(C2&gt;=90, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="E2" s="43" t="str">
+      <c r="E2" s="42" t="str">
         <f>IF(C2&gt;=90,"A",IF(AND(C2&gt;=80,C2&lt;=89),"B",IF(AND(C2&gt;=70,C2&lt;=79),"C",IF(AND(C2&gt;=60,C2&lt;=69),"D","F"))))</f>
         <v>A</v>
       </c>
-      <c r="F2" s="43" t="str">
+      <c r="F2" s="42" t="str">
         <f>IF(OR(C2&lt;60, C2&gt;90), "OUTLIER", "AVG")</f>
         <v>AVG</v>
       </c>
-      <c r="G2" s="43" t="str">
+      <c r="G2" s="42" t="str">
         <f>IF(AND(C2&gt;95, B2="M"), "Male Achiever", IF(AND(C2&gt;95, B2="F"), "Female Achiever", "None"))</f>
         <v>None</v>
       </c>
@@ -7381,19 +7665,19 @@
       <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="D3" s="43" t="str">
+      <c r="D3" s="42" t="str">
         <f t="shared" ref="D3:D16" si="0">IF(C3&gt;=90, "PASS", "FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="E3" s="43" t="str">
+      <c r="E3" s="42" t="str">
         <f t="shared" ref="E3:E16" si="1">IF(C3&gt;=90,"A",IF(AND(C3&gt;=80,C3&lt;=89),"B",IF(AND(C3&gt;=70,C3&lt;=79),"C",IF(AND(C3&gt;=60,C3&lt;=69),"D","F"))))</f>
         <v>B</v>
       </c>
-      <c r="F3" s="43" t="str">
+      <c r="F3" s="42" t="str">
         <f t="shared" ref="F3:F16" si="2">IF(OR(C3&lt;60, C3&gt;90), "OUTLIER", "AVG")</f>
         <v>AVG</v>
       </c>
-      <c r="G3" s="43" t="str">
+      <c r="G3" s="42" t="str">
         <f t="shared" ref="G3:G16" si="3">IF(AND(C3&gt;95, B3="M"), "Male Achiever", IF(AND(C3&gt;95, B3="F"), "Female Achiever", "None"))</f>
         <v>None</v>
       </c>
@@ -7408,19 +7692,19 @@
       <c r="C4" s="2">
         <v>96</v>
       </c>
-      <c r="D4" s="43" t="str">
+      <c r="D4" s="42" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E4" s="43" t="str">
+      <c r="E4" s="42" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F4" s="43" t="str">
+      <c r="F4" s="42" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G4" s="43" t="str">
+      <c r="G4" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Female Achiever</v>
       </c>
@@ -7435,19 +7719,19 @@
       <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="43" t="str">
+      <c r="D5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5" s="43" t="str">
+      <c r="E5" s="42" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="F5" s="43" t="str">
+      <c r="F5" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G5" s="43" t="str">
+      <c r="G5" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7462,19 +7746,19 @@
       <c r="C6" s="2">
         <v>69</v>
       </c>
-      <c r="D6" s="43" t="str">
+      <c r="D6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6" s="43" t="str">
+      <c r="E6" s="42" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F6" s="43" t="str">
+      <c r="F6" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G6" s="43" t="str">
+      <c r="G6" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7489,19 +7773,19 @@
       <c r="C7" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="43" t="str">
+      <c r="D7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7" s="43" t="str">
+      <c r="E7" s="42" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="F7" s="43" t="str">
+      <c r="F7" s="42" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G7" s="43" t="str">
+      <c r="G7" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7516,19 +7800,19 @@
       <c r="C8" s="2">
         <v>99</v>
       </c>
-      <c r="D8" s="43" t="str">
+      <c r="D8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E8" s="43" t="str">
+      <c r="E8" s="42" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F8" s="43" t="str">
+      <c r="F8" s="42" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G8" s="43" t="str">
+      <c r="G8" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Male Achiever</v>
       </c>
@@ -7543,19 +7827,19 @@
       <c r="C9" s="2">
         <v>82</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9" s="43" t="str">
+      <c r="E9" s="42" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F9" s="43" t="str">
+      <c r="F9" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G9" s="43" t="str">
+      <c r="G9" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7570,19 +7854,19 @@
       <c r="C10" s="2">
         <v>67</v>
       </c>
-      <c r="D10" s="43" t="str">
+      <c r="D10" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E10" s="43" t="str">
+      <c r="E10" s="42" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F10" s="43" t="str">
+      <c r="F10" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G10" s="43" t="str">
+      <c r="G10" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7597,19 +7881,19 @@
       <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="D11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E11" s="43" t="str">
+      <c r="E11" s="42" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F11" s="43" t="str">
+      <c r="F11" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G11" s="43" t="str">
+      <c r="G11" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7624,19 +7908,19 @@
       <c r="C12" s="2">
         <v>83</v>
       </c>
-      <c r="D12" s="43" t="str">
+      <c r="D12" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12" s="43" t="str">
+      <c r="E12" s="42" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F12" s="43" t="str">
+      <c r="F12" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G12" s="43" t="str">
+      <c r="G12" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7651,19 +7935,19 @@
       <c r="C13" s="2">
         <v>89</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="D13" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E13" s="43" t="str">
+      <c r="E13" s="42" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F13" s="43" t="str">
+      <c r="F13" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G13" s="43" t="str">
+      <c r="G13" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7678,19 +7962,19 @@
       <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="43" t="str">
+      <c r="D14" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14" s="43" t="str">
+      <c r="E14" s="42" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F14" s="43" t="str">
+      <c r="F14" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G14" s="43" t="str">
+      <c r="G14" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7705,19 +7989,19 @@
       <c r="C15" s="2">
         <v>63</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E15" s="43" t="str">
+      <c r="E15" s="42" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F15" s="43" t="str">
+      <c r="F15" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G15" s="43" t="str">
+      <c r="G15" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7732,19 +8016,19 @@
       <c r="C16" s="2">
         <v>59</v>
       </c>
-      <c r="D16" s="43" t="str">
+      <c r="D16" s="42" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E16" s="43" t="str">
+      <c r="E16" s="42" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="F16" s="43" t="str">
+      <c r="F16" s="42" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G16" s="43" t="str">
+      <c r="G16" s="42" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7960,7 +8244,7 @@
         <f>SUMIFS($D:$D, $C:$C,$G8, $A:$A, $H$2)</f>
         <v>166</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="53">
         <f>SUMIFS($E:$E, $C:$C,$G8, $A:$A, $H$2)</f>
         <v>10015</v>
       </c>
@@ -7992,7 +8276,7 @@
         <f t="shared" ref="H9:H10" si="0">SUMIFS($D:$D, $C:$C,$G9, $A:$A, $H$2)</f>
         <v>372</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="53">
         <f t="shared" ref="I9:I10" si="1">SUMIFS($E:$E, $C:$C,$G9, $A:$A, $H$2)</f>
         <v>42628</v>
       </c>
@@ -8024,7 +8308,7 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="53">
         <f t="shared" si="1"/>
         <v>6300</v>
       </c>
@@ -9123,11 +9407,11 @@
       <c r="D2" s="6">
         <v>177884</v>
       </c>
-      <c r="E2" s="45" t="str">
+      <c r="E2" s="44" t="str">
         <f>VLOOKUP(A2, 'State Abbreviations'!A2:B52,2,1)</f>
         <v>AL</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="41">
         <f>IFERROR(VLOOKUP(A2,'State Income (2001-2004)'!A2:C190, 3, 1), "NO INCOME DATA")</f>
         <v>26338</v>
       </c>
@@ -9145,11 +9429,11 @@
       <c r="D3" s="6">
         <v>12538.64</v>
       </c>
-      <c r="E3" s="45" t="str">
+      <c r="E3" s="44" t="str">
         <f>VLOOKUP(A3, 'State Abbreviations'!A3:B53,2,1)</f>
         <v>AK</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <f>IFERROR(VLOOKUP(A3,'State Income (2001-2004)'!A3:C191, 3, 1), "NO INCOME DATA")</f>
         <v>33568</v>
       </c>
@@ -9167,11 +9451,11 @@
       <c r="D4" s="6">
         <v>102612.64</v>
       </c>
-      <c r="E4" s="45" t="str">
+      <c r="E4" s="44" t="str">
         <f>VLOOKUP(A4, 'State Abbreviations'!A4:B54,2,1)</f>
         <v>AZ</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <f>IFERROR(VLOOKUP(A4,'State Income (2001-2004)'!A4:C192, 3, 1), "NO INCOME DATA")</f>
         <v>26838</v>
       </c>
@@ -9189,11 +9473,11 @@
       <c r="D5" s="6">
         <v>53468</v>
       </c>
-      <c r="E5" s="45" t="str">
+      <c r="E5" s="44" t="str">
         <f>VLOOKUP(A5, 'State Abbreviations'!A5:B55,2,1)</f>
         <v>AR</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <f>IFERROR(VLOOKUP(A5,'State Income (2001-2004)'!A5:C193, 3, 1), "NO INCOME DATA")</f>
         <v>24289</v>
       </c>
@@ -9211,11 +9495,11 @@
       <c r="D6" s="6">
         <v>1016149.44</v>
       </c>
-      <c r="E6" s="45" t="str">
+      <c r="E6" s="44" t="str">
         <f>VLOOKUP(A6, 'State Abbreviations'!A6:B56,2,1)</f>
         <v>CA</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="41">
         <f>IFERROR(VLOOKUP(A6,'State Income (2001-2004)'!A6:C194, 3, 1), "NO INCOME DATA")</f>
         <v>33749</v>
       </c>
@@ -9233,11 +9517,11 @@
       <c r="D7" s="6">
         <v>172050.44</v>
       </c>
-      <c r="E7" s="45" t="str">
+      <c r="E7" s="44" t="str">
         <f>VLOOKUP(A7, 'State Abbreviations'!A7:B57,2,1)</f>
         <v>CO</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="41">
         <f>IFERROR(VLOOKUP(A7,'State Income (2001-2004)'!A7:C195, 3, 1), "NO INCOME DATA")</f>
         <v>34283</v>
       </c>
@@ -9255,11 +9539,11 @@
       <c r="D8" s="6">
         <v>102166.95</v>
       </c>
-      <c r="E8" s="45" t="str">
+      <c r="E8" s="44" t="str">
         <f>VLOOKUP(A8, 'State Abbreviations'!A8:B58,2,1)</f>
         <v>CT</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="41">
         <f>IFERROR(VLOOKUP(A8,'State Income (2001-2004)'!A8:C196, 3, 1), "NO INCOME DATA")</f>
         <v>43173</v>
       </c>
@@ -9277,11 +9561,11 @@
       <c r="D9" s="6">
         <v>23508</v>
       </c>
-      <c r="E9" s="45" t="str">
+      <c r="E9" s="44" t="str">
         <f>VLOOKUP(A9, 'State Abbreviations'!A9:B59,2,1)</f>
         <v>DC</v>
       </c>
-      <c r="F9" s="42" t="str">
+      <c r="F9" s="41" t="str">
         <f>IFERROR(VLOOKUP(A9,'State Income (2001-2004)'!A9:C197, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9299,11 +9583,11 @@
       <c r="D10" s="6">
         <v>17161.77</v>
       </c>
-      <c r="E10" s="45" t="str">
+      <c r="E10" s="44" t="str">
         <f>VLOOKUP(A10, 'State Abbreviations'!A10:B60,2,1)</f>
         <v>DE</v>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="41" t="str">
         <f>IFERROR(VLOOKUP(A10,'State Income (2001-2004)'!A10:C198, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9321,11 +9605,11 @@
       <c r="D11" s="6">
         <v>319647.56</v>
       </c>
-      <c r="E11" s="45" t="str">
+      <c r="E11" s="44" t="str">
         <f>VLOOKUP(A11, 'State Abbreviations'!A11:B61,2,1)</f>
         <v>FL</v>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="41" t="str">
         <f>IFERROR(VLOOKUP(A11,'State Income (2001-2004)'!A11:C199, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9343,11 +9627,11 @@
       <c r="D12" s="6">
         <v>245593.59</v>
       </c>
-      <c r="E12" s="45" t="str">
+      <c r="E12" s="44" t="str">
         <f>VLOOKUP(A12, 'State Abbreviations'!A12:B62,2,1)</f>
         <v>GA</v>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="41" t="str">
         <f>IFERROR(VLOOKUP(A12,'State Income (2001-2004)'!A12:C200, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9365,11 +9649,11 @@
       <c r="D13" s="6">
         <v>48461.48</v>
       </c>
-      <c r="E13" s="45" t="str">
+      <c r="E13" s="44" t="str">
         <f>VLOOKUP(A13, 'State Abbreviations'!A13:B63,2,1)</f>
         <v>HI</v>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="41" t="str">
         <f>IFERROR(VLOOKUP(A13,'State Income (2001-2004)'!A13:C201, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9387,11 +9671,11 @@
       <c r="D14" s="6">
         <v>38818.589999999997</v>
       </c>
-      <c r="E14" s="45" t="str">
+      <c r="E14" s="44" t="str">
         <f>VLOOKUP(A14, 'State Abbreviations'!A14:B64,2,1)</f>
         <v>ID</v>
       </c>
-      <c r="F14" s="42" t="str">
+      <c r="F14" s="41" t="str">
         <f>IFERROR(VLOOKUP(A14,'State Income (2001-2004)'!A14:C202, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9409,11 +9693,11 @@
       <c r="D15" s="6">
         <v>496771.72000000003</v>
       </c>
-      <c r="E15" s="45" t="str">
+      <c r="E15" s="44" t="str">
         <f>VLOOKUP(A15, 'State Abbreviations'!A15:B65,2,1)</f>
         <v>IL</v>
       </c>
-      <c r="F15" s="42" t="str">
+      <c r="F15" s="41" t="str">
         <f>IFERROR(VLOOKUP(A15,'State Income (2001-2004)'!A15:C203, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9431,11 +9715,11 @@
       <c r="D16" s="6">
         <v>243219.4</v>
       </c>
-      <c r="E16" s="45" t="str">
+      <c r="E16" s="44" t="str">
         <f>VLOOKUP(A16, 'State Abbreviations'!A16:B66,2,1)</f>
         <v>IN</v>
       </c>
-      <c r="F16" s="42" t="str">
+      <c r="F16" s="41" t="str">
         <f>IFERROR(VLOOKUP(A16,'State Income (2001-2004)'!A16:C204, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9453,15 +9737,15 @@
       <c r="D17" s="6">
         <v>58526.48</v>
       </c>
-      <c r="E17" s="45" t="str">
+      <c r="E17" s="44" t="str">
         <f>VLOOKUP(A17, 'State Abbreviations'!A17:B67,2,1)</f>
         <v>IA</v>
       </c>
-      <c r="F17" s="42" t="str">
+      <c r="F17" s="41" t="str">
         <f>IFERROR(VLOOKUP(A17,'State Income (2001-2004)'!A17:C205, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="54" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9478,15 +9762,15 @@
       <c r="D18" s="6">
         <v>107536.72</v>
       </c>
-      <c r="E18" s="45" t="str">
+      <c r="E18" s="44" t="str">
         <f>VLOOKUP(A18, 'State Abbreviations'!A18:B68,2,1)</f>
         <v>KS</v>
       </c>
-      <c r="F18" s="42" t="str">
+      <c r="F18" s="41" t="str">
         <f>IFERROR(VLOOKUP(A18,'State Income (2001-2004)'!A18:C206, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="54" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9503,11 +9787,11 @@
       <c r="D19" s="6">
         <v>161670.76</v>
       </c>
-      <c r="E19" s="45" t="str">
+      <c r="E19" s="44" t="str">
         <f>VLOOKUP(A19, 'State Abbreviations'!A19:B69,2,1)</f>
         <v>KY</v>
       </c>
-      <c r="F19" s="42" t="str">
+      <c r="F19" s="41" t="str">
         <f>IFERROR(VLOOKUP(A19,'State Income (2001-2004)'!A19:C207, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9525,11 +9809,11 @@
       <c r="D20" s="6">
         <v>89379.520000000004</v>
       </c>
-      <c r="E20" s="45" t="str">
+      <c r="E20" s="44" t="str">
         <f>VLOOKUP(A20, 'State Abbreviations'!A20:B70,2,1)</f>
         <v>LA</v>
       </c>
-      <c r="F20" s="42" t="str">
+      <c r="F20" s="41" t="str">
         <f>IFERROR(VLOOKUP(A20,'State Income (2001-2004)'!A20:C208, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9547,11 +9831,11 @@
       <c r="D21" s="6">
         <v>38247.689999999995</v>
       </c>
-      <c r="E21" s="45" t="str">
+      <c r="E21" s="44" t="str">
         <f>VLOOKUP(A21, 'State Abbreviations'!A21:B71,2,1)</f>
         <v>ME</v>
       </c>
-      <c r="F21" s="42" t="str">
+      <c r="F21" s="41" t="str">
         <f>IFERROR(VLOOKUP(A21,'State Income (2001-2004)'!A21:C209, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9569,11 +9853,11 @@
       <c r="D22" s="6">
         <v>158894.57999999999</v>
       </c>
-      <c r="E22" s="45" t="str">
+      <c r="E22" s="44" t="str">
         <f>VLOOKUP(A22, 'State Abbreviations'!A22:B72,2,1)</f>
         <v>MD</v>
       </c>
-      <c r="F22" s="42" t="str">
+      <c r="F22" s="41" t="str">
         <f>IFERROR(VLOOKUP(A22,'State Income (2001-2004)'!A22:C210, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9591,11 +9875,11 @@
       <c r="D23" s="6">
         <v>253963.88</v>
       </c>
-      <c r="E23" s="45" t="str">
+      <c r="E23" s="44" t="str">
         <f>VLOOKUP(A23, 'State Abbreviations'!A23:B73,2,1)</f>
         <v>MA</v>
       </c>
-      <c r="F23" s="42" t="str">
+      <c r="F23" s="41" t="str">
         <f>IFERROR(VLOOKUP(A23,'State Income (2001-2004)'!A23:C211, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9613,11 +9897,11 @@
       <c r="D24" s="6">
         <v>198768.88</v>
       </c>
-      <c r="E24" s="45" t="str">
+      <c r="E24" s="44" t="str">
         <f>VLOOKUP(A24, 'State Abbreviations'!A24:B74,2,1)</f>
         <v>MI</v>
       </c>
-      <c r="F24" s="42" t="str">
+      <c r="F24" s="41" t="str">
         <f>IFERROR(VLOOKUP(A24,'State Income (2001-2004)'!A24:C212, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9635,11 +9919,11 @@
       <c r="D25" s="6">
         <v>196779.16</v>
       </c>
-      <c r="E25" s="45" t="str">
+      <c r="E25" s="44" t="str">
         <f>VLOOKUP(A25, 'State Abbreviations'!A25:B75,2,1)</f>
         <v>MN</v>
       </c>
-      <c r="F25" s="42" t="str">
+      <c r="F25" s="41" t="str">
         <f>IFERROR(VLOOKUP(A25,'State Income (2001-2004)'!A25:C213, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9657,11 +9941,11 @@
       <c r="D26" s="6">
         <v>85339.739999999991</v>
       </c>
-      <c r="E26" s="45" t="str">
+      <c r="E26" s="44" t="str">
         <f>VLOOKUP(A26, 'State Abbreviations'!A26:B76,2,1)</f>
         <v>MS</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="41">
         <f>IFERROR(VLOOKUP(A26,'State Income (2001-2004)'!A26:C214, 3, 1), "NO INCOME DATA")</f>
         <v>22372</v>
       </c>
@@ -9679,11 +9963,11 @@
       <c r="D27" s="6">
         <v>111904.22</v>
       </c>
-      <c r="E27" s="45" t="str">
+      <c r="E27" s="44" t="str">
         <f>VLOOKUP(A27, 'State Abbreviations'!A27:B77,2,1)</f>
         <v>MO</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="41">
         <f>IFERROR(VLOOKUP(A27,'State Income (2001-2004)'!A27:C215, 3, 1), "NO INCOME DATA")</f>
         <v>28936</v>
       </c>
@@ -9701,11 +9985,11 @@
       <c r="D28" s="6">
         <v>36087.800000000003</v>
       </c>
-      <c r="E28" s="45" t="str">
+      <c r="E28" s="44" t="str">
         <f>VLOOKUP(A28, 'State Abbreviations'!A28:B78,2,1)</f>
         <v>MT</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <f>IFERROR(VLOOKUP(A28,'State Income (2001-2004)'!A28:C216, 3, 1), "NO INCOME DATA")</f>
         <v>25020</v>
       </c>
@@ -9723,11 +10007,11 @@
       <c r="D29" s="6">
         <v>51337.89</v>
       </c>
-      <c r="E29" s="45" t="str">
+      <c r="E29" s="44" t="str">
         <f>VLOOKUP(A29, 'State Abbreviations'!A29:B79,2,1)</f>
         <v>NE</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="41">
         <f>IFERROR(VLOOKUP(A29,'State Income (2001-2004)'!A29:C217, 3, 1), "NO INCOME DATA")</f>
         <v>29771</v>
       </c>
@@ -9745,11 +10029,11 @@
       <c r="D30" s="6">
         <v>79930.28</v>
       </c>
-      <c r="E30" s="45" t="str">
+      <c r="E30" s="44" t="str">
         <f>VLOOKUP(A30, 'State Abbreviations'!A30:B80,2,1)</f>
         <v>NV</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="41">
         <f>IFERROR(VLOOKUP(A30,'State Income (2001-2004)'!A30:C218, 3, 1), "NO INCOME DATA")</f>
         <v>30180</v>
       </c>
@@ -9767,11 +10051,11 @@
       <c r="D31" s="6">
         <v>37073.58</v>
       </c>
-      <c r="E31" s="45" t="str">
+      <c r="E31" s="44" t="str">
         <f>VLOOKUP(A31, 'State Abbreviations'!A31:B81,2,1)</f>
         <v>NH</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="41">
         <f>IFERROR(VLOOKUP(A31,'State Income (2001-2004)'!A31:C219, 3, 1), "NO INCOME DATA")</f>
         <v>34334</v>
       </c>
@@ -9789,11 +10073,11 @@
       <c r="D32" s="6">
         <v>336574</v>
       </c>
-      <c r="E32" s="45" t="str">
+      <c r="E32" s="44" t="str">
         <f>VLOOKUP(A32, 'State Abbreviations'!A32:B82,2,1)</f>
         <v>NJ</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="41">
         <f>IFERROR(VLOOKUP(A32,'State Income (2001-2004)'!A32:C220, 3, 1), "NO INCOME DATA")</f>
         <v>39453</v>
       </c>
@@ -9811,11 +10095,11 @@
       <c r="D33" s="6">
         <v>54571.38</v>
       </c>
-      <c r="E33" s="45" t="str">
+      <c r="E33" s="44" t="str">
         <f>VLOOKUP(A33, 'State Abbreviations'!A33:B83,2,1)</f>
         <v>NM</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="41">
         <f>IFERROR(VLOOKUP(A33,'State Income (2001-2004)'!A33:C221, 3, 1), "NO INCOME DATA")</f>
         <v>23941</v>
       </c>
@@ -9833,11 +10117,11 @@
       <c r="D34" s="6">
         <v>759058.28</v>
       </c>
-      <c r="E34" s="45" t="str">
+      <c r="E34" s="44" t="str">
         <f>VLOOKUP(A34, 'State Abbreviations'!A34:B84,2,1)</f>
         <v>NY</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <f>IFERROR(VLOOKUP(A34,'State Income (2001-2004)'!A34:C222, 3, 1), "NO INCOME DATA")</f>
         <v>36043</v>
       </c>
@@ -9855,11 +10139,11 @@
       <c r="D35" s="6">
         <v>241479.38999999998</v>
       </c>
-      <c r="E35" s="45" t="str">
+      <c r="E35" s="44" t="str">
         <f>VLOOKUP(A35, 'State Abbreviations'!A35:B85,2,1)</f>
         <v>NC</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <f>IFERROR(VLOOKUP(A35,'State Income (2001-2004)'!A35:C223, 3, 1), "NO INCOME DATA")</f>
         <v>27711</v>
       </c>
@@ -9877,11 +10161,11 @@
       <c r="D36" s="6">
         <v>25688</v>
       </c>
-      <c r="E36" s="45" t="str">
+      <c r="E36" s="44" t="str">
         <f>VLOOKUP(A36, 'State Abbreviations'!A36:B86,2,1)</f>
         <v>ND</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="41">
         <f>IFERROR(VLOOKUP(A36,'State Income (2001-2004)'!A36:C224, 3, 1), "NO INCOME DATA")</f>
         <v>26982</v>
       </c>
@@ -9899,11 +10183,11 @@
       <c r="D37" s="6">
         <v>227062.80000000002</v>
       </c>
-      <c r="E37" s="45" t="str">
+      <c r="E37" s="44" t="str">
         <f>VLOOKUP(A37, 'State Abbreviations'!A37:B87,2,1)</f>
         <v>OH</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="41">
         <f>IFERROR(VLOOKUP(A37,'State Income (2001-2004)'!A37:C225, 3, 1), "NO INCOME DATA")</f>
         <v>29405</v>
       </c>
@@ -9921,11 +10205,11 @@
       <c r="D38" s="6">
         <v>69013.08</v>
       </c>
-      <c r="E38" s="45" t="str">
+      <c r="E38" s="44" t="str">
         <f>VLOOKUP(A38, 'State Abbreviations'!A38:B88,2,1)</f>
         <v>OK</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="41">
         <f>IFERROR(VLOOKUP(A38,'State Income (2001-2004)'!A38:C226, 3, 1), "NO INCOME DATA")</f>
         <v>25575</v>
       </c>
@@ -9943,11 +10227,11 @@
       <c r="D39" s="6">
         <v>68427.98</v>
       </c>
-      <c r="E39" s="45" t="str">
+      <c r="E39" s="44" t="str">
         <f>VLOOKUP(A39, 'State Abbreviations'!A39:B89,2,1)</f>
         <v>OR</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="41">
         <f>IFERROR(VLOOKUP(A39,'State Income (2001-2004)'!A39:C227, 3, 1), "NO INCOME DATA")</f>
         <v>28731</v>
       </c>
@@ -9965,11 +10249,11 @@
       <c r="D40" s="6">
         <v>245621.08000000002</v>
       </c>
-      <c r="E40" s="45" t="str">
+      <c r="E40" s="44" t="str">
         <f>VLOOKUP(A40, 'State Abbreviations'!A40:B90,2,1)</f>
         <v>PA</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="41">
         <f>IFERROR(VLOOKUP(A40,'State Income (2001-2004)'!A40:C228, 3, 1), "NO INCOME DATA")</f>
         <v>31727</v>
       </c>
@@ -9987,11 +10271,11 @@
       <c r="D41" s="6">
         <v>41932.76</v>
       </c>
-      <c r="E41" s="45" t="str">
+      <c r="E41" s="44" t="str">
         <f>VLOOKUP(A41, 'State Abbreviations'!A41:B91,2,1)</f>
         <v>RI</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="41">
         <f>IFERROR(VLOOKUP(A41,'State Income (2001-2004)'!A41:C229, 3, 1), "NO INCOME DATA")</f>
         <v>31319</v>
       </c>
@@ -10009,11 +10293,11 @@
       <c r="D42" s="6">
         <v>160480.48000000001</v>
       </c>
-      <c r="E42" s="45" t="str">
+      <c r="E42" s="44" t="str">
         <f>VLOOKUP(A42, 'State Abbreviations'!A42:B92,2,1)</f>
         <v>SC</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="41">
         <f>IFERROR(VLOOKUP(A42,'State Income (2001-2004)'!A42:C230, 3, 1), "NO INCOME DATA")</f>
         <v>25400</v>
       </c>
@@ -10031,11 +10315,11 @@
       <c r="D43" s="6">
         <v>30193.760000000002</v>
       </c>
-      <c r="E43" s="45" t="str">
+      <c r="E43" s="44" t="str">
         <f>VLOOKUP(A43, 'State Abbreviations'!A43:B93,2,1)</f>
         <v>SD</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="41">
         <f>IFERROR(VLOOKUP(A43,'State Income (2001-2004)'!A43:C231, 3, 1), "NO INCOME DATA")</f>
         <v>26894</v>
       </c>
@@ -10053,11 +10337,11 @@
       <c r="D44" s="6">
         <v>170678.49</v>
       </c>
-      <c r="E44" s="45" t="str">
+      <c r="E44" s="44" t="str">
         <f>VLOOKUP(A44, 'State Abbreviations'!A44:B94,2,1)</f>
         <v>TN</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="41">
         <f>IFERROR(VLOOKUP(A44,'State Income (2001-2004)'!A44:C232, 3, 1), "NO INCOME DATA")</f>
         <v>27671</v>
       </c>
@@ -10075,11 +10359,11 @@
       <c r="D45" s="6">
         <v>417036.4</v>
       </c>
-      <c r="E45" s="45" t="str">
+      <c r="E45" s="44" t="str">
         <f>VLOOKUP(A45, 'State Abbreviations'!A45:B95,2,1)</f>
         <v>TX</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="41">
         <f>IFERROR(VLOOKUP(A45,'State Income (2001-2004)'!A45:C233, 3, 1), "NO INCOME DATA")</f>
         <v>28551</v>
       </c>
@@ -10097,11 +10381,11 @@
       <c r="D46" s="6">
         <v>66995.069999999992</v>
       </c>
-      <c r="E46" s="45" t="str">
+      <c r="E46" s="44" t="str">
         <f>VLOOKUP(A46, 'State Abbreviations'!A46:B96,2,1)</f>
         <v>UT</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="41">
         <f>IFERROR(VLOOKUP(A46,'State Income (2001-2004)'!A46:C234, 3, 1), "NO INCOME DATA")</f>
         <v>24306</v>
       </c>
@@ -10119,11 +10403,11 @@
       <c r="D47" s="6">
         <v>18264.809999999998</v>
       </c>
-      <c r="E47" s="45" t="str">
+      <c r="E47" s="44" t="str">
         <f>VLOOKUP(A47, 'State Abbreviations'!A47:B97,2,1)</f>
         <v>VT</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="41">
         <f>IFERROR(VLOOKUP(A47,'State Income (2001-2004)'!A47:C235, 3, 1), "NO INCOME DATA")</f>
         <v>29567</v>
       </c>
@@ -10141,11 +10425,11 @@
       <c r="D48" s="6">
         <v>212355.44999999998</v>
       </c>
-      <c r="E48" s="45" t="str">
+      <c r="E48" s="44" t="str">
         <f>VLOOKUP(A48, 'State Abbreviations'!A48:B98,2,1)</f>
         <v>VA</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="41">
         <f>IFERROR(VLOOKUP(A48,'State Income (2001-2004)'!A48:C236, 3, 1), "NO INCOME DATA")</f>
         <v>32922</v>
       </c>
@@ -10163,11 +10447,11 @@
       <c r="D49" s="6">
         <v>176823.63</v>
       </c>
-      <c r="E49" s="45" t="str">
+      <c r="E49" s="44" t="str">
         <f>VLOOKUP(A49, 'State Abbreviations'!A49:B99,2,1)</f>
         <v>WA</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="41">
         <f>IFERROR(VLOOKUP(A49,'State Income (2001-2004)'!A49:C237, 3, 1), "NO INCOME DATA")</f>
         <v>32677</v>
       </c>
@@ -10185,11 +10469,11 @@
       <c r="D50" s="6">
         <v>72333.759999999995</v>
       </c>
-      <c r="E50" s="45" t="str">
+      <c r="E50" s="44" t="str">
         <f>VLOOKUP(A50, 'State Abbreviations'!A50:B100,2,1)</f>
         <v>WV</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="41">
         <f>IFERROR(VLOOKUP(A50,'State Income (2001-2004)'!A50:C238, 3, 1), "NO INCOME DATA")</f>
         <v>27215</v>
       </c>
@@ -10207,11 +10491,11 @@
       <c r="D51" s="6">
         <v>214547</v>
       </c>
-      <c r="E51" s="45" t="str">
+      <c r="E51" s="44" t="str">
         <f>VLOOKUP(A51, 'State Abbreviations'!A51:B101,2,1)</f>
         <v>WI</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="41">
         <f>IFERROR(VLOOKUP(A51,'State Income (2001-2004)'!A51:C239, 3, 1), "NO INCOME DATA")</f>
         <v>33565</v>
       </c>
@@ -10229,11 +10513,11 @@
       <c r="D52" s="6">
         <v>19751.28</v>
       </c>
-      <c r="E52" s="45" t="str">
+      <c r="E52" s="44" t="str">
         <f>VLOOKUP(A52, 'State Abbreviations'!A52:B102,2,1)</f>
         <v>WY</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="41">
         <f>IFERROR(VLOOKUP(A52,'State Income (2001-2004)'!A52:C240, 3, 1), "NO INCOME DATA")</f>
         <v>36778</v>
       </c>
@@ -10251,11 +10535,11 @@
       <c r="D53" s="6">
         <v>135905.46</v>
       </c>
-      <c r="E53" s="45" t="e">
+      <c r="E53" s="44" t="e">
         <f>VLOOKUP(A53, 'State Abbreviations'!A53:B103,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F53" s="42" t="str">
+      <c r="F53" s="41" t="str">
         <f>IFERROR(VLOOKUP(A53,'State Income (2001-2004)'!A53:C241, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10273,11 +10557,11 @@
       <c r="D54" s="6">
         <v>19663.05</v>
       </c>
-      <c r="E54" s="45" t="e">
+      <c r="E54" s="44" t="e">
         <f>VLOOKUP(A54, 'State Abbreviations'!A54:B104,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F54" s="42" t="str">
+      <c r="F54" s="41" t="str">
         <f>IFERROR(VLOOKUP(A54,'State Income (2001-2004)'!A54:C242, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10295,11 +10579,11 @@
       <c r="D55" s="6">
         <v>114876.68000000001</v>
       </c>
-      <c r="E55" s="45" t="e">
+      <c r="E55" s="44" t="e">
         <f>VLOOKUP(A55, 'State Abbreviations'!A55:B105,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F55" s="42" t="str">
+      <c r="F55" s="41" t="str">
         <f>IFERROR(VLOOKUP(A55,'State Income (2001-2004)'!A55:C243, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10317,11 +10601,11 @@
       <c r="D56" s="6">
         <v>110105.16</v>
       </c>
-      <c r="E56" s="45" t="e">
+      <c r="E56" s="44" t="e">
         <f>VLOOKUP(A56, 'State Abbreviations'!A56:B106,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F56" s="42" t="str">
+      <c r="F56" s="41" t="str">
         <f>IFERROR(VLOOKUP(A56,'State Income (2001-2004)'!A56:C244, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10339,11 +10623,11 @@
       <c r="D57" s="6">
         <v>1076813.97</v>
       </c>
-      <c r="E57" s="45" t="e">
+      <c r="E57" s="44" t="e">
         <f>VLOOKUP(A57, 'State Abbreviations'!A57:B107,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="42" t="str">
+      <c r="F57" s="41" t="str">
         <f>IFERROR(VLOOKUP(A57,'State Income (2001-2004)'!A57:C245, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10361,11 +10645,11 @@
       <c r="D58" s="6">
         <v>138042.09</v>
       </c>
-      <c r="E58" s="45" t="e">
+      <c r="E58" s="44" t="e">
         <f>VLOOKUP(A58, 'State Abbreviations'!A58:B108,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F58" s="42" t="str">
+      <c r="F58" s="41" t="str">
         <f>IFERROR(VLOOKUP(A58,'State Income (2001-2004)'!A58:C246, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10383,11 +10667,11 @@
       <c r="D59" s="6">
         <v>140144.16</v>
       </c>
-      <c r="E59" s="45" t="e">
+      <c r="E59" s="44" t="e">
         <f>VLOOKUP(A59, 'State Abbreviations'!A59:B109,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F59" s="42" t="str">
+      <c r="F59" s="41" t="str">
         <f>IFERROR(VLOOKUP(A59,'State Income (2001-2004)'!A59:C247, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10405,11 +10689,11 @@
       <c r="D60" s="6">
         <v>33214.559999999998</v>
       </c>
-      <c r="E60" s="45" t="e">
+      <c r="E60" s="44" t="e">
         <f>VLOOKUP(A60, 'State Abbreviations'!A60:B110,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="42" t="str">
+      <c r="F60" s="41" t="str">
         <f>IFERROR(VLOOKUP(A60,'State Income (2001-2004)'!A60:C248, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10427,11 +10711,11 @@
       <c r="D61" s="6">
         <v>16605.689999999999</v>
       </c>
-      <c r="E61" s="45" t="e">
+      <c r="E61" s="44" t="e">
         <f>VLOOKUP(A61, 'State Abbreviations'!A61:B111,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F61" s="42" t="str">
+      <c r="F61" s="41" t="str">
         <f>IFERROR(VLOOKUP(A61,'State Income (2001-2004)'!A61:C249, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10449,11 +10733,11 @@
       <c r="D62" s="6">
         <v>695886.44000000006</v>
       </c>
-      <c r="E62" s="45" t="e">
+      <c r="E62" s="44" t="e">
         <f>VLOOKUP(A62, 'State Abbreviations'!A62:B112,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F62" s="42" t="str">
+      <c r="F62" s="41" t="str">
         <f>IFERROR(VLOOKUP(A62,'State Income (2001-2004)'!A62:C250, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10471,11 +10755,11 @@
       <c r="D63" s="6">
         <v>176587.66</v>
       </c>
-      <c r="E63" s="45" t="e">
+      <c r="E63" s="44" t="e">
         <f>VLOOKUP(A63, 'State Abbreviations'!A63:B113,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F63" s="42" t="str">
+      <c r="F63" s="41" t="str">
         <f>IFERROR(VLOOKUP(A63,'State Income (2001-2004)'!A63:C251, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10493,11 +10777,11 @@
       <c r="D64" s="6">
         <v>50513.599999999999</v>
       </c>
-      <c r="E64" s="45" t="e">
+      <c r="E64" s="44" t="e">
         <f>VLOOKUP(A64, 'State Abbreviations'!A64:B114,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F64" s="42" t="str">
+      <c r="F64" s="41" t="str">
         <f>IFERROR(VLOOKUP(A64,'State Income (2001-2004)'!A64:C252, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10515,11 +10799,11 @@
       <c r="D65" s="6">
         <v>55730.48</v>
       </c>
-      <c r="E65" s="45" t="e">
+      <c r="E65" s="44" t="e">
         <f>VLOOKUP(A65, 'State Abbreviations'!A65:B115,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F65" s="42" t="str">
+      <c r="F65" s="41" t="str">
         <f>IFERROR(VLOOKUP(A65,'State Income (2001-2004)'!A65:C253, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10537,11 +10821,11 @@
       <c r="D66" s="6">
         <v>381409.01999999996</v>
       </c>
-      <c r="E66" s="45" t="e">
+      <c r="E66" s="44" t="e">
         <f>VLOOKUP(A66, 'State Abbreviations'!A66:B116,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F66" s="42" t="str">
+      <c r="F66" s="41" t="str">
         <f>IFERROR(VLOOKUP(A66,'State Income (2001-2004)'!A66:C254, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10559,11 +10843,11 @@
       <c r="D67" s="6">
         <v>187127.07</v>
       </c>
-      <c r="E67" s="45" t="e">
+      <c r="E67" s="44" t="e">
         <f>VLOOKUP(A67, 'State Abbreviations'!A67:B117,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F67" s="42" t="str">
+      <c r="F67" s="41" t="str">
         <f>IFERROR(VLOOKUP(A67,'State Income (2001-2004)'!A67:C255, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10581,11 +10865,11 @@
       <c r="D68" s="6">
         <v>59089.020000000004</v>
       </c>
-      <c r="E68" s="45" t="e">
+      <c r="E68" s="44" t="e">
         <f>VLOOKUP(A68, 'State Abbreviations'!A68:B118,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F68" s="42" t="str">
+      <c r="F68" s="41" t="str">
         <f>IFERROR(VLOOKUP(A68,'State Income (2001-2004)'!A68:C256, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10603,11 +10887,11 @@
       <c r="D69" s="6">
         <v>109420.08</v>
       </c>
-      <c r="E69" s="45" t="e">
+      <c r="E69" s="44" t="e">
         <f>VLOOKUP(A69, 'State Abbreviations'!A69:B119,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F69" s="42" t="str">
+      <c r="F69" s="41" t="str">
         <f>IFERROR(VLOOKUP(A69,'State Income (2001-2004)'!A69:C257, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10625,11 +10909,11 @@
       <c r="D70" s="6">
         <v>124377.65999999999</v>
       </c>
-      <c r="E70" s="45" t="e">
+      <c r="E70" s="44" t="e">
         <f>VLOOKUP(A70, 'State Abbreviations'!A70:B120,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F70" s="42" t="str">
+      <c r="F70" s="41" t="str">
         <f>IFERROR(VLOOKUP(A70,'State Income (2001-2004)'!A70:C258, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10647,11 +10931,11 @@
       <c r="D71" s="6">
         <v>180630.80000000002</v>
       </c>
-      <c r="E71" s="45" t="e">
+      <c r="E71" s="44" t="e">
         <f>VLOOKUP(A71, 'State Abbreviations'!A71:B121,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F71" s="42" t="str">
+      <c r="F71" s="41" t="str">
         <f>IFERROR(VLOOKUP(A71,'State Income (2001-2004)'!A71:C259, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10669,11 +10953,11 @@
       <c r="D72" s="6">
         <v>52690.12</v>
       </c>
-      <c r="E72" s="45" t="e">
+      <c r="E72" s="44" t="e">
         <f>VLOOKUP(A72, 'State Abbreviations'!A72:B122,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F72" s="42" t="str">
+      <c r="F72" s="41" t="str">
         <f>IFERROR(VLOOKUP(A72,'State Income (2001-2004)'!A72:C260, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10691,11 +10975,11 @@
       <c r="D73" s="6">
         <v>111161.16</v>
       </c>
-      <c r="E73" s="45" t="e">
+      <c r="E73" s="44" t="e">
         <f>VLOOKUP(A73, 'State Abbreviations'!A73:B123,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F73" s="42" t="str">
+      <c r="F73" s="41" t="str">
         <f>IFERROR(VLOOKUP(A73,'State Income (2001-2004)'!A73:C261, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10713,11 +10997,11 @@
       <c r="D74" s="6">
         <v>192495.15</v>
       </c>
-      <c r="E74" s="45" t="e">
+      <c r="E74" s="44" t="e">
         <f>VLOOKUP(A74, 'State Abbreviations'!A74:B124,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F74" s="42">
+      <c r="F74" s="41">
         <f>IFERROR(VLOOKUP(A74,'State Income (2001-2004)'!A74:C262, 3, 1), "NO INCOME DATA")</f>
         <v>39815</v>
       </c>
@@ -10735,11 +11019,11 @@
       <c r="D75" s="6">
         <v>202252.4</v>
       </c>
-      <c r="E75" s="45" t="e">
+      <c r="E75" s="44" t="e">
         <f>VLOOKUP(A75, 'State Abbreviations'!A75:B125,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F75" s="42">
+      <c r="F75" s="41">
         <f>IFERROR(VLOOKUP(A75,'State Income (2001-2004)'!A75:C263, 3, 1), "NO INCOME DATA")</f>
         <v>30439</v>
       </c>
@@ -10757,11 +11041,11 @@
       <c r="D76" s="6">
         <v>102019.16</v>
       </c>
-      <c r="E76" s="45" t="e">
+      <c r="E76" s="44" t="e">
         <f>VLOOKUP(A76, 'State Abbreviations'!A76:B126,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F76" s="42">
+      <c r="F76" s="41">
         <f>IFERROR(VLOOKUP(A76,'State Income (2001-2004)'!A76:C264, 3, 1), "NO INCOME DATA")</f>
         <v>34443</v>
       </c>
@@ -10779,11 +11063,11 @@
       <c r="D77" s="6">
         <v>58059.32</v>
       </c>
-      <c r="E77" s="45" t="e">
+      <c r="E77" s="44" t="e">
         <f>VLOOKUP(A77, 'State Abbreviations'!A77:B127,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F77" s="42">
+      <c r="F77" s="41">
         <f>IFERROR(VLOOKUP(A77,'State Income (2001-2004)'!A77:C265, 3, 1), "NO INCOME DATA")</f>
         <v>23448</v>
       </c>
@@ -10801,11 +11085,11 @@
       <c r="D78" s="6">
         <v>115092.36</v>
       </c>
-      <c r="E78" s="45" t="e">
+      <c r="E78" s="44" t="e">
         <f>VLOOKUP(A78, 'State Abbreviations'!A78:B128,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F78" s="42">
+      <c r="F78" s="41">
         <f>IFERROR(VLOOKUP(A78,'State Income (2001-2004)'!A78:C266, 3, 1), "NO INCOME DATA")</f>
         <v>29252</v>
       </c>
@@ -10823,11 +11107,11 @@
       <c r="D79" s="6">
         <v>27805.95</v>
       </c>
-      <c r="E79" s="45" t="e">
+      <c r="E79" s="44" t="e">
         <f>VLOOKUP(A79, 'State Abbreviations'!A79:B129,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F79" s="42">
+      <c r="F79" s="41">
         <f>IFERROR(VLOOKUP(A79,'State Income (2001-2004)'!A79:C267, 3, 1), "NO INCOME DATA")</f>
         <v>25920</v>
       </c>
@@ -10845,11 +11129,11 @@
       <c r="D80" s="6">
         <v>69888.56</v>
       </c>
-      <c r="E80" s="45" t="e">
+      <c r="E80" s="44" t="e">
         <f>VLOOKUP(A80, 'State Abbreviations'!A80:B130,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F80" s="42">
+      <c r="F80" s="41">
         <f>IFERROR(VLOOKUP(A80,'State Income (2001-2004)'!A80:C268, 3, 1), "NO INCOME DATA")</f>
         <v>30758</v>
       </c>
@@ -10867,11 +11151,11 @@
       <c r="D81" s="6">
         <v>93390.84</v>
       </c>
-      <c r="E81" s="45" t="e">
+      <c r="E81" s="44" t="e">
         <f>VLOOKUP(A81, 'State Abbreviations'!A81:B131,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F81" s="42">
+      <c r="F81" s="41">
         <f>IFERROR(VLOOKUP(A81,'State Income (2001-2004)'!A81:C269, 3, 1), "NO INCOME DATA")</f>
         <v>31266</v>
       </c>
@@ -10889,11 +11173,11 @@
       <c r="D82" s="6">
         <v>51980</v>
       </c>
-      <c r="E82" s="45" t="e">
+      <c r="E82" s="44" t="e">
         <f>VLOOKUP(A82, 'State Abbreviations'!A82:B132,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="41">
         <f>IFERROR(VLOOKUP(A82,'State Income (2001-2004)'!A82:C270, 3, 1), "NO INCOME DATA")</f>
         <v>34702</v>
       </c>
@@ -10911,11 +11195,11 @@
       <c r="D83" s="6">
         <v>260966.37</v>
       </c>
-      <c r="E83" s="45" t="e">
+      <c r="E83" s="44" t="e">
         <f>VLOOKUP(A83, 'State Abbreviations'!A83:B133,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F83" s="42">
+      <c r="F83" s="41">
         <f>IFERROR(VLOOKUP(A83,'State Income (2001-2004)'!A83:C271, 3, 1), "NO INCOME DATA")</f>
         <v>40427</v>
       </c>
@@ -10933,11 +11217,11 @@
       <c r="D84" s="6">
         <v>76131.56</v>
       </c>
-      <c r="E84" s="45" t="e">
+      <c r="E84" s="44" t="e">
         <f>VLOOKUP(A84, 'State Abbreviations'!A84:B134,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="42">
+      <c r="F84" s="41">
         <f>IFERROR(VLOOKUP(A84,'State Income (2001-2004)'!A84:C272, 3, 1), "NO INCOME DATA")</f>
         <v>25541</v>
       </c>
@@ -10955,11 +11239,11 @@
       <c r="D85" s="6">
         <v>576812.64</v>
       </c>
-      <c r="E85" s="45" t="e">
+      <c r="E85" s="44" t="e">
         <f>VLOOKUP(A85, 'State Abbreviations'!A85:B135,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="42">
+      <c r="F85" s="41">
         <f>IFERROR(VLOOKUP(A85,'State Income (2001-2004)'!A85:C273, 3, 1), "NO INCOME DATA")</f>
         <v>36574</v>
       </c>
@@ -10977,11 +11261,11 @@
       <c r="D86" s="6">
         <v>341648.84</v>
       </c>
-      <c r="E86" s="45" t="e">
+      <c r="E86" s="44" t="e">
         <f>VLOOKUP(A86, 'State Abbreviations'!A86:B136,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="42">
+      <c r="F86" s="41">
         <f>IFERROR(VLOOKUP(A86,'State Income (2001-2004)'!A86:C274, 3, 1), "NO INCOME DATA")</f>
         <v>28235</v>
       </c>
@@ -10999,11 +11283,11 @@
       <c r="D87" s="6">
         <v>19030.98</v>
       </c>
-      <c r="E87" s="45" t="e">
+      <c r="E87" s="44" t="e">
         <f>VLOOKUP(A87, 'State Abbreviations'!A87:B137,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="42">
+      <c r="F87" s="41">
         <f>IFERROR(VLOOKUP(A87,'State Income (2001-2004)'!A87:C275, 3, 1), "NO INCOME DATA")</f>
         <v>29204</v>
       </c>
@@ -11021,11 +11305,11 @@
       <c r="D88" s="6">
         <v>343770.33</v>
       </c>
-      <c r="E88" s="45" t="e">
+      <c r="E88" s="44" t="e">
         <f>VLOOKUP(A88, 'State Abbreviations'!A88:B138,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="42">
+      <c r="F88" s="41">
         <f>IFERROR(VLOOKUP(A88,'State Income (2001-2004)'!A88:C276, 3, 1), "NO INCOME DATA")</f>
         <v>29944</v>
       </c>
@@ -11043,11 +11327,11 @@
       <c r="D89" s="6">
         <v>140942.12</v>
       </c>
-      <c r="E89" s="45" t="e">
+      <c r="E89" s="44" t="e">
         <f>VLOOKUP(A89, 'State Abbreviations'!A89:B139,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="42">
+      <c r="F89" s="41">
         <f>IFERROR(VLOOKUP(A89,'State Income (2001-2004)'!A89:C277, 3, 1), "NO INCOME DATA")</f>
         <v>26656</v>
       </c>
@@ -11065,11 +11349,11 @@
       <c r="D90" s="6">
         <v>143783.44</v>
       </c>
-      <c r="E90" s="45" t="e">
+      <c r="E90" s="44" t="e">
         <f>VLOOKUP(A90, 'State Abbreviations'!A90:B140,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="42">
+      <c r="F90" s="41">
         <f>IFERROR(VLOOKUP(A90,'State Income (2001-2004)'!A90:C278, 3, 1), "NO INCOME DATA")</f>
         <v>29340</v>
       </c>
@@ -11087,11 +11371,11 @@
       <c r="D91" s="6">
         <v>496251.68</v>
       </c>
-      <c r="E91" s="45" t="e">
+      <c r="E91" s="44" t="e">
         <f>VLOOKUP(A91, 'State Abbreviations'!A91:B141,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="42">
+      <c r="F91" s="41">
         <f>IFERROR(VLOOKUP(A91,'State Income (2001-2004)'!A91:C279, 3, 1), "NO INCOME DATA")</f>
         <v>31998</v>
       </c>
@@ -11109,11 +11393,11 @@
       <c r="D92" s="6">
         <v>43225.279999999999</v>
       </c>
-      <c r="E92" s="45" t="e">
+      <c r="E92" s="44" t="e">
         <f>VLOOKUP(A92, 'State Abbreviations'!A92:B142,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="42">
+      <c r="F92" s="41">
         <f>IFERROR(VLOOKUP(A92,'State Income (2001-2004)'!A92:C280, 3, 1), "NO INCOME DATA")</f>
         <v>31916</v>
       </c>
@@ -11131,11 +11415,11 @@
       <c r="D93" s="6">
         <v>83961.36</v>
       </c>
-      <c r="E93" s="45" t="e">
+      <c r="E93" s="44" t="e">
         <f>VLOOKUP(A93, 'State Abbreviations'!A93:B143,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F93" s="41">
         <f>IFERROR(VLOOKUP(A93,'State Income (2001-2004)'!A93:C281, 3, 1), "NO INCOME DATA")</f>
         <v>26132</v>
       </c>
@@ -11153,11 +11437,11 @@
       <c r="D94" s="6">
         <v>23126.489999999998</v>
       </c>
-      <c r="E94" s="45" t="e">
+      <c r="E94" s="44" t="e">
         <f>VLOOKUP(A94, 'State Abbreviations'!A94:B144,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="42">
+      <c r="F94" s="41">
         <f>IFERROR(VLOOKUP(A94,'State Income (2001-2004)'!A94:C282, 3, 1), "NO INCOME DATA")</f>
         <v>29234</v>
       </c>
@@ -11175,11 +11459,11 @@
       <c r="D95" s="6">
         <v>118019.24</v>
       </c>
-      <c r="E95" s="45" t="e">
+      <c r="E95" s="44" t="e">
         <f>VLOOKUP(A95, 'State Abbreviations'!A95:B145,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="42">
+      <c r="F95" s="41">
         <f>IFERROR(VLOOKUP(A95,'State Income (2001-2004)'!A95:C283, 3, 1), "NO INCOME DATA")</f>
         <v>28455</v>
       </c>
@@ -11197,11 +11481,11 @@
       <c r="D96" s="6">
         <v>950569.24</v>
       </c>
-      <c r="E96" s="45" t="e">
+      <c r="E96" s="44" t="e">
         <f>VLOOKUP(A96, 'State Abbreviations'!A96:B146,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="42">
+      <c r="F96" s="41">
         <f>IFERROR(VLOOKUP(A96,'State Income (2001-2004)'!A96:C284, 3, 1), "NO INCOME DATA")</f>
         <v>29372</v>
       </c>
@@ -11219,11 +11503,11 @@
       <c r="D97" s="6">
         <v>47780.78</v>
       </c>
-      <c r="E97" s="45" t="e">
+      <c r="E97" s="44" t="e">
         <f>VLOOKUP(A97, 'State Abbreviations'!A97:B147,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="42">
+      <c r="F97" s="41">
         <f>IFERROR(VLOOKUP(A97,'State Income (2001-2004)'!A97:C285, 3, 1), "NO INCOME DATA")</f>
         <v>24977</v>
       </c>
@@ -11241,11 +11525,11 @@
       <c r="D98" s="6">
         <v>12427.880000000001</v>
       </c>
-      <c r="E98" s="45" t="e">
+      <c r="E98" s="44" t="e">
         <f>VLOOKUP(A98, 'State Abbreviations'!A98:B148,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="42">
+      <c r="F98" s="41">
         <f>IFERROR(VLOOKUP(A98,'State Income (2001-2004)'!A98:C286, 3, 1), "NO INCOME DATA")</f>
         <v>33327</v>
       </c>
@@ -11263,11 +11547,11 @@
       <c r="D99" s="6">
         <v>298393.08</v>
       </c>
-      <c r="E99" s="45" t="e">
+      <c r="E99" s="44" t="e">
         <f>VLOOKUP(A99, 'State Abbreviations'!A99:B149,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F99" s="42">
+      <c r="F99" s="41">
         <f>IFERROR(VLOOKUP(A99,'State Income (2001-2004)'!A99:C287, 3, 1), "NO INCOME DATA")</f>
         <v>38390</v>
       </c>
@@ -11285,11 +11569,11 @@
       <c r="D100" s="6">
         <v>124075.76000000001</v>
       </c>
-      <c r="E100" s="45" t="e">
+      <c r="E100" s="44" t="e">
         <f>VLOOKUP(A100, 'State Abbreviations'!A100:B150,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F100" s="42">
+      <c r="F100" s="41">
         <f>IFERROR(VLOOKUP(A100,'State Income (2001-2004)'!A100:C288, 3, 1), "NO INCOME DATA")</f>
         <v>35409</v>
       </c>
@@ -11307,11 +11591,11 @@
       <c r="D101" s="6">
         <v>36307.08</v>
       </c>
-      <c r="E101" s="45" t="e">
+      <c r="E101" s="44" t="e">
         <f>VLOOKUP(A101, 'State Abbreviations'!A101:B151,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F101" s="42">
+      <c r="F101" s="41">
         <f>IFERROR(VLOOKUP(A101,'State Income (2001-2004)'!A101:C289, 3, 1), "NO INCOME DATA")</f>
         <v>27215</v>
       </c>
@@ -11329,11 +11613,11 @@
       <c r="D102" s="6">
         <v>220361.04</v>
       </c>
-      <c r="E102" s="45" t="e">
+      <c r="E102" s="44" t="e">
         <f>VLOOKUP(A102, 'State Abbreviations'!A102:B152,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F102" s="42">
+      <c r="F102" s="41">
         <f>IFERROR(VLOOKUP(A102,'State Income (2001-2004)'!A102:C290, 3, 1), "NO INCOME DATA")</f>
         <v>33565</v>
       </c>
@@ -11351,11 +11635,11 @@
       <c r="D103" s="6">
         <v>15195.869999999999</v>
       </c>
-      <c r="E103" s="45" t="e">
+      <c r="E103" s="44" t="e">
         <f>VLOOKUP(A103, 'State Abbreviations'!A103:B153,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F103" s="42">
+      <c r="F103" s="41">
         <f>IFERROR(VLOOKUP(A103,'State Income (2001-2004)'!A103:C291, 3, 1), "NO INCOME DATA")</f>
         <v>36778</v>
       </c>
@@ -11373,11 +11657,11 @@
       <c r="D104" s="6">
         <v>143392.04999999999</v>
       </c>
-      <c r="E104" s="45" t="e">
+      <c r="E104" s="44" t="e">
         <f>VLOOKUP(A104, 'State Abbreviations'!A104:B154,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F104" s="42" t="str">
+      <c r="F104" s="41" t="str">
         <f>IFERROR(VLOOKUP(A104,'State Income (2001-2004)'!A104:C292, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11395,11 +11679,11 @@
       <c r="D105" s="6">
         <v>14204.62</v>
       </c>
-      <c r="E105" s="45" t="e">
+      <c r="E105" s="44" t="e">
         <f>VLOOKUP(A105, 'State Abbreviations'!A105:B155,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F105" s="42" t="str">
+      <c r="F105" s="41" t="str">
         <f>IFERROR(VLOOKUP(A105,'State Income (2001-2004)'!A105:C293, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11417,11 +11701,11 @@
       <c r="D106" s="6">
         <v>126580.26000000001</v>
       </c>
-      <c r="E106" s="45" t="e">
+      <c r="E106" s="44" t="e">
         <f>VLOOKUP(A106, 'State Abbreviations'!A106:B156,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F106" s="42" t="str">
+      <c r="F106" s="41" t="str">
         <f>IFERROR(VLOOKUP(A106,'State Income (2001-2004)'!A106:C294, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11439,11 +11723,11 @@
       <c r="D107" s="6">
         <v>58318.42</v>
       </c>
-      <c r="E107" s="45" t="e">
+      <c r="E107" s="44" t="e">
         <f>VLOOKUP(A107, 'State Abbreviations'!A107:B157,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F107" s="42" t="str">
+      <c r="F107" s="41" t="str">
         <f>IFERROR(VLOOKUP(A107,'State Income (2001-2004)'!A107:C295, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11461,11 +11745,11 @@
       <c r="D108" s="6">
         <v>745079.12</v>
       </c>
-      <c r="E108" s="45" t="e">
+      <c r="E108" s="44" t="e">
         <f>VLOOKUP(A108, 'State Abbreviations'!A108:B158,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F108" s="42" t="str">
+      <c r="F108" s="41" t="str">
         <f>IFERROR(VLOOKUP(A108,'State Income (2001-2004)'!A108:C296, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11483,11 +11767,11 @@
       <c r="D109" s="6">
         <v>201167.84</v>
       </c>
-      <c r="E109" s="45" t="e">
+      <c r="E109" s="44" t="e">
         <f>VLOOKUP(A109, 'State Abbreviations'!A109:B159,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F109" s="42" t="str">
+      <c r="F109" s="41" t="str">
         <f>IFERROR(VLOOKUP(A109,'State Income (2001-2004)'!A109:C297, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11505,11 +11789,11 @@
       <c r="D110" s="6">
         <v>142963.88</v>
       </c>
-      <c r="E110" s="45" t="e">
+      <c r="E110" s="44" t="e">
         <f>VLOOKUP(A110, 'State Abbreviations'!A110:B160,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F110" s="42" t="str">
+      <c r="F110" s="41" t="str">
         <f>IFERROR(VLOOKUP(A110,'State Income (2001-2004)'!A110:C298, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11527,11 +11811,11 @@
       <c r="D111" s="6">
         <v>26938.02</v>
       </c>
-      <c r="E111" s="45" t="e">
+      <c r="E111" s="44" t="e">
         <f>VLOOKUP(A111, 'State Abbreviations'!A111:B161,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F111" s="42" t="str">
+      <c r="F111" s="41" t="str">
         <f>IFERROR(VLOOKUP(A111,'State Income (2001-2004)'!A111:C299, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11549,11 +11833,11 @@
       <c r="D112" s="6">
         <v>18051.689999999999</v>
       </c>
-      <c r="E112" s="45" t="e">
+      <c r="E112" s="44" t="e">
         <f>VLOOKUP(A112, 'State Abbreviations'!A112:B162,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F112" s="42" t="str">
+      <c r="F112" s="41" t="str">
         <f>IFERROR(VLOOKUP(A112,'State Income (2001-2004)'!A112:C300, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11571,11 +11855,11 @@
       <c r="D113" s="6">
         <v>752052.44000000006</v>
       </c>
-      <c r="E113" s="45" t="e">
+      <c r="E113" s="44" t="e">
         <f>VLOOKUP(A113, 'State Abbreviations'!A113:B163,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F113" s="42" t="str">
+      <c r="F113" s="41" t="str">
         <f>IFERROR(VLOOKUP(A113,'State Income (2001-2004)'!A113:C301, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11593,11 +11877,11 @@
       <c r="D114" s="6">
         <v>193753.06</v>
       </c>
-      <c r="E114" s="45" t="e">
+      <c r="E114" s="44" t="e">
         <f>VLOOKUP(A114, 'State Abbreviations'!A114:B164,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F114" s="42" t="str">
+      <c r="F114" s="41" t="str">
         <f>IFERROR(VLOOKUP(A114,'State Income (2001-2004)'!A114:C302, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11615,11 +11899,11 @@
       <c r="D115" s="6">
         <v>54412.04</v>
       </c>
-      <c r="E115" s="45" t="e">
+      <c r="E115" s="44" t="e">
         <f>VLOOKUP(A115, 'State Abbreviations'!A115:B165,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F115" s="42" t="str">
+      <c r="F115" s="41" t="str">
         <f>IFERROR(VLOOKUP(A115,'State Income (2001-2004)'!A115:C303, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11637,11 +11921,11 @@
       <c r="D116" s="6">
         <v>47027.46</v>
       </c>
-      <c r="E116" s="45" t="e">
+      <c r="E116" s="44" t="e">
         <f>VLOOKUP(A116, 'State Abbreviations'!A116:B166,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F116" s="42" t="str">
+      <c r="F116" s="41" t="str">
         <f>IFERROR(VLOOKUP(A116,'State Income (2001-2004)'!A116:C304, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11659,11 +11943,11 @@
       <c r="D117" s="6">
         <v>256612.64</v>
       </c>
-      <c r="E117" s="45" t="e">
+      <c r="E117" s="44" t="e">
         <f>VLOOKUP(A117, 'State Abbreviations'!A117:B167,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F117" s="42" t="str">
+      <c r="F117" s="41" t="str">
         <f>IFERROR(VLOOKUP(A117,'State Income (2001-2004)'!A117:C305, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11681,11 +11965,11 @@
       <c r="D118" s="6">
         <v>259352</v>
       </c>
-      <c r="E118" s="45" t="e">
+      <c r="E118" s="44" t="e">
         <f>VLOOKUP(A118, 'State Abbreviations'!A118:B168,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F118" s="42" t="str">
+      <c r="F118" s="41" t="str">
         <f>IFERROR(VLOOKUP(A118,'State Income (2001-2004)'!A118:C306, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11703,11 +11987,11 @@
       <c r="D119" s="6">
         <v>60927</v>
       </c>
-      <c r="E119" s="45" t="e">
+      <c r="E119" s="44" t="e">
         <f>VLOOKUP(A119, 'State Abbreviations'!A119:B169,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F119" s="42" t="str">
+      <c r="F119" s="41" t="str">
         <f>IFERROR(VLOOKUP(A119,'State Income (2001-2004)'!A119:C307, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11725,11 +12009,11 @@
       <c r="D120" s="6">
         <v>85593.54</v>
       </c>
-      <c r="E120" s="45" t="e">
+      <c r="E120" s="44" t="e">
         <f>VLOOKUP(A120, 'State Abbreviations'!A120:B170,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F120" s="42" t="str">
+      <c r="F120" s="41" t="str">
         <f>IFERROR(VLOOKUP(A120,'State Income (2001-2004)'!A120:C308, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11747,11 +12031,11 @@
       <c r="D121" s="6">
         <v>130180.86</v>
       </c>
-      <c r="E121" s="45" t="e">
+      <c r="E121" s="44" t="e">
         <f>VLOOKUP(A121, 'State Abbreviations'!A121:B171,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F121" s="42" t="str">
+      <c r="F121" s="41" t="str">
         <f>IFERROR(VLOOKUP(A121,'State Income (2001-2004)'!A121:C309, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11769,11 +12053,11 @@
       <c r="D122" s="6">
         <v>136001.16</v>
       </c>
-      <c r="E122" s="45" t="e">
+      <c r="E122" s="44" t="e">
         <f>VLOOKUP(A122, 'State Abbreviations'!A122:B172,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F122" s="42">
+      <c r="F122" s="41">
         <f>IFERROR(VLOOKUP(A122,'State Income (2001-2004)'!A122:C310, 3, 1), "NO INCOME DATA")</f>
         <v>24820</v>
       </c>
@@ -11791,11 +12075,11 @@
       <c r="D123" s="6">
         <v>26567.22</v>
       </c>
-      <c r="E123" s="45" t="e">
+      <c r="E123" s="44" t="e">
         <f>VLOOKUP(A123, 'State Abbreviations'!A123:B173,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F123" s="42">
+      <c r="F123" s="41">
         <f>IFERROR(VLOOKUP(A123,'State Income (2001-2004)'!A123:C311, 3, 1), "NO INCOME DATA")</f>
         <v>31252</v>
       </c>
@@ -11813,11 +12097,11 @@
       <c r="D124" s="6">
         <v>230942.08000000002</v>
       </c>
-      <c r="E124" s="45" t="e">
+      <c r="E124" s="44" t="e">
         <f>VLOOKUP(A124, 'State Abbreviations'!A124:B174,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F124" s="42">
+      <c r="F124" s="41">
         <f>IFERROR(VLOOKUP(A124,'State Income (2001-2004)'!A124:C312, 3, 1), "NO INCOME DATA")</f>
         <v>41760</v>
       </c>
@@ -11835,11 +12119,11 @@
       <c r="D125" s="6">
         <v>130952.58</v>
       </c>
-      <c r="E125" s="45" t="e">
+      <c r="E125" s="44" t="e">
         <f>VLOOKUP(A125, 'State Abbreviations'!A125:B175,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F125" s="42">
+      <c r="F125" s="41">
         <f>IFERROR(VLOOKUP(A125,'State Income (2001-2004)'!A125:C313, 3, 1), "NO INCOME DATA")</f>
         <v>44289</v>
       </c>
@@ -11857,11 +12141,11 @@
       <c r="D126" s="6">
         <v>197672.7</v>
       </c>
-      <c r="E126" s="45" t="e">
+      <c r="E126" s="44" t="e">
         <f>VLOOKUP(A126, 'State Abbreviations'!A126:B176,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F126" s="42">
+      <c r="F126" s="41">
         <f>IFERROR(VLOOKUP(A126,'State Income (2001-2004)'!A126:C314, 3, 1), "NO INCOME DATA")</f>
         <v>33116</v>
       </c>
@@ -11879,11 +12163,11 @@
       <c r="D127" s="6">
         <v>106078.5</v>
       </c>
-      <c r="E127" s="45" t="e">
+      <c r="E127" s="44" t="e">
         <f>VLOOKUP(A127, 'State Abbreviations'!A127:B177,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F127" s="42">
+      <c r="F127" s="41">
         <f>IFERROR(VLOOKUP(A127,'State Income (2001-2004)'!A127:C315, 3, 1), "NO INCOME DATA")</f>
         <v>37373</v>
       </c>
@@ -11901,11 +12185,11 @@
       <c r="D128" s="6">
         <v>89018.91</v>
       </c>
-      <c r="E128" s="45" t="e">
+      <c r="E128" s="44" t="e">
         <f>VLOOKUP(A128, 'State Abbreviations'!A128:B178,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F128" s="42">
+      <c r="F128" s="41">
         <f>IFERROR(VLOOKUP(A128,'State Income (2001-2004)'!A128:C316, 3, 1), "NO INCOME DATA")</f>
         <v>25318</v>
       </c>
@@ -11923,11 +12207,11 @@
       <c r="D129" s="6">
         <v>119778.54000000001</v>
       </c>
-      <c r="E129" s="45" t="e">
+      <c r="E129" s="44" t="e">
         <f>VLOOKUP(A129, 'State Abbreviations'!A129:B179,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F129" s="42">
+      <c r="F129" s="41">
         <f>IFERROR(VLOOKUP(A129,'State Income (2001-2004)'!A129:C317, 3, 1), "NO INCOME DATA")</f>
         <v>31899</v>
       </c>
@@ -11945,11 +12229,11 @@
       <c r="D130" s="6">
         <v>29682.449999999997</v>
       </c>
-      <c r="E130" s="45" t="e">
+      <c r="E130" s="44" t="e">
         <f>VLOOKUP(A130, 'State Abbreviations'!A130:B180,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F130" s="42">
+      <c r="F130" s="41">
         <f>IFERROR(VLOOKUP(A130,'State Income (2001-2004)'!A130:C318, 3, 1), "NO INCOME DATA")</f>
         <v>29387</v>
       </c>
@@ -11967,11 +12251,11 @@
       <c r="D131" s="6">
         <v>36526.82</v>
       </c>
-      <c r="E131" s="45" t="e">
+      <c r="E131" s="44" t="e">
         <f>VLOOKUP(A131, 'State Abbreviations'!A131:B181,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F131" s="42">
+      <c r="F131" s="41">
         <f>IFERROR(VLOOKUP(A131,'State Income (2001-2004)'!A131:C319, 3, 1), "NO INCOME DATA")</f>
         <v>33616</v>
       </c>
@@ -11989,11 +12273,11 @@
       <c r="D132" s="6">
         <v>81016.53</v>
       </c>
-      <c r="E132" s="45" t="e">
+      <c r="E132" s="44" t="e">
         <f>VLOOKUP(A132, 'State Abbreviations'!A132:B182,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F132" s="42">
+      <c r="F132" s="41">
         <f>IFERROR(VLOOKUP(A132,'State Income (2001-2004)'!A132:C320, 3, 1), "NO INCOME DATA")</f>
         <v>33616</v>
       </c>
@@ -12011,11 +12295,11 @@
       <c r="D133" s="6">
         <v>26329.440000000002</v>
       </c>
-      <c r="E133" s="45" t="e">
+      <c r="E133" s="44" t="e">
         <f>VLOOKUP(A133, 'State Abbreviations'!A133:B183,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F133" s="42">
+      <c r="F133" s="41">
         <f>IFERROR(VLOOKUP(A133,'State Income (2001-2004)'!A133:C321, 3, 1), "NO INCOME DATA")</f>
         <v>38408</v>
       </c>
@@ -12033,11 +12317,11 @@
       <c r="D134" s="6">
         <v>263756.82</v>
       </c>
-      <c r="E134" s="45" t="e">
+      <c r="E134" s="44" t="e">
         <f>VLOOKUP(A134, 'State Abbreviations'!A134:B184,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F134" s="42">
+      <c r="F134" s="41">
         <f>IFERROR(VLOOKUP(A134,'State Income (2001-2004)'!A134:C322, 3, 1), "NO INCOME DATA")</f>
         <v>38408</v>
       </c>
@@ -12055,11 +12339,11 @@
       <c r="D135" s="6">
         <v>61775.399999999994</v>
       </c>
-      <c r="E135" s="45" t="e">
+      <c r="E135" s="44" t="e">
         <f>VLOOKUP(A135, 'State Abbreviations'!A135:B185,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F135" s="42">
+      <c r="F135" s="41">
         <f>IFERROR(VLOOKUP(A135,'State Income (2001-2004)'!A135:C323, 3, 1), "NO INCOME DATA")</f>
         <v>27644</v>
       </c>
@@ -12077,11 +12361,11 @@
       <c r="D136" s="6">
         <v>387562.08</v>
       </c>
-      <c r="E136" s="45" t="e">
+      <c r="E136" s="44" t="e">
         <f>VLOOKUP(A136, 'State Abbreviations'!A136:B186,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F136" s="42">
+      <c r="F136" s="41">
         <f>IFERROR(VLOOKUP(A136,'State Income (2001-2004)'!A136:C324, 3, 1), "NO INCOME DATA")</f>
         <v>27644</v>
       </c>
@@ -12099,11 +12383,11 @@
       <c r="D137" s="6">
         <v>190709.5</v>
       </c>
-      <c r="E137" s="45" t="e">
+      <c r="E137" s="44" t="e">
         <f>VLOOKUP(A137, 'State Abbreviations'!A137:B187,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F137" s="42">
+      <c r="F137" s="41">
         <f>IFERROR(VLOOKUP(A137,'State Income (2001-2004)'!A137:C325, 3, 1), "NO INCOME DATA")</f>
         <v>30553</v>
       </c>
@@ -12121,11 +12405,11 @@
       <c r="D138" s="6">
         <v>20177.73</v>
       </c>
-      <c r="E138" s="45" t="e">
+      <c r="E138" s="44" t="e">
         <f>VLOOKUP(A138, 'State Abbreviations'!A138:B188,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F138" s="42">
+      <c r="F138" s="41">
         <f>IFERROR(VLOOKUP(A138,'State Income (2001-2004)'!A138:C326, 3, 1), "NO INCOME DATA")</f>
         <v>31395</v>
       </c>
@@ -12143,11 +12427,11 @@
       <c r="D139" s="6">
         <v>346095.06</v>
       </c>
-      <c r="E139" s="45" t="e">
+      <c r="E139" s="44" t="e">
         <f>VLOOKUP(A139, 'State Abbreviations'!A139:B189,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F139" s="42">
+      <c r="F139" s="41">
         <f>IFERROR(VLOOKUP(A139,'State Income (2001-2004)'!A139:C327, 3, 1), "NO INCOME DATA")</f>
         <v>32478</v>
       </c>
@@ -12165,11 +12449,11 @@
       <c r="D140" s="6">
         <v>112540.62</v>
       </c>
-      <c r="E140" s="45" t="e">
+      <c r="E140" s="44" t="e">
         <f>VLOOKUP(A140, 'State Abbreviations'!A140:B190,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F140" s="42">
+      <c r="F140" s="41">
         <f>IFERROR(VLOOKUP(A140,'State Income (2001-2004)'!A140:C328, 3, 1), "NO INCOME DATA")</f>
         <v>29330</v>
       </c>
@@ -12187,11 +12471,11 @@
       <c r="D141" s="6">
         <v>114932.22</v>
       </c>
-      <c r="E141" s="45" t="e">
+      <c r="E141" s="44" t="e">
         <f>VLOOKUP(A141, 'State Abbreviations'!A141:B191,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F141" s="42">
+      <c r="F141" s="41">
         <f>IFERROR(VLOOKUP(A141,'State Income (2001-2004)'!A141:C329, 3, 1), "NO INCOME DATA")</f>
         <v>32103</v>
       </c>
@@ -12209,11 +12493,11 @@
       <c r="D142" s="6">
         <v>254047.58000000002</v>
       </c>
-      <c r="E142" s="45" t="e">
+      <c r="E142" s="44" t="e">
         <f>VLOOKUP(A142, 'State Abbreviations'!A142:B192,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F142" s="42">
+      <c r="F142" s="41">
         <f>IFERROR(VLOOKUP(A142,'State Income (2001-2004)'!A142:C330, 3, 1), "NO INCOME DATA")</f>
         <v>34897</v>
       </c>
@@ -12231,11 +12515,11 @@
       <c r="D143" s="6">
         <v>42102.68</v>
       </c>
-      <c r="E143" s="45" t="e">
+      <c r="E143" s="44" t="e">
         <f>VLOOKUP(A143, 'State Abbreviations'!A143:B193,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F143" s="42">
+      <c r="F143" s="41">
         <f>IFERROR(VLOOKUP(A143,'State Income (2001-2004)'!A143:C331, 3, 1), "NO INCOME DATA")</f>
         <v>36153</v>
       </c>
@@ -12253,11 +12537,11 @@
       <c r="D144" s="6">
         <v>138760.91999999998</v>
       </c>
-      <c r="E144" s="45" t="e">
+      <c r="E144" s="44" t="e">
         <f>VLOOKUP(A144, 'State Abbreviations'!A144:B194,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F144" s="42">
+      <c r="F144" s="41">
         <f>IFERROR(VLOOKUP(A144,'State Income (2001-2004)'!A144:C332, 3, 1), "NO INCOME DATA")</f>
         <v>28352</v>
       </c>
@@ -12275,11 +12559,11 @@
       <c r="D145" s="6">
         <v>24425.399999999998</v>
       </c>
-      <c r="E145" s="45" t="e">
+      <c r="E145" s="44" t="e">
         <f>VLOOKUP(A145, 'State Abbreviations'!A145:B195,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F145" s="42">
+      <c r="F145" s="41">
         <f>IFERROR(VLOOKUP(A145,'State Income (2001-2004)'!A145:C333, 3, 1), "NO INCOME DATA")</f>
         <v>31614</v>
       </c>
@@ -12297,11 +12581,11 @@
       <c r="D146" s="6">
         <v>253844.4</v>
       </c>
-      <c r="E146" s="45" t="e">
+      <c r="E146" s="44" t="e">
         <f>VLOOKUP(A146, 'State Abbreviations'!A146:B196,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F146" s="42">
+      <c r="F146" s="41">
         <f>IFERROR(VLOOKUP(A146,'State Income (2001-2004)'!A146:C334, 3, 1), "NO INCOME DATA")</f>
         <v>31107</v>
       </c>
@@ -12319,11 +12603,11 @@
       <c r="D147" s="6">
         <v>754366.83</v>
       </c>
-      <c r="E147" s="45" t="e">
+      <c r="E147" s="44" t="e">
         <f>VLOOKUP(A147, 'State Abbreviations'!A147:B197,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F147" s="42">
+      <c r="F147" s="41">
         <f>IFERROR(VLOOKUP(A147,'State Income (2001-2004)'!A147:C335, 3, 1), "NO INCOME DATA")</f>
         <v>32462</v>
       </c>
@@ -12341,11 +12625,11 @@
       <c r="D148" s="6">
         <v>55277.700000000004</v>
       </c>
-      <c r="E148" s="45" t="e">
+      <c r="E148" s="44" t="e">
         <f>VLOOKUP(A148, 'State Abbreviations'!A148:B198,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F148" s="42">
+      <c r="F148" s="41">
         <f>IFERROR(VLOOKUP(A148,'State Income (2001-2004)'!A148:C336, 3, 1), "NO INCOME DATA")</f>
         <v>32462</v>
       </c>
@@ -12363,11 +12647,11 @@
       <c r="D149" s="6">
         <v>12514.82</v>
       </c>
-      <c r="E149" s="45" t="e">
+      <c r="E149" s="44" t="e">
         <f>VLOOKUP(A149, 'State Abbreviations'!A149:B199,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F149" s="42">
+      <c r="F149" s="41">
         <f>IFERROR(VLOOKUP(A149,'State Income (2001-2004)'!A149:C337, 3, 1), "NO INCOME DATA")</f>
         <v>33327</v>
       </c>
@@ -12385,11 +12669,11 @@
       <c r="D150" s="6">
         <v>240030.72</v>
       </c>
-      <c r="E150" s="45" t="e">
+      <c r="E150" s="44" t="e">
         <f>VLOOKUP(A150, 'State Abbreviations'!A150:B200,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F150" s="42">
+      <c r="F150" s="41">
         <f>IFERROR(VLOOKUP(A150,'State Income (2001-2004)'!A150:C338, 3, 1), "NO INCOME DATA")</f>
         <v>38390</v>
       </c>
@@ -12407,11 +12691,11 @@
       <c r="D151" s="6">
         <v>268981.59999999998</v>
       </c>
-      <c r="E151" s="45" t="e">
+      <c r="E151" s="44" t="e">
         <f>VLOOKUP(A151, 'State Abbreviations'!A151:B201,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F151" s="42">
+      <c r="F151" s="41">
         <f>IFERROR(VLOOKUP(A151,'State Income (2001-2004)'!A151:C339, 3, 1), "NO INCOME DATA")</f>
         <v>35409</v>
       </c>
@@ -12429,11 +12713,11 @@
       <c r="D152" s="6">
         <v>37059.919999999998</v>
       </c>
-      <c r="E152" s="45" t="e">
+      <c r="E152" s="44" t="e">
         <f>VLOOKUP(A152, 'State Abbreviations'!A152:B202,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F152" s="42">
+      <c r="F152" s="41">
         <f>IFERROR(VLOOKUP(A152,'State Income (2001-2004)'!A152:C340, 3, 1), "NO INCOME DATA")</f>
         <v>27215</v>
       </c>
@@ -12451,11 +12735,11 @@
       <c r="D153" s="6">
         <v>113739.72</v>
       </c>
-      <c r="E153" s="45" t="e">
+      <c r="E153" s="44" t="e">
         <f>VLOOKUP(A153, 'State Abbreviations'!A153:B203,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F153" s="42">
+      <c r="F153" s="41">
         <f>IFERROR(VLOOKUP(A153,'State Income (2001-2004)'!A153:C341, 3, 1), "NO INCOME DATA")</f>
         <v>33565</v>
       </c>
@@ -12473,11 +12757,11 @@
       <c r="D154" s="6">
         <v>11272.52</v>
       </c>
-      <c r="E154" s="45" t="e">
+      <c r="E154" s="44" t="e">
         <f>VLOOKUP(A154, 'State Abbreviations'!A154:B204,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F154" s="42">
+      <c r="F154" s="41">
         <f>IFERROR(VLOOKUP(A154,'State Income (2001-2004)'!A154:C342, 3, 1), "NO INCOME DATA")</f>
         <v>36778</v>
       </c>
@@ -12495,11 +12779,11 @@
       <c r="D155" s="6">
         <v>96440.46</v>
       </c>
-      <c r="E155" s="45" t="e">
+      <c r="E155" s="44" t="e">
         <f>VLOOKUP(A155, 'State Abbreviations'!A155:B205,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F155" s="42" t="str">
+      <c r="F155" s="41" t="str">
         <f>IFERROR(VLOOKUP(A155,'State Income (2001-2004)'!A155:C343, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12517,11 +12801,11 @@
       <c r="D156" s="6">
         <v>14628.98</v>
       </c>
-      <c r="E156" s="45" t="e">
+      <c r="E156" s="44" t="e">
         <f>VLOOKUP(A156, 'State Abbreviations'!A156:B206,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F156" s="42" t="str">
+      <c r="F156" s="41" t="str">
         <f>IFERROR(VLOOKUP(A156,'State Income (2001-2004)'!A156:C344, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12539,11 +12823,11 @@
       <c r="D157" s="6">
         <v>262130.2</v>
       </c>
-      <c r="E157" s="45" t="e">
+      <c r="E157" s="44" t="e">
         <f>VLOOKUP(A157, 'State Abbreviations'!A157:B207,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F157" s="42" t="str">
+      <c r="F157" s="41" t="str">
         <f>IFERROR(VLOOKUP(A157,'State Income (2001-2004)'!A157:C345, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12561,11 +12845,11 @@
       <c r="D158" s="6">
         <v>88473.93</v>
       </c>
-      <c r="E158" s="45" t="e">
+      <c r="E158" s="44" t="e">
         <f>VLOOKUP(A158, 'State Abbreviations'!A158:B208,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F158" s="42" t="str">
+      <c r="F158" s="41" t="str">
         <f>IFERROR(VLOOKUP(A158,'State Income (2001-2004)'!A158:C346, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12583,11 +12867,11 @@
       <c r="D159" s="6">
         <v>1141242.8999999999</v>
       </c>
-      <c r="E159" s="45" t="e">
+      <c r="E159" s="44" t="e">
         <f>VLOOKUP(A159, 'State Abbreviations'!A159:B209,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F159" s="42" t="str">
+      <c r="F159" s="41" t="str">
         <f>IFERROR(VLOOKUP(A159,'State Income (2001-2004)'!A159:C347, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12605,11 +12889,11 @@
       <c r="D160" s="6">
         <v>155627.46</v>
       </c>
-      <c r="E160" s="45" t="e">
+      <c r="E160" s="44" t="e">
         <f>VLOOKUP(A160, 'State Abbreviations'!A160:B210,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F160" s="42" t="str">
+      <c r="F160" s="41" t="str">
         <f>IFERROR(VLOOKUP(A160,'State Income (2001-2004)'!A160:C348, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12627,11 +12911,11 @@
       <c r="D161" s="6">
         <v>71806.94</v>
       </c>
-      <c r="E161" s="45" t="e">
+      <c r="E161" s="44" t="e">
         <f>VLOOKUP(A161, 'State Abbreviations'!A161:B211,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F161" s="42" t="str">
+      <c r="F161" s="41" t="str">
         <f>IFERROR(VLOOKUP(A161,'State Income (2001-2004)'!A161:C349, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12649,11 +12933,11 @@
       <c r="D162" s="6">
         <v>18341.84</v>
       </c>
-      <c r="E162" s="45" t="e">
+      <c r="E162" s="44" t="e">
         <f>VLOOKUP(A162, 'State Abbreviations'!A162:B212,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F162" s="42" t="str">
+      <c r="F162" s="41" t="str">
         <f>IFERROR(VLOOKUP(A162,'State Income (2001-2004)'!A162:C350, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12671,11 +12955,11 @@
       <c r="D163" s="6">
         <v>25292.920000000002</v>
       </c>
-      <c r="E163" s="45" t="e">
+      <c r="E163" s="44" t="e">
         <f>VLOOKUP(A163, 'State Abbreviations'!A163:B213,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F163" s="42" t="str">
+      <c r="F163" s="41" t="str">
         <f>IFERROR(VLOOKUP(A163,'State Income (2001-2004)'!A163:C351, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12693,11 +12977,11 @@
       <c r="D164" s="6">
         <v>579527.03999999992</v>
       </c>
-      <c r="E164" s="45" t="e">
+      <c r="E164" s="44" t="e">
         <f>VLOOKUP(A164, 'State Abbreviations'!A164:B214,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F164" s="42" t="str">
+      <c r="F164" s="41" t="str">
         <f>IFERROR(VLOOKUP(A164,'State Income (2001-2004)'!A164:C352, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12715,11 +12999,11 @@
       <c r="D165" s="6">
         <v>396797.8</v>
       </c>
-      <c r="E165" s="45" t="e">
+      <c r="E165" s="44" t="e">
         <f>VLOOKUP(A165, 'State Abbreviations'!A165:B215,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F165" s="42" t="str">
+      <c r="F165" s="41" t="str">
         <f>IFERROR(VLOOKUP(A165,'State Income (2001-2004)'!A165:C353, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12737,11 +13021,11 @@
       <c r="D166" s="6">
         <v>55692.520000000004</v>
       </c>
-      <c r="E166" s="45" t="e">
+      <c r="E166" s="44" t="e">
         <f>VLOOKUP(A166, 'State Abbreviations'!A166:B216,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F166" s="42" t="str">
+      <c r="F166" s="41" t="str">
         <f>IFERROR(VLOOKUP(A166,'State Income (2001-2004)'!A166:C354, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12759,11 +13043,11 @@
       <c r="D167" s="6">
         <v>31914.560000000001</v>
       </c>
-      <c r="E167" s="45" t="e">
+      <c r="E167" s="44" t="e">
         <f>VLOOKUP(A167, 'State Abbreviations'!A167:B217,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F167" s="42" t="str">
+      <c r="F167" s="41" t="str">
         <f>IFERROR(VLOOKUP(A167,'State Income (2001-2004)'!A167:C355, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12781,11 +13065,11 @@
       <c r="D168" s="6">
         <v>386257.64999999997</v>
       </c>
-      <c r="E168" s="45" t="e">
+      <c r="E168" s="44" t="e">
         <f>VLOOKUP(A168, 'State Abbreviations'!A168:B218,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F168" s="42" t="str">
+      <c r="F168" s="41" t="str">
         <f>IFERROR(VLOOKUP(A168,'State Income (2001-2004)'!A168:C356, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12803,11 +13087,11 @@
       <c r="D169" s="6">
         <v>261493.36000000002</v>
       </c>
-      <c r="E169" s="45" t="e">
+      <c r="E169" s="44" t="e">
         <f>VLOOKUP(A169, 'State Abbreviations'!A169:B219,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F169" s="42" t="str">
+      <c r="F169" s="41" t="str">
         <f>IFERROR(VLOOKUP(A169,'State Income (2001-2004)'!A169:C357, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12825,11 +13109,11 @@
       <c r="D170" s="6">
         <v>122967.44</v>
       </c>
-      <c r="E170" s="45" t="e">
+      <c r="E170" s="44" t="e">
         <f>VLOOKUP(A170, 'State Abbreviations'!A170:B220,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F170" s="42" t="str">
+      <c r="F170" s="41" t="str">
         <f>IFERROR(VLOOKUP(A170,'State Income (2001-2004)'!A170:C358, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12847,11 +13131,11 @@
       <c r="D171" s="6">
         <v>86577.15</v>
       </c>
-      <c r="E171" s="45" t="e">
+      <c r="E171" s="44" t="e">
         <f>VLOOKUP(A171, 'State Abbreviations'!A171:B221,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F171" s="42" t="str">
+      <c r="F171" s="41" t="str">
         <f>IFERROR(VLOOKUP(A171,'State Income (2001-2004)'!A171:C359, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12869,11 +13153,11 @@
       <c r="D172" s="6">
         <v>175216.6</v>
       </c>
-      <c r="E172" s="45" t="e">
+      <c r="E172" s="44" t="e">
         <f>VLOOKUP(A172, 'State Abbreviations'!A172:B222,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F172" s="42" t="str">
+      <c r="F172" s="41" t="str">
         <f>IFERROR(VLOOKUP(A172,'State Income (2001-2004)'!A172:C360, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12891,11 +13175,11 @@
       <c r="D173" s="6">
         <v>92037.86</v>
       </c>
-      <c r="E173" s="45" t="e">
+      <c r="E173" s="44" t="e">
         <f>VLOOKUP(A173, 'State Abbreviations'!A173:B223,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F173" s="42" t="str">
+      <c r="F173" s="41" t="str">
         <f>IFERROR(VLOOKUP(A173,'State Income (2001-2004)'!A173:C361, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12913,11 +13197,11 @@
       <c r="D174" s="6">
         <v>39875.760000000002</v>
       </c>
-      <c r="E174" s="45" t="e">
+      <c r="E174" s="44" t="e">
         <f>VLOOKUP(A174, 'State Abbreviations'!A174:B224,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F174" s="42" t="str">
+      <c r="F174" s="41" t="str">
         <f>IFERROR(VLOOKUP(A174,'State Income (2001-2004)'!A174:C362, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12935,11 +13219,11 @@
       <c r="D175" s="6">
         <v>235382.52000000002</v>
       </c>
-      <c r="E175" s="45" t="e">
+      <c r="E175" s="44" t="e">
         <f>VLOOKUP(A175, 'State Abbreviations'!A175:B225,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F175" s="42" t="str">
+      <c r="F175" s="41" t="str">
         <f>IFERROR(VLOOKUP(A175,'State Income (2001-2004)'!A175:C363, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12957,11 +13241,11 @@
       <c r="D176" s="6">
         <v>265845.76000000001</v>
       </c>
-      <c r="E176" s="45" t="e">
+      <c r="E176" s="44" t="e">
         <f>VLOOKUP(A176, 'State Abbreviations'!A176:B226,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F176" s="42" t="str">
+      <c r="F176" s="41" t="str">
         <f>IFERROR(VLOOKUP(A176,'State Income (2001-2004)'!A176:C364, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12979,11 +13263,11 @@
       <c r="D177" s="6">
         <v>296500.8</v>
       </c>
-      <c r="E177" s="45" t="e">
+      <c r="E177" s="44" t="e">
         <f>VLOOKUP(A177, 'State Abbreviations'!A177:B227,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F177" s="42" t="str">
+      <c r="F177" s="41" t="str">
         <f>IFERROR(VLOOKUP(A177,'State Income (2001-2004)'!A177:C365, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13001,11 +13285,11 @@
       <c r="D178" s="6">
         <v>107582.78</v>
       </c>
-      <c r="E178" s="45" t="e">
+      <c r="E178" s="44" t="e">
         <f>VLOOKUP(A178, 'State Abbreviations'!A178:B228,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F178" s="42" t="str">
+      <c r="F178" s="41" t="str">
         <f>IFERROR(VLOOKUP(A178,'State Income (2001-2004)'!A178:C366, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13023,11 +13307,11 @@
       <c r="D179" s="6">
         <v>119397.04000000001</v>
       </c>
-      <c r="E179" s="45" t="e">
+      <c r="E179" s="44" t="e">
         <f>VLOOKUP(A179, 'State Abbreviations'!A179:B229,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F179" s="42" t="str">
+      <c r="F179" s="41" t="str">
         <f>IFERROR(VLOOKUP(A179,'State Income (2001-2004)'!A179:C367, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13045,11 +13329,11 @@
       <c r="D180" s="6">
         <v>120439.76000000001</v>
       </c>
-      <c r="E180" s="45" t="e">
+      <c r="E180" s="44" t="e">
         <f>VLOOKUP(A180, 'State Abbreviations'!A180:B230,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F180" s="42" t="str">
+      <c r="F180" s="41" t="str">
         <f>IFERROR(VLOOKUP(A180,'State Income (2001-2004)'!A180:C368, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13067,11 +13351,11 @@
       <c r="D181" s="6">
         <v>40205.64</v>
       </c>
-      <c r="E181" s="45" t="e">
+      <c r="E181" s="44" t="e">
         <f>VLOOKUP(A181, 'State Abbreviations'!A181:B231,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F181" s="42" t="str">
+      <c r="F181" s="41" t="str">
         <f>IFERROR(VLOOKUP(A181,'State Income (2001-2004)'!A181:C369, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13089,11 +13373,11 @@
       <c r="D182" s="6">
         <v>55665.75</v>
       </c>
-      <c r="E182" s="45" t="e">
+      <c r="E182" s="44" t="e">
         <f>VLOOKUP(A182, 'State Abbreviations'!A182:B232,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F182" s="42" t="str">
+      <c r="F182" s="41" t="str">
         <f>IFERROR(VLOOKUP(A182,'State Income (2001-2004)'!A182:C370, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13111,11 +13395,11 @@
       <c r="D183" s="6">
         <v>110357.24</v>
       </c>
-      <c r="E183" s="45" t="e">
+      <c r="E183" s="44" t="e">
         <f>VLOOKUP(A183, 'State Abbreviations'!A183:B233,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F183" s="42" t="str">
+      <c r="F183" s="41" t="str">
         <f>IFERROR(VLOOKUP(A183,'State Income (2001-2004)'!A183:C371, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13133,11 +13417,11 @@
       <c r="D184" s="6">
         <v>52828.72</v>
       </c>
-      <c r="E184" s="45" t="e">
+      <c r="E184" s="44" t="e">
         <f>VLOOKUP(A184, 'State Abbreviations'!A184:B234,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F184" s="42" t="str">
+      <c r="F184" s="41" t="str">
         <f>IFERROR(VLOOKUP(A184,'State Income (2001-2004)'!A184:C372, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13155,11 +13439,11 @@
       <c r="D185" s="6">
         <v>177291.80000000002</v>
       </c>
-      <c r="E185" s="45" t="e">
+      <c r="E185" s="44" t="e">
         <f>VLOOKUP(A185, 'State Abbreviations'!A185:B235,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F185" s="42" t="str">
+      <c r="F185" s="41" t="str">
         <f>IFERROR(VLOOKUP(A185,'State Income (2001-2004)'!A185:C373, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13177,11 +13461,11 @@
       <c r="D186" s="6">
         <v>83421.52</v>
       </c>
-      <c r="E186" s="45" t="e">
+      <c r="E186" s="44" t="e">
         <f>VLOOKUP(A186, 'State Abbreviations'!A186:B236,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F186" s="42" t="str">
+      <c r="F186" s="41" t="str">
         <f>IFERROR(VLOOKUP(A186,'State Income (2001-2004)'!A186:C374, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13199,11 +13483,11 @@
       <c r="D187" s="6">
         <v>587107.82999999996</v>
       </c>
-      <c r="E187" s="45" t="e">
+      <c r="E187" s="44" t="e">
         <f>VLOOKUP(A187, 'State Abbreviations'!A187:B237,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F187" s="42" t="str">
+      <c r="F187" s="41" t="str">
         <f>IFERROR(VLOOKUP(A187,'State Income (2001-2004)'!A187:C375, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13221,11 +13505,11 @@
       <c r="D188" s="6">
         <v>195041.46</v>
       </c>
-      <c r="E188" s="45" t="e">
+      <c r="E188" s="44" t="e">
         <f>VLOOKUP(A188, 'State Abbreviations'!A188:B238,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F188" s="42" t="str">
+      <c r="F188" s="41" t="str">
         <f>IFERROR(VLOOKUP(A188,'State Income (2001-2004)'!A188:C376, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13243,11 +13527,11 @@
       <c r="D189" s="6">
         <v>27985.119999999999</v>
       </c>
-      <c r="E189" s="45" t="e">
+      <c r="E189" s="44" t="e">
         <f>VLOOKUP(A189, 'State Abbreviations'!A189:B239,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F189" s="42" t="str">
+      <c r="F189" s="41" t="str">
         <f>IFERROR(VLOOKUP(A189,'State Income (2001-2004)'!A189:C377, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13265,11 +13549,11 @@
       <c r="D190" s="6">
         <v>230884.5</v>
       </c>
-      <c r="E190" s="45" t="e">
+      <c r="E190" s="44" t="e">
         <f>VLOOKUP(A190, 'State Abbreviations'!A190:B240,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F190" s="42" t="str">
+      <c r="F190" s="41" t="str">
         <f>IFERROR(VLOOKUP(A190,'State Income (2001-2004)'!A190:C378, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13287,11 +13571,11 @@
       <c r="D191" s="6">
         <v>152592.80000000002</v>
       </c>
-      <c r="E191" s="45" t="e">
+      <c r="E191" s="44" t="e">
         <f>VLOOKUP(A191, 'State Abbreviations'!A191:B241,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F191" s="42" t="str">
+      <c r="F191" s="41" t="str">
         <f>IFERROR(VLOOKUP(A191,'State Income (2001-2004)'!A191:C379, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13309,11 +13593,11 @@
       <c r="D192" s="6">
         <v>77987.06</v>
       </c>
-      <c r="E192" s="45" t="e">
+      <c r="E192" s="44" t="e">
         <f>VLOOKUP(A192, 'State Abbreviations'!A192:B242,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F192" s="42" t="str">
+      <c r="F192" s="41" t="str">
         <f>IFERROR(VLOOKUP(A192,'State Income (2001-2004)'!A192:C380, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13331,11 +13615,11 @@
       <c r="D193" s="6">
         <v>382906.07999999996</v>
       </c>
-      <c r="E193" s="45" t="e">
+      <c r="E193" s="44" t="e">
         <f>VLOOKUP(A193, 'State Abbreviations'!A193:B243,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F193" s="42" t="str">
+      <c r="F193" s="41" t="str">
         <f>IFERROR(VLOOKUP(A193,'State Income (2001-2004)'!A193:C381, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13353,11 +13637,11 @@
       <c r="D194" s="6">
         <v>31508.76</v>
       </c>
-      <c r="E194" s="45" t="e">
+      <c r="E194" s="44" t="e">
         <f>VLOOKUP(A194, 'State Abbreviations'!A194:B244,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F194" s="42" t="str">
+      <c r="F194" s="41" t="str">
         <f>IFERROR(VLOOKUP(A194,'State Income (2001-2004)'!A194:C382, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13375,11 +13659,11 @@
       <c r="D195" s="6">
         <v>141711.69</v>
       </c>
-      <c r="E195" s="45" t="e">
+      <c r="E195" s="44" t="e">
         <f>VLOOKUP(A195, 'State Abbreviations'!A195:B245,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F195" s="42" t="str">
+      <c r="F195" s="41" t="str">
         <f>IFERROR(VLOOKUP(A195,'State Income (2001-2004)'!A195:C383, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13397,11 +13681,11 @@
       <c r="D196" s="6">
         <v>33334.160000000003</v>
       </c>
-      <c r="E196" s="45" t="e">
+      <c r="E196" s="44" t="e">
         <f>VLOOKUP(A196, 'State Abbreviations'!A196:B246,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F196" s="42" t="str">
+      <c r="F196" s="41" t="str">
         <f>IFERROR(VLOOKUP(A196,'State Income (2001-2004)'!A196:C384, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13419,11 +13703,11 @@
       <c r="D197" s="6">
         <v>258249.72</v>
       </c>
-      <c r="E197" s="45" t="e">
+      <c r="E197" s="44" t="e">
         <f>VLOOKUP(A197, 'State Abbreviations'!A197:B247,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F197" s="42" t="str">
+      <c r="F197" s="41" t="str">
         <f>IFERROR(VLOOKUP(A197,'State Income (2001-2004)'!A197:C385, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13441,11 +13725,11 @@
       <c r="D198" s="6">
         <v>1042368.12</v>
       </c>
-      <c r="E198" s="45" t="e">
+      <c r="E198" s="44" t="e">
         <f>VLOOKUP(A198, 'State Abbreviations'!A198:B248,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F198" s="42" t="str">
+      <c r="F198" s="41" t="str">
         <f>IFERROR(VLOOKUP(A198,'State Income (2001-2004)'!A198:C386, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13463,11 +13747,11 @@
       <c r="D199" s="6">
         <v>114211.48</v>
       </c>
-      <c r="E199" s="45" t="e">
+      <c r="E199" s="44" t="e">
         <f>VLOOKUP(A199, 'State Abbreviations'!A199:B249,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F199" s="42" t="str">
+      <c r="F199" s="41" t="str">
         <f>IFERROR(VLOOKUP(A199,'State Income (2001-2004)'!A199:C387, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13485,11 +13769,11 @@
       <c r="D200" s="6">
         <v>25040.440000000002</v>
       </c>
-      <c r="E200" s="45" t="e">
+      <c r="E200" s="44" t="e">
         <f>VLOOKUP(A200, 'State Abbreviations'!A200:B250,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F200" s="42" t="str">
+      <c r="F200" s="41" t="str">
         <f>IFERROR(VLOOKUP(A200,'State Income (2001-2004)'!A200:C388, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13507,11 +13791,11 @@
       <c r="D201" s="6">
         <v>163717.34</v>
       </c>
-      <c r="E201" s="45" t="e">
+      <c r="E201" s="44" t="e">
         <f>VLOOKUP(A201, 'State Abbreviations'!A201:B251,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F201" s="42" t="str">
+      <c r="F201" s="41" t="str">
         <f>IFERROR(VLOOKUP(A201,'State Income (2001-2004)'!A201:C389, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13529,11 +13813,11 @@
       <c r="D202" s="6">
         <v>137940.24</v>
       </c>
-      <c r="E202" s="45" t="e">
+      <c r="E202" s="44" t="e">
         <f>VLOOKUP(A202, 'State Abbreviations'!A202:B252,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F202" s="42" t="str">
+      <c r="F202" s="41" t="str">
         <f>IFERROR(VLOOKUP(A202,'State Income (2001-2004)'!A202:C390, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13551,11 +13835,11 @@
       <c r="D203" s="6">
         <v>74216.52</v>
       </c>
-      <c r="E203" s="45" t="e">
+      <c r="E203" s="44" t="e">
         <f>VLOOKUP(A203, 'State Abbreviations'!A203:B253,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F203" s="42" t="str">
+      <c r="F203" s="41" t="str">
         <f>IFERROR(VLOOKUP(A203,'State Income (2001-2004)'!A203:C391, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13573,11 +13857,11 @@
       <c r="D204" s="6">
         <v>114527.96</v>
       </c>
-      <c r="E204" s="45" t="e">
+      <c r="E204" s="44" t="e">
         <f>VLOOKUP(A204, 'State Abbreviations'!A204:B254,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F204" s="42" t="str">
+      <c r="F204" s="41" t="str">
         <f>IFERROR(VLOOKUP(A204,'State Income (2001-2004)'!A204:C392, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13595,11 +13879,11 @@
       <c r="D205" s="6">
         <v>11528.24</v>
       </c>
-      <c r="E205" s="45" t="e">
+      <c r="E205" s="44" t="e">
         <f>VLOOKUP(A205, 'State Abbreviations'!A205:B255,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F205" s="42" t="str">
+      <c r="F205" s="41" t="str">
         <f>IFERROR(VLOOKUP(A205,'State Income (2001-2004)'!A205:C393, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -16185,7 +16469,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="47" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
@@ -16195,7 +16479,7 @@
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="46" t="s">
         <v>204</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -16221,7 +16505,7 @@
       <c r="F2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="42">
         <v>2004</v>
       </c>
     </row>
@@ -16241,7 +16525,7 @@
       <c r="F3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>148</v>
       </c>
     </row>
@@ -16275,7 +16559,7 @@
       <c r="F5" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <f>INDEX(B2:D18,MATCH(G2,A2:A18,0), MATCH(G3,B1:D1,0))</f>
         <v>46</v>
       </c>
@@ -16727,8 +17011,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16773,31 +17057,31 @@
       <c r="A2" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="42" t="str">
         <f>LEFT(A2,6)</f>
         <v>133462</v>
       </c>
-      <c r="C2" s="58" t="str">
+      <c r="C2" s="55" t="str">
         <f>LEFT(A2, SEARCH("-", A2)-1)</f>
         <v>133462</v>
       </c>
-      <c r="D2" s="43" t="str">
+      <c r="D2" s="42" t="str">
         <f>MID(A2,SEARCH("-",A2)+1,2)</f>
         <v>AA</v>
       </c>
-      <c r="E2" s="43" t="str">
+      <c r="E2" s="42" t="str">
         <f>IF(ISNUMBER(SEARCH("SMALL",A2)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A2)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A2)),"Large",IF(ISNUMBER(SEARCH("XL",A2)),"XL"))))</f>
         <v>Small</v>
       </c>
-      <c r="F2" s="43" t="str">
+      <c r="F2" s="42" t="str">
         <f>RIGHT(A2, LEN(A2)-SEARCH("_", A2))</f>
         <v>SMALL</v>
       </c>
-      <c r="G2" s="43" t="str">
+      <c r="G2" s="42" t="str">
         <f>SUBSTITUTE(A2,"-","|", 2)</f>
         <v>133462-AA|BOS_SMALL</v>
       </c>
-      <c r="H2" s="43" t="str">
+      <c r="H2" s="42" t="str">
         <f>MID(G2, SEARCH("|", G2)+1,3)</f>
         <v>BOS</v>
       </c>
@@ -16806,31 +17090,31 @@
       <c r="A3" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="42" t="str">
         <f t="shared" ref="B3:B15" si="0">LEFT(A3,6)</f>
         <v>191768</v>
       </c>
-      <c r="C3" s="58" t="str">
+      <c r="C3" s="55" t="str">
         <f t="shared" ref="C3:C15" si="1">LEFT(A3, SEARCH("-", A3)-1)</f>
         <v>191768</v>
       </c>
-      <c r="D3" s="43" t="str">
+      <c r="D3" s="42" t="str">
         <f t="shared" ref="D3:D15" si="2">MID(A3,SEARCH("-",A3)+1,2)</f>
         <v>AC</v>
       </c>
-      <c r="E3" s="43" t="str">
+      <c r="E3" s="42" t="str">
         <f t="shared" ref="E3:E15" si="3">IF(ISNUMBER(SEARCH("SMALL",A3)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A3)),"Large",IF(ISNUMBER(SEARCH("XL",A3)),"XL"))))</f>
         <v>Medium</v>
       </c>
-      <c r="F3" s="43" t="str">
+      <c r="F3" s="42" t="str">
         <f t="shared" ref="F3:F15" si="4">RIGHT(A3, LEN(A3)-SEARCH("_", A3))</f>
         <v>MEDIUM</v>
       </c>
-      <c r="G3" s="43" t="str">
+      <c r="G3" s="42" t="str">
         <f t="shared" ref="G3:G15" si="5">SUBSTITUTE(A3,"-","|", 2)</f>
         <v>191768-AC|NYC_MEDIUM</v>
       </c>
-      <c r="H3" s="43" t="str">
+      <c r="H3" s="42" t="str">
         <f t="shared" ref="H3:H15" si="6">MID(G3, SEARCH("|", G3)+1,3)</f>
         <v>NYC</v>
       </c>
@@ -16839,31 +17123,31 @@
       <c r="A4" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="43" t="str">
+      <c r="B4" s="42" t="str">
         <f t="shared" si="0"/>
         <v>157263</v>
       </c>
-      <c r="C4" s="58" t="str">
+      <c r="C4" s="55" t="str">
         <f t="shared" si="1"/>
         <v>157263</v>
       </c>
-      <c r="D4" s="43" t="str">
+      <c r="D4" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E4" s="43" t="str">
+      <c r="E4" s="42" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F4" s="43" t="str">
+      <c r="F4" s="42" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G4" s="43" t="str">
+      <c r="G4" s="42" t="str">
         <f t="shared" si="5"/>
         <v>157263-BB|BOS_XL</v>
       </c>
-      <c r="H4" s="43" t="str">
+      <c r="H4" s="42" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -16872,31 +17156,31 @@
       <c r="A5" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="43" t="str">
+      <c r="B5" s="42" t="str">
         <f t="shared" si="0"/>
         <v>173437</v>
       </c>
-      <c r="C5" s="58" t="str">
+      <c r="C5" s="55" t="str">
         <f t="shared" si="1"/>
         <v>1734372</v>
       </c>
-      <c r="D5" s="43" t="str">
+      <c r="D5" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
       </c>
-      <c r="E5" s="43" t="str">
+      <c r="E5" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Small</v>
       </c>
-      <c r="F5" s="43" t="str">
+      <c r="F5" s="42" t="str">
         <f t="shared" si="4"/>
         <v>SMALL</v>
       </c>
-      <c r="G5" s="43" t="str">
+      <c r="G5" s="42" t="str">
         <f t="shared" si="5"/>
         <v>1734372-AA|CHI_SMALL</v>
       </c>
-      <c r="H5" s="43" t="str">
+      <c r="H5" s="42" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -16905,31 +17189,31 @@
       <c r="A6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="43" t="str">
+      <c r="B6" s="42" t="str">
         <f t="shared" si="0"/>
         <v>135351</v>
       </c>
-      <c r="C6" s="58" t="str">
+      <c r="C6" s="55" t="str">
         <f t="shared" si="1"/>
         <v>135351</v>
       </c>
-      <c r="D6" s="43" t="str">
+      <c r="D6" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BC</v>
       </c>
-      <c r="E6" s="43" t="str">
+      <c r="E6" s="42" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F6" s="43" t="str">
+      <c r="F6" s="42" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G6" s="43" t="str">
+      <c r="G6" s="42" t="str">
         <f t="shared" si="5"/>
         <v>135351-BC|NYC_XL</v>
       </c>
-      <c r="H6" s="43" t="str">
+      <c r="H6" s="42" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -16938,31 +17222,31 @@
       <c r="A7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="43" t="str">
+      <c r="B7" s="42" t="str">
         <f t="shared" si="0"/>
         <v>143303</v>
       </c>
-      <c r="C7" s="58" t="str">
+      <c r="C7" s="55" t="str">
         <f t="shared" si="1"/>
         <v>14330305</v>
       </c>
-      <c r="D7" s="43" t="str">
+      <c r="D7" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AC</v>
       </c>
-      <c r="E7" s="43" t="str">
+      <c r="E7" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F7" s="43" t="str">
+      <c r="F7" s="42" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G7" s="43" t="str">
+      <c r="G7" s="42" t="str">
         <f t="shared" si="5"/>
         <v>14330305-AC|BOS_LARGE</v>
       </c>
-      <c r="H7" s="43" t="str">
+      <c r="H7" s="42" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -16971,31 +17255,31 @@
       <c r="A8" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="43" t="str">
+      <c r="B8" s="42" t="str">
         <f t="shared" si="0"/>
         <v>177772</v>
       </c>
-      <c r="C8" s="58" t="str">
+      <c r="C8" s="55" t="str">
         <f t="shared" si="1"/>
         <v>177772</v>
       </c>
-      <c r="D8" s="43" t="str">
+      <c r="D8" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E8" s="43" t="str">
+      <c r="E8" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F8" s="43" t="str">
+      <c r="F8" s="42" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G8" s="43" t="str">
+      <c r="G8" s="42" t="str">
         <f t="shared" si="5"/>
         <v>177772-BB|NYC_MEDIUM</v>
       </c>
-      <c r="H8" s="43" t="str">
+      <c r="H8" s="42" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -17004,31 +17288,31 @@
       <c r="A9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="43" t="str">
+      <c r="B9" s="42" t="str">
         <f t="shared" si="0"/>
         <v>871928</v>
       </c>
-      <c r="C9" s="58" t="str">
+      <c r="C9" s="55" t="str">
         <f t="shared" si="1"/>
         <v>87192837</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="D9" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
       </c>
-      <c r="E9" s="43" t="str">
+      <c r="E9" s="42" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F9" s="43" t="str">
+      <c r="F9" s="42" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G9" s="43" t="str">
+      <c r="G9" s="42" t="str">
         <f t="shared" si="5"/>
         <v>87192837-AB|CHI_XL</v>
       </c>
-      <c r="H9" s="43" t="str">
+      <c r="H9" s="42" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -17037,31 +17321,31 @@
       <c r="A10" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="43" t="str">
+      <c r="B10" s="42" t="str">
         <f t="shared" si="0"/>
         <v>161266</v>
       </c>
-      <c r="C10" s="58" t="str">
+      <c r="C10" s="55" t="str">
         <f t="shared" si="1"/>
         <v>161266</v>
       </c>
-      <c r="D10" s="43" t="str">
+      <c r="D10" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E10" s="43" t="str">
+      <c r="E10" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Small</v>
       </c>
-      <c r="F10" s="43" t="str">
+      <c r="F10" s="42" t="str">
         <f t="shared" si="4"/>
         <v>SMALL</v>
       </c>
-      <c r="G10" s="43" t="str">
+      <c r="G10" s="42" t="str">
         <f t="shared" si="5"/>
         <v>161266-BB|CHI_SMALL</v>
       </c>
-      <c r="H10" s="43" t="str">
+      <c r="H10" s="42" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -17070,31 +17354,31 @@
       <c r="A11" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="43" t="str">
+      <c r="B11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>122892</v>
       </c>
-      <c r="C11" s="58" t="str">
+      <c r="C11" s="55" t="str">
         <f t="shared" si="1"/>
         <v>122892</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="D11" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
       </c>
-      <c r="E11" s="43" t="str">
+      <c r="E11" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F11" s="43" t="str">
+      <c r="F11" s="42" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G11" s="43" t="str">
+      <c r="G11" s="42" t="str">
         <f t="shared" si="5"/>
         <v>122892-AA|NYC_MEDIUM</v>
       </c>
-      <c r="H11" s="43" t="str">
+      <c r="H11" s="42" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -17103,31 +17387,31 @@
       <c r="A12" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="43" t="str">
+      <c r="B12" s="42" t="str">
         <f t="shared" si="0"/>
         <v>128919</v>
       </c>
-      <c r="C12" s="58" t="str">
+      <c r="C12" s="55" t="str">
         <f t="shared" si="1"/>
         <v>128919</v>
       </c>
-      <c r="D12" s="43" t="str">
+      <c r="D12" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AC</v>
       </c>
-      <c r="E12" s="43" t="str">
+      <c r="E12" s="42" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F12" s="43" t="str">
+      <c r="F12" s="42" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G12" s="43" t="str">
+      <c r="G12" s="42" t="str">
         <f t="shared" si="5"/>
         <v>128919-AC|CHI_XL</v>
       </c>
-      <c r="H12" s="43" t="str">
+      <c r="H12" s="42" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -17136,31 +17420,31 @@
       <c r="A13" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="43" t="str">
+      <c r="B13" s="42" t="str">
         <f t="shared" si="0"/>
         <v>191999</v>
       </c>
-      <c r="C13" s="58" t="str">
+      <c r="C13" s="55" t="str">
         <f t="shared" si="1"/>
         <v>191999</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="D13" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E13" s="43" t="str">
+      <c r="E13" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F13" s="43" t="str">
+      <c r="F13" s="42" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G13" s="43" t="str">
+      <c r="G13" s="42" t="str">
         <f t="shared" si="5"/>
         <v>191999-BB|BOS_LARGE</v>
       </c>
-      <c r="H13" s="43" t="str">
+      <c r="H13" s="42" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -17169,31 +17453,31 @@
       <c r="A14" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="43" t="str">
+      <c r="B14" s="42" t="str">
         <f t="shared" si="0"/>
         <v>117091</v>
       </c>
-      <c r="C14" s="58" t="str">
+      <c r="C14" s="55" t="str">
         <f t="shared" si="1"/>
         <v>117091126</v>
       </c>
-      <c r="D14" s="43" t="str">
+      <c r="D14" s="42" t="str">
         <f t="shared" si="2"/>
         <v>BC</v>
       </c>
-      <c r="E14" s="43" t="str">
+      <c r="E14" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F14" s="43" t="str">
+      <c r="F14" s="42" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G14" s="43" t="str">
+      <c r="G14" s="42" t="str">
         <f t="shared" si="5"/>
         <v>117091126-BC|NYC_LARGE</v>
       </c>
-      <c r="H14" s="43" t="str">
+      <c r="H14" s="42" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -17202,31 +17486,31 @@
       <c r="A15" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="43" t="str">
+      <c r="B15" s="42" t="str">
         <f t="shared" si="0"/>
         <v>112283</v>
       </c>
-      <c r="C15" s="58" t="str">
+      <c r="C15" s="55" t="str">
         <f t="shared" si="1"/>
         <v>112283</v>
       </c>
-      <c r="D15" s="43" t="str">
+      <c r="D15" s="42" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
       </c>
-      <c r="E15" s="43" t="str">
+      <c r="E15" s="42" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F15" s="43" t="str">
+      <c r="F15" s="42" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G15" s="43" t="str">
+      <c r="G15" s="42" t="str">
         <f t="shared" si="5"/>
         <v>112283-AB|BOS_MEDIUM</v>
       </c>
-      <c r="H15" s="43" t="str">
+      <c r="H15" s="42" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>

--- a/Excel_Homework_Exercises.xlsx
+++ b/Excel_Homework_Exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMINA\Documents\UDEMY\EXCEL\Excel+Homework+Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0B8ED5-545D-4251-B7EB-52DA2100C3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42841B-3BB5-4F37-99FA-6CBCB7383C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="709" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="709" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas 101" sheetId="19" r:id="rId1"/>
@@ -47,6 +47,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="235">
   <si>
@@ -791,8 +813,8 @@
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="dddd"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="dddd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -981,7 +1003,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1064,9 +1086,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,20 +1138,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,106 +1160,28 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1265,62 +1203,21 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5582,7 +5479,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -5627,11 +5524,11 @@
       <c r="D2" s="2">
         <v>18</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="42">
         <f>C2/$B2</f>
         <v>0.5273972602739726</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <f>D2/$B2</f>
         <v>0.12328767123287671</v>
       </c>
@@ -5649,11 +5546,11 @@
       <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <f t="shared" ref="E3:E26" si="0">C3/$B3</f>
         <v>0.42603550295857989</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="42">
         <f t="shared" ref="F3:F26" si="1">D3/$B3</f>
         <v>8.8757396449704137E-2</v>
       </c>
@@ -5671,11 +5568,11 @@
       <c r="D4" s="2">
         <v>19</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="42">
         <f t="shared" si="0"/>
         <v>0.35678391959798994</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <f t="shared" si="1"/>
         <v>9.5477386934673364E-2</v>
       </c>
@@ -5693,11 +5590,11 @@
       <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <f t="shared" si="0"/>
         <v>0.23487544483985764</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <f t="shared" si="1"/>
         <v>3.5587188612099648E-2</v>
       </c>
@@ -5715,11 +5612,11 @@
       <c r="D6" s="2">
         <v>19</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <f t="shared" si="0"/>
         <v>0.19924812030075187</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -5737,11 +5634,11 @@
       <c r="D7" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="42">
         <f t="shared" si="0"/>
         <v>0.30324909747292417</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <f t="shared" si="1"/>
         <v>5.4151624548736461E-2</v>
       </c>
@@ -5759,11 +5656,11 @@
       <c r="D8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="42">
         <f t="shared" si="0"/>
         <v>0.50344827586206897</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <f t="shared" si="1"/>
         <v>0.10344827586206896</v>
       </c>
@@ -5781,11 +5678,11 @@
       <c r="D9" s="2">
         <v>12</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <f t="shared" si="0"/>
         <v>0.30396475770925108</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <f t="shared" si="1"/>
         <v>5.2863436123348019E-2</v>
       </c>
@@ -5803,11 +5700,11 @@
       <c r="D10" s="2">
         <v>16</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <f t="shared" si="0"/>
         <v>0.43888888888888888</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <f t="shared" si="1"/>
         <v>8.8888888888888892E-2</v>
       </c>
@@ -5825,11 +5722,11 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="43" t="e">
+      <c r="E11" s="42" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="43" t="e">
+      <c r="F11" s="42" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -5847,11 +5744,11 @@
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <f t="shared" si="0"/>
         <v>0.30991735537190085</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <f t="shared" si="1"/>
         <v>4.1322314049586778E-2</v>
       </c>
@@ -5869,11 +5766,11 @@
       <c r="D13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="42">
         <f t="shared" si="0"/>
         <v>0.34883720930232559</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <f t="shared" si="1"/>
         <v>7.441860465116279E-2</v>
       </c>
@@ -5891,11 +5788,11 @@
       <c r="D14" s="2">
         <v>16</v>
       </c>
-      <c r="E14" s="43">
+      <c r="E14" s="42">
         <f t="shared" si="0"/>
         <v>0.33606557377049179</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <f t="shared" si="1"/>
         <v>6.5573770491803282E-2</v>
       </c>
@@ -5913,11 +5810,11 @@
       <c r="D15" s="2">
         <v>13</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <f t="shared" si="0"/>
         <v>0.39664804469273746</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <f t="shared" si="1"/>
         <v>7.2625698324022353E-2</v>
       </c>
@@ -5935,11 +5832,11 @@
       <c r="D16" s="2">
         <v>14</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <f t="shared" si="0"/>
         <v>0.2608695652173913</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <f t="shared" si="1"/>
         <v>5.0724637681159424E-2</v>
       </c>
@@ -5957,11 +5854,11 @@
       <c r="D17" s="2">
         <v>20</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="42">
         <f t="shared" si="0"/>
         <v>0.61417322834645671</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <f t="shared" si="1"/>
         <v>0.15748031496062992</v>
       </c>
@@ -5979,11 +5876,11 @@
       <c r="D18" s="2">
         <v>18</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <f t="shared" si="0"/>
         <v>0.2756183745583039</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <f t="shared" si="1"/>
         <v>6.3604240282685506E-2</v>
       </c>
@@ -6001,11 +5898,11 @@
       <c r="D19" s="2">
         <v>20</v>
       </c>
-      <c r="E19" s="43">
+      <c r="E19" s="42">
         <f t="shared" si="0"/>
         <v>0.60317460317460314</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="42">
         <f t="shared" si="1"/>
         <v>0.15873015873015872</v>
       </c>
@@ -6023,11 +5920,11 @@
       <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="42">
         <f t="shared" si="0"/>
         <v>0.30916030534351147</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <f t="shared" si="1"/>
         <v>7.2519083969465645E-2</v>
       </c>
@@ -6045,11 +5942,11 @@
       <c r="D21" s="2">
         <v>14</v>
       </c>
-      <c r="E21" s="43">
+      <c r="E21" s="42">
         <f t="shared" si="0"/>
         <v>0.28222996515679444</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="42">
         <f t="shared" si="1"/>
         <v>4.878048780487805E-2</v>
       </c>
@@ -6067,11 +5964,11 @@
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="42">
         <f t="shared" si="0"/>
         <v>0.30483271375464682</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="42">
         <f t="shared" si="1"/>
         <v>5.204460966542751E-2</v>
       </c>
@@ -6089,11 +5986,11 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="42">
         <f t="shared" si="0"/>
         <v>0.19852941176470587</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <f t="shared" si="1"/>
         <v>3.6764705882352942E-2</v>
       </c>
@@ -6111,11 +6008,11 @@
       <c r="D24" s="2">
         <v>11</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="42">
         <f t="shared" si="0"/>
         <v>0.33823529411764708</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="42">
         <f t="shared" si="1"/>
         <v>5.3921568627450983E-2</v>
       </c>
@@ -6133,11 +6030,11 @@
       <c r="D25" s="2">
         <v>20</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="42">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="42">
         <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
@@ -6155,11 +6052,11 @@
       <c r="D26" s="2">
         <v>19</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="42">
         <f t="shared" si="0"/>
         <v>0.34482758620689657</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="42">
         <f t="shared" si="1"/>
         <v>7.2796934865900387E-2</v>
       </c>
@@ -6203,7 +6100,7 @@
       <c r="B2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="37">
         <v>42005</v>
       </c>
     </row>
@@ -6211,18 +6108,18 @@
       <c r="B3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <f ca="1">TODAY()</f>
-        <v>45149</v>
+        <v>45159</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="38">
         <f ca="1">NOW()</f>
-        <v>45149.76140520833</v>
+        <v>45159.681237500001</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6246,29 +6143,29 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <f ca="1">YEAR(C4)</f>
         <v>2023</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <f ca="1">MONTH(C4)</f>
         <v>8</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <f ca="1">DAY(C4)</f>
-        <v>11</v>
-      </c>
-      <c r="E7" s="40">
+        <v>21</v>
+      </c>
+      <c r="E7" s="39">
         <f ca="1">HOUR(C4)</f>
-        <v>18</v>
-      </c>
-      <c r="F7" s="40">
+        <v>16</v>
+      </c>
+      <c r="F7" s="39">
         <f ca="1">MINUTE(C4)</f>
-        <v>16</v>
-      </c>
-      <c r="G7" s="40">
+        <v>20</v>
+      </c>
+      <c r="G7" s="39">
         <f ca="1">SECOND(C4)</f>
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6284,9 +6181,9 @@
       <c r="B9" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="54">
         <f ca="1">WEEKDAY(C4)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6297,18 +6194,18 @@
       <c r="B11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <f ca="1">WORKDAY(C4, 50)</f>
-        <v>45219</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="55">
         <f ca="1">NETWORKDAYS(C2, C3)</f>
-        <v>2247</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6316,7 +6213,7 @@
       <c r="B14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <f ca="1">EOMONTH(C3, 0)</f>
         <v>45169</v>
       </c>
@@ -6325,7 +6222,7 @@
       <c r="B15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <f ca="1">EOMONTH(C3, -1)+1</f>
         <v>45139</v>
       </c>
@@ -6334,7 +6231,7 @@
       <c r="B16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <f ca="1">EOMONTH(C3, -1*MONTH(C3))+1</f>
         <v>44927</v>
       </c>
@@ -6424,11 +6321,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="31" customWidth="1"/>
-    <col min="4" max="5" width="14.88671875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="30" customWidth="1"/>
+    <col min="4" max="5" width="14.88671875" style="30" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6450,7 +6347,7 @@
       <c r="F1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6474,7 +6371,7 @@
       <c r="F2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G2" s="56">
         <f>E2/B2</f>
         <v>0.41492265696087355</v>
       </c>
@@ -6499,7 +6396,7 @@
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="57">
         <f t="shared" ref="G3:G25" si="0">E3/B3</f>
         <v>0.17524916943521596</v>
       </c>
@@ -6525,7 +6422,7 @@
       <c r="F4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="57">
         <f t="shared" si="0"/>
         <v>0.50411522633744854</v>
       </c>
@@ -6551,7 +6448,7 @@
       <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="57">
         <f t="shared" si="0"/>
         <v>0.52380952380952384</v>
       </c>
@@ -6577,7 +6474,7 @@
       <c r="F6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="57">
         <f t="shared" si="0"/>
         <v>0.43443132380360472</v>
       </c>
@@ -6603,7 +6500,7 @@
       <c r="F7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="57">
         <f t="shared" si="0"/>
         <v>0.39156626506024095</v>
       </c>
@@ -6629,7 +6526,7 @@
       <c r="F8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="57">
         <f t="shared" si="0"/>
         <v>0.57631444614599281</v>
       </c>
@@ -6655,7 +6552,7 @@
       <c r="F9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="59">
+      <c r="G9" s="57">
         <f t="shared" si="0"/>
         <v>0.51498929336188437</v>
       </c>
@@ -6681,7 +6578,7 @@
       <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="57">
         <f t="shared" si="0"/>
         <v>0.47848537005163511</v>
       </c>
@@ -6707,7 +6604,7 @@
       <c r="F11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="57">
         <f t="shared" si="0"/>
         <v>0.3377808988764045</v>
       </c>
@@ -6733,7 +6630,7 @@
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="57">
         <f t="shared" si="0"/>
         <v>0.34983766233766234</v>
       </c>
@@ -6759,7 +6656,7 @@
       <c r="F13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="57">
         <f t="shared" si="0"/>
         <v>0.54775604142692746</v>
       </c>
@@ -6785,7 +6682,7 @@
       <c r="F14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="57">
         <f t="shared" si="0"/>
         <v>0.5993031358885017</v>
       </c>
@@ -6811,7 +6708,7 @@
       <c r="F15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="57">
         <f t="shared" si="0"/>
         <v>0.59571045576407511</v>
       </c>
@@ -6837,7 +6734,7 @@
       <c r="F16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="57">
         <f t="shared" si="0"/>
         <v>0.51458670988654787</v>
       </c>
@@ -6863,7 +6760,7 @@
       <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="59">
+      <c r="G17" s="57">
         <f t="shared" si="0"/>
         <v>0.40393151553582751</v>
       </c>
@@ -6889,7 +6786,7 @@
       <c r="F18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="57">
         <f t="shared" si="0"/>
         <v>0.51891074130105896</v>
       </c>
@@ -6915,7 +6812,7 @@
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="59">
+      <c r="G19" s="57">
         <f t="shared" si="0"/>
         <v>0.57448377581120946</v>
       </c>
@@ -6940,7 +6837,7 @@
       <c r="F20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="57">
         <f t="shared" si="0"/>
         <v>0.47118463180362863</v>
       </c>
@@ -6966,7 +6863,7 @@
       <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="59">
+      <c r="G21" s="57">
         <f t="shared" si="0"/>
         <v>0.60243407707910746</v>
       </c>
@@ -6991,7 +6888,7 @@
       <c r="F22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="57">
         <f t="shared" si="0"/>
         <v>0.36644364384971695</v>
       </c>
@@ -7017,7 +6914,7 @@
       <c r="F23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="59">
+      <c r="G23" s="57">
         <f t="shared" si="0"/>
         <v>0.54501385041551242</v>
       </c>
@@ -7043,7 +6940,7 @@
       <c r="F24" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="57">
         <f t="shared" si="0"/>
         <v>0.4105827193569993</v>
       </c>
@@ -7069,18 +6966,20 @@
       <c r="F25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="59">
+      <c r="G25" s="57">
         <f t="shared" si="0"/>
         <v>0.66628308400460301</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G25">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
-      <formula>0.5</formula>
+  <conditionalFormatting sqref="A2:A25">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$G2&lt;40%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>0.5</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G25">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$F2="Kids"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
@@ -7092,14 +6991,12 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A25">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$G2&lt;40%</formula>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>0.5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G25">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$F2="Kids"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7114,8 +7011,8 @@
   </sheetPr>
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7151,19 +7048,19 @@
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7183,15 +7080,29 @@
       <c r="E2" s="8">
         <v>22873</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="M2" s="9" t="s">
+      <c r="G2" s="41" t="str" cm="1">
+        <f t="array" ref="G2:K16">_xlfn.SORTBY(A2:E16, B2:B16, 1, E2:E16, -1)</f>
+        <v>Kathy</v>
+      </c>
+      <c r="H2" s="41" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="I2" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J2" s="40">
+        <v>18270</v>
+      </c>
+      <c r="K2" s="40">
+        <v>22873</v>
+      </c>
+      <c r="M2" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="N2" s="40"/>
+      <c r="N2" s="39" t="str">
+        <f>INDEX(A2:A16, MATCH(MAX(E2:E16), E2:E16, 0))</f>
+        <v>Sam</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -7209,11 +7120,21 @@
       <c r="E3" s="8">
         <v>21279</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="41" t="str">
+        <v>John</v>
+      </c>
+      <c r="H3" s="41" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="I3" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J3" s="40">
+        <v>20510</v>
+      </c>
+      <c r="K3" s="40">
+        <v>21279</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -7231,15 +7152,25 @@
       <c r="E4" s="8">
         <v>13096</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="50" t="s">
+      <c r="G4" s="41" t="str">
+        <v>Mindy</v>
+      </c>
+      <c r="H4" s="41" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="I4" s="41" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J4" s="40">
+        <v>15972</v>
+      </c>
+      <c r="K4" s="40">
+        <v>13096</v>
+      </c>
+      <c r="M4" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="N4" s="49" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7259,13 +7190,29 @@
       <c r="E5" s="8">
         <v>10990</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="41"/>
+      <c r="G5" s="41" t="str">
+        <v>Aaron</v>
+      </c>
+      <c r="H5" s="41" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="I5" s="41" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J5" s="40">
+        <v>17347</v>
+      </c>
+      <c r="K5" s="40">
+        <v>10990</v>
+      </c>
+      <c r="M5" s="41" t="str" cm="1">
+        <f t="array" ref="M5:M6">_xlfn._xlws.SORT(_xlfn.UNIQUE(C2:C16), 1, 1)</f>
+        <v>Apparel</v>
+      </c>
+      <c r="N5" s="40" cm="1">
+        <f t="array" ref="N5:N6">SUMIFS(E2:E16,C2:C16,_xlfn.ANCHORARRAY( M5))</f>
+        <v>136990</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -7283,13 +7230,27 @@
       <c r="E6" s="8">
         <v>10283</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="8"/>
+      <c r="G6" s="58" t="str">
+        <v>Sam</v>
+      </c>
+      <c r="H6" s="41" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I6" s="41" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J6" s="40">
+        <v>26508</v>
+      </c>
+      <c r="K6" s="40">
+        <v>28682</v>
+      </c>
+      <c r="M6" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="N6" s="40">
+        <v>162245</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -7307,11 +7268,21 @@
       <c r="E7" s="8">
         <v>15332</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="G7" s="58" t="str">
+        <v>Jean</v>
+      </c>
+      <c r="H7" s="41" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I7" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J7" s="40">
+        <v>23810</v>
+      </c>
+      <c r="K7" s="40">
+        <v>28543</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -7329,15 +7300,25 @@
       <c r="E8" s="8">
         <v>15414</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="G8" s="41" t="str">
+        <v>Tina</v>
+      </c>
+      <c r="H8" s="41" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I8" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J8" s="40">
+        <v>19325</v>
+      </c>
+      <c r="K8" s="40">
+        <v>26697</v>
+      </c>
       <c r="M8" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="50" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7357,11 +7338,21 @@
       <c r="E9" s="8">
         <v>21973</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="G9" s="41" t="str">
+        <v>Kim</v>
+      </c>
+      <c r="H9" s="41" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I9" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J9" s="40">
+        <v>29120</v>
+      </c>
+      <c r="K9" s="40">
+        <v>21824</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -7379,24 +7370,34 @@
       <c r="E10" s="8">
         <v>18721</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="M10" s="50" t="s">
+      <c r="G10" s="41" t="str">
+        <v>Ashley</v>
+      </c>
+      <c r="H10" s="41" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="I10" s="41" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J10" s="40">
+        <v>17872</v>
+      </c>
+      <c r="K10" s="40">
+        <v>17631</v>
+      </c>
+      <c r="M10" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="O10" s="50" t="s">
+      <c r="O10" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="P10" s="50" t="s">
+      <c r="P10" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="Q10" s="50" t="s">
+      <c r="Q10" s="49" t="s">
         <v>210</v>
       </c>
     </row>
@@ -7416,16 +7417,37 @@
       <c r="E11" s="8">
         <v>25897</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="G11" s="41" t="str">
+        <v>Mark</v>
+      </c>
+      <c r="H11" s="41" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I11" s="41" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J11" s="40">
+        <v>25347</v>
+      </c>
+      <c r="K11" s="40">
+        <v>25897</v>
+      </c>
+      <c r="M11" s="61" t="str" cm="1">
+        <f t="array" ref="M11:Q12">_xlfn._xlws.FILTER(A2:E16, (B2:B16=N8)*(E2:E16&gt;D2:D16))</f>
+        <v>Kathy</v>
+      </c>
+      <c r="N11" s="61" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="O11" s="61" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="P11" s="62">
+        <v>18270</v>
+      </c>
+      <c r="Q11" s="62">
+        <v>22873</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -7443,16 +7465,36 @@
       <c r="E12" s="8">
         <v>21824</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="G12" s="41" t="str">
+        <v>Lauren</v>
+      </c>
+      <c r="H12" s="41" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I12" s="41" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J12" s="40">
+        <v>19588</v>
+      </c>
+      <c r="K12" s="40">
+        <v>21973</v>
+      </c>
+      <c r="M12" s="61" t="str">
+        <v>John</v>
+      </c>
+      <c r="N12" s="61" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="O12" s="61" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="P12" s="62">
+        <v>20510</v>
+      </c>
+      <c r="Q12" s="62">
+        <v>21279</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -7470,16 +7512,26 @@
       <c r="E13" s="8">
         <v>26697</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="G13" s="41" t="str">
+        <v>Jason</v>
+      </c>
+      <c r="H13" s="41" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I13" s="41" t="str">
+        <v>Apparel</v>
+      </c>
+      <c r="J13" s="40">
+        <v>15769</v>
+      </c>
+      <c r="K13" s="40">
+        <v>18721</v>
+      </c>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -7497,16 +7549,26 @@
       <c r="E14" s="8">
         <v>28543</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="G14" s="41" t="str">
+        <v>Bill</v>
+      </c>
+      <c r="H14" s="41" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I14" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J14" s="40">
+        <v>17585</v>
+      </c>
+      <c r="K14" s="40">
+        <v>15414</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -7524,11 +7586,26 @@
       <c r="E15" s="8">
         <v>28682</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="G15" s="41" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="H15" s="41" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I15" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J15" s="40">
+        <v>13190</v>
+      </c>
+      <c r="K15" s="40">
+        <v>15332</v>
+      </c>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -7546,31 +7623,65 @@
       <c r="E16" s="8">
         <v>17631</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="G16" s="41" t="str">
+        <v>Phil</v>
+      </c>
+      <c r="H16" s="41" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="I16" s="41" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="J16" s="40">
+        <v>19635</v>
+      </c>
+      <c r="K16" s="40">
+        <v>10283</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M17" s="50" t="s">
+      <c r="M17" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="N17" s="50" t="s">
+      <c r="N17" s="49" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M18" s="42"/>
-      <c r="N18" s="30"/>
+      <c r="M18" s="41" t="str" cm="1">
+        <f t="array" ref="M18:N20">_xlfn.LET(
+_xlpm.Office,_xlfn.UNIQUE(B2:B16),
+_xlpm.Sales2015,SUMIFS(D2:D16, B2:B16, _xlpm.Office),
+_xlpm.Sales2016,SUMIFS(E2:E16, B2:B16,_xlpm.Office),
+_xlpm.Growth,_xlpm.Sales2016-_xlpm.Sales2015,
+_xlpm.Array,CHOOSE({1,2},_xlpm.Office,_xlpm.Growth),
+_xlfn._xlws.SORT(_xlpm.Array,2,-1))</f>
+        <v>CHI</v>
+      </c>
+      <c r="N18" s="59">
+        <v>6742</v>
+      </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M19" s="2"/>
-      <c r="N19" s="30"/>
+      <c r="M19" s="41" t="str">
+        <v>NYC</v>
+      </c>
+      <c r="N19" s="59">
+        <v>-3494</v>
+      </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M20" s="2"/>
-      <c r="N20" s="30"/>
+      <c r="M20" s="41" t="str">
+        <v>BOS</v>
+      </c>
+      <c r="N20" s="59">
+        <v>-3861</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -7638,19 +7749,19 @@
       <c r="C2" s="2">
         <v>90</v>
       </c>
-      <c r="D2" s="42" t="str">
+      <c r="D2" s="41" t="str">
         <f>IF(C2&gt;=90, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="E2" s="42" t="str">
+      <c r="E2" s="41" t="str">
         <f>IF(C2&gt;=90,"A",IF(AND(C2&gt;=80,C2&lt;=89),"B",IF(AND(C2&gt;=70,C2&lt;=79),"C",IF(AND(C2&gt;=60,C2&lt;=69),"D","F"))))</f>
         <v>A</v>
       </c>
-      <c r="F2" s="42" t="str">
+      <c r="F2" s="41" t="str">
         <f>IF(OR(C2&lt;60, C2&gt;90), "OUTLIER", "AVG")</f>
         <v>AVG</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="41" t="str">
         <f>IF(AND(C2&gt;95, B2="M"), "Male Achiever", IF(AND(C2&gt;95, B2="F"), "Female Achiever", "None"))</f>
         <v>None</v>
       </c>
@@ -7665,19 +7776,19 @@
       <c r="C3" s="2">
         <v>80</v>
       </c>
-      <c r="D3" s="42" t="str">
+      <c r="D3" s="41" t="str">
         <f t="shared" ref="D3:D16" si="0">IF(C3&gt;=90, "PASS", "FAIL")</f>
         <v>FAIL</v>
       </c>
-      <c r="E3" s="42" t="str">
+      <c r="E3" s="41" t="str">
         <f t="shared" ref="E3:E16" si="1">IF(C3&gt;=90,"A",IF(AND(C3&gt;=80,C3&lt;=89),"B",IF(AND(C3&gt;=70,C3&lt;=79),"C",IF(AND(C3&gt;=60,C3&lt;=69),"D","F"))))</f>
         <v>B</v>
       </c>
-      <c r="F3" s="42" t="str">
+      <c r="F3" s="41" t="str">
         <f t="shared" ref="F3:F16" si="2">IF(OR(C3&lt;60, C3&gt;90), "OUTLIER", "AVG")</f>
         <v>AVG</v>
       </c>
-      <c r="G3" s="42" t="str">
+      <c r="G3" s="41" t="str">
         <f t="shared" ref="G3:G16" si="3">IF(AND(C3&gt;95, B3="M"), "Male Achiever", IF(AND(C3&gt;95, B3="F"), "Female Achiever", "None"))</f>
         <v>None</v>
       </c>
@@ -7692,19 +7803,19 @@
       <c r="C4" s="2">
         <v>96</v>
       </c>
-      <c r="D4" s="42" t="str">
+      <c r="D4" s="41" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E4" s="42" t="str">
+      <c r="E4" s="41" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F4" s="42" t="str">
+      <c r="F4" s="41" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G4" s="42" t="str">
+      <c r="G4" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Female Achiever</v>
       </c>
@@ -7719,19 +7830,19 @@
       <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="42" t="str">
+      <c r="D5" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5" s="42" t="str">
+      <c r="E5" s="41" t="str">
         <f t="shared" si="1"/>
         <v>C</v>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G5" s="42" t="str">
+      <c r="G5" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7746,19 +7857,19 @@
       <c r="C6" s="2">
         <v>69</v>
       </c>
-      <c r="D6" s="42" t="str">
+      <c r="D6" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6" s="42" t="str">
+      <c r="E6" s="41" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F6" s="42" t="str">
+      <c r="F6" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G6" s="42" t="str">
+      <c r="G6" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7773,19 +7884,19 @@
       <c r="C7" s="2">
         <v>52</v>
       </c>
-      <c r="D7" s="42" t="str">
+      <c r="D7" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7" s="42" t="str">
+      <c r="E7" s="41" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="F7" s="42" t="str">
+      <c r="F7" s="41" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G7" s="42" t="str">
+      <c r="G7" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7800,19 +7911,19 @@
       <c r="C8" s="2">
         <v>99</v>
       </c>
-      <c r="D8" s="42" t="str">
+      <c r="D8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E8" s="42" t="str">
+      <c r="E8" s="41" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F8" s="42" t="str">
+      <c r="F8" s="41" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G8" s="42" t="str">
+      <c r="G8" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Male Achiever</v>
       </c>
@@ -7827,19 +7938,19 @@
       <c r="C9" s="2">
         <v>82</v>
       </c>
-      <c r="D9" s="42" t="str">
+      <c r="D9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9" s="42" t="str">
+      <c r="E9" s="41" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F9" s="42" t="str">
+      <c r="F9" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G9" s="42" t="str">
+      <c r="G9" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7854,19 +7965,19 @@
       <c r="C10" s="2">
         <v>67</v>
       </c>
-      <c r="D10" s="42" t="str">
+      <c r="D10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E10" s="42" t="str">
+      <c r="E10" s="41" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G10" s="42" t="str">
+      <c r="G10" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7881,19 +7992,19 @@
       <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11" s="42" t="str">
+      <c r="D11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="41" t="str">
         <f t="shared" si="1"/>
         <v>A</v>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G11" s="42" t="str">
+      <c r="G11" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7908,19 +8019,19 @@
       <c r="C12" s="2">
         <v>83</v>
       </c>
-      <c r="D12" s="42" t="str">
+      <c r="D12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12" s="42" t="str">
+      <c r="E12" s="41" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G12" s="42" t="str">
+      <c r="G12" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7935,19 +8046,19 @@
       <c r="C13" s="2">
         <v>89</v>
       </c>
-      <c r="D13" s="42" t="str">
+      <c r="D13" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E13" s="42" t="str">
+      <c r="E13" s="41" t="str">
         <f t="shared" si="1"/>
         <v>B</v>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G13" s="42" t="str">
+      <c r="G13" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7962,19 +8073,19 @@
       <c r="C14" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="42" t="str">
+      <c r="D14" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14" s="42" t="str">
+      <c r="E14" s="41" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F14" s="42" t="str">
+      <c r="F14" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G14" s="42" t="str">
+      <c r="G14" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -7989,19 +8100,19 @@
       <c r="C15" s="2">
         <v>63</v>
       </c>
-      <c r="D15" s="42" t="str">
+      <c r="D15" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E15" s="42" t="str">
+      <c r="E15" s="41" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="F15" s="42" t="str">
+      <c r="F15" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AVG</v>
       </c>
-      <c r="G15" s="42" t="str">
+      <c r="G15" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -8016,19 +8127,19 @@
       <c r="C16" s="2">
         <v>59</v>
       </c>
-      <c r="D16" s="42" t="str">
+      <c r="D16" s="41" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E16" s="42" t="str">
+      <c r="E16" s="41" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="F16" s="42" t="str">
+      <c r="F16" s="41" t="str">
         <f t="shared" si="2"/>
         <v>OUTLIER</v>
       </c>
-      <c r="G16" s="42" t="str">
+      <c r="G16" s="41" t="str">
         <f t="shared" si="3"/>
         <v>None</v>
       </c>
@@ -8173,7 +8284,7 @@
       <c r="E5" s="8">
         <v>3072</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <f>SUMIFS($D:$D, $A:$A, $H$2)</f>
         <v>620</v>
       </c>
@@ -8240,15 +8351,15 @@
       <c r="G8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <f>SUMIFS($D:$D, $C:$C,$G8, $A:$A, $H$2)</f>
         <v>166</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="51">
         <f>SUMIFS($E:$E, $C:$C,$G8, $A:$A, $H$2)</f>
         <v>10015</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <f>COUNTIFS($C:$C, G8, $A:$A, $H$2)</f>
         <v>3</v>
       </c>
@@ -8272,15 +8383,15 @@
       <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <f t="shared" ref="H9:H10" si="0">SUMIFS($D:$D, $C:$C,$G9, $A:$A, $H$2)</f>
         <v>372</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="51">
         <f t="shared" ref="I9:I10" si="1">SUMIFS($E:$E, $C:$C,$G9, $A:$A, $H$2)</f>
         <v>42628</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <f t="shared" ref="J9:J10" si="2">COUNTIFS($C:$C, G9, $A:$A, $H$2)</f>
         <v>4</v>
       </c>
@@ -8304,15 +8415,15 @@
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="51">
         <f t="shared" si="1"/>
         <v>6300</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -9407,11 +9518,11 @@
       <c r="D2" s="6">
         <v>177884</v>
       </c>
-      <c r="E2" s="44" t="str">
+      <c r="E2" s="43" t="str">
         <f>VLOOKUP(A2, 'State Abbreviations'!A2:B52,2,1)</f>
         <v>AL</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="40">
         <f>IFERROR(VLOOKUP(A2,'State Income (2001-2004)'!A2:C190, 3, 1), "NO INCOME DATA")</f>
         <v>26338</v>
       </c>
@@ -9429,11 +9540,11 @@
       <c r="D3" s="6">
         <v>12538.64</v>
       </c>
-      <c r="E3" s="44" t="str">
+      <c r="E3" s="43" t="str">
         <f>VLOOKUP(A3, 'State Abbreviations'!A3:B53,2,1)</f>
         <v>AK</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="40">
         <f>IFERROR(VLOOKUP(A3,'State Income (2001-2004)'!A3:C191, 3, 1), "NO INCOME DATA")</f>
         <v>33568</v>
       </c>
@@ -9451,11 +9562,11 @@
       <c r="D4" s="6">
         <v>102612.64</v>
       </c>
-      <c r="E4" s="44" t="str">
+      <c r="E4" s="43" t="str">
         <f>VLOOKUP(A4, 'State Abbreviations'!A4:B54,2,1)</f>
         <v>AZ</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <f>IFERROR(VLOOKUP(A4,'State Income (2001-2004)'!A4:C192, 3, 1), "NO INCOME DATA")</f>
         <v>26838</v>
       </c>
@@ -9473,11 +9584,11 @@
       <c r="D5" s="6">
         <v>53468</v>
       </c>
-      <c r="E5" s="44" t="str">
+      <c r="E5" s="43" t="str">
         <f>VLOOKUP(A5, 'State Abbreviations'!A5:B55,2,1)</f>
         <v>AR</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <f>IFERROR(VLOOKUP(A5,'State Income (2001-2004)'!A5:C193, 3, 1), "NO INCOME DATA")</f>
         <v>24289</v>
       </c>
@@ -9495,11 +9606,11 @@
       <c r="D6" s="6">
         <v>1016149.44</v>
       </c>
-      <c r="E6" s="44" t="str">
+      <c r="E6" s="43" t="str">
         <f>VLOOKUP(A6, 'State Abbreviations'!A6:B56,2,1)</f>
         <v>CA</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <f>IFERROR(VLOOKUP(A6,'State Income (2001-2004)'!A6:C194, 3, 1), "NO INCOME DATA")</f>
         <v>33749</v>
       </c>
@@ -9517,11 +9628,11 @@
       <c r="D7" s="6">
         <v>172050.44</v>
       </c>
-      <c r="E7" s="44" t="str">
+      <c r="E7" s="43" t="str">
         <f>VLOOKUP(A7, 'State Abbreviations'!A7:B57,2,1)</f>
         <v>CO</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <f>IFERROR(VLOOKUP(A7,'State Income (2001-2004)'!A7:C195, 3, 1), "NO INCOME DATA")</f>
         <v>34283</v>
       </c>
@@ -9539,11 +9650,11 @@
       <c r="D8" s="6">
         <v>102166.95</v>
       </c>
-      <c r="E8" s="44" t="str">
+      <c r="E8" s="43" t="str">
         <f>VLOOKUP(A8, 'State Abbreviations'!A8:B58,2,1)</f>
         <v>CT</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <f>IFERROR(VLOOKUP(A8,'State Income (2001-2004)'!A8:C196, 3, 1), "NO INCOME DATA")</f>
         <v>43173</v>
       </c>
@@ -9561,11 +9672,11 @@
       <c r="D9" s="6">
         <v>23508</v>
       </c>
-      <c r="E9" s="44" t="str">
+      <c r="E9" s="43" t="str">
         <f>VLOOKUP(A9, 'State Abbreviations'!A9:B59,2,1)</f>
         <v>DC</v>
       </c>
-      <c r="F9" s="41" t="str">
+      <c r="F9" s="40" t="str">
         <f>IFERROR(VLOOKUP(A9,'State Income (2001-2004)'!A9:C197, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9583,11 +9694,11 @@
       <c r="D10" s="6">
         <v>17161.77</v>
       </c>
-      <c r="E10" s="44" t="str">
+      <c r="E10" s="43" t="str">
         <f>VLOOKUP(A10, 'State Abbreviations'!A10:B60,2,1)</f>
         <v>DE</v>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F10" s="40" t="str">
         <f>IFERROR(VLOOKUP(A10,'State Income (2001-2004)'!A10:C198, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9605,11 +9716,11 @@
       <c r="D11" s="6">
         <v>319647.56</v>
       </c>
-      <c r="E11" s="44" t="str">
+      <c r="E11" s="43" t="str">
         <f>VLOOKUP(A11, 'State Abbreviations'!A11:B61,2,1)</f>
         <v>FL</v>
       </c>
-      <c r="F11" s="41" t="str">
+      <c r="F11" s="40" t="str">
         <f>IFERROR(VLOOKUP(A11,'State Income (2001-2004)'!A11:C199, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9627,11 +9738,11 @@
       <c r="D12" s="6">
         <v>245593.59</v>
       </c>
-      <c r="E12" s="44" t="str">
+      <c r="E12" s="43" t="str">
         <f>VLOOKUP(A12, 'State Abbreviations'!A12:B62,2,1)</f>
         <v>GA</v>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="40" t="str">
         <f>IFERROR(VLOOKUP(A12,'State Income (2001-2004)'!A12:C200, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9649,11 +9760,11 @@
       <c r="D13" s="6">
         <v>48461.48</v>
       </c>
-      <c r="E13" s="44" t="str">
+      <c r="E13" s="43" t="str">
         <f>VLOOKUP(A13, 'State Abbreviations'!A13:B63,2,1)</f>
         <v>HI</v>
       </c>
-      <c r="F13" s="41" t="str">
+      <c r="F13" s="40" t="str">
         <f>IFERROR(VLOOKUP(A13,'State Income (2001-2004)'!A13:C201, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9671,11 +9782,11 @@
       <c r="D14" s="6">
         <v>38818.589999999997</v>
       </c>
-      <c r="E14" s="44" t="str">
+      <c r="E14" s="43" t="str">
         <f>VLOOKUP(A14, 'State Abbreviations'!A14:B64,2,1)</f>
         <v>ID</v>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F14" s="40" t="str">
         <f>IFERROR(VLOOKUP(A14,'State Income (2001-2004)'!A14:C202, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9693,11 +9804,11 @@
       <c r="D15" s="6">
         <v>496771.72000000003</v>
       </c>
-      <c r="E15" s="44" t="str">
+      <c r="E15" s="43" t="str">
         <f>VLOOKUP(A15, 'State Abbreviations'!A15:B65,2,1)</f>
         <v>IL</v>
       </c>
-      <c r="F15" s="41" t="str">
+      <c r="F15" s="40" t="str">
         <f>IFERROR(VLOOKUP(A15,'State Income (2001-2004)'!A15:C203, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9715,11 +9826,11 @@
       <c r="D16" s="6">
         <v>243219.4</v>
       </c>
-      <c r="E16" s="44" t="str">
+      <c r="E16" s="43" t="str">
         <f>VLOOKUP(A16, 'State Abbreviations'!A16:B66,2,1)</f>
         <v>IN</v>
       </c>
-      <c r="F16" s="41" t="str">
+      <c r="F16" s="40" t="str">
         <f>IFERROR(VLOOKUP(A16,'State Income (2001-2004)'!A16:C204, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9737,15 +9848,15 @@
       <c r="D17" s="6">
         <v>58526.48</v>
       </c>
-      <c r="E17" s="44" t="str">
+      <c r="E17" s="43" t="str">
         <f>VLOOKUP(A17, 'State Abbreviations'!A17:B67,2,1)</f>
         <v>IA</v>
       </c>
-      <c r="F17" s="41" t="str">
+      <c r="F17" s="40" t="str">
         <f>IFERROR(VLOOKUP(A17,'State Income (2001-2004)'!A17:C205, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="52" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9762,15 +9873,15 @@
       <c r="D18" s="6">
         <v>107536.72</v>
       </c>
-      <c r="E18" s="44" t="str">
+      <c r="E18" s="43" t="str">
         <f>VLOOKUP(A18, 'State Abbreviations'!A18:B68,2,1)</f>
         <v>KS</v>
       </c>
-      <c r="F18" s="41" t="str">
+      <c r="F18" s="40" t="str">
         <f>IFERROR(VLOOKUP(A18,'State Income (2001-2004)'!A18:C206, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="52" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9787,11 +9898,11 @@
       <c r="D19" s="6">
         <v>161670.76</v>
       </c>
-      <c r="E19" s="44" t="str">
+      <c r="E19" s="43" t="str">
         <f>VLOOKUP(A19, 'State Abbreviations'!A19:B69,2,1)</f>
         <v>KY</v>
       </c>
-      <c r="F19" s="41" t="str">
+      <c r="F19" s="40" t="str">
         <f>IFERROR(VLOOKUP(A19,'State Income (2001-2004)'!A19:C207, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9809,11 +9920,11 @@
       <c r="D20" s="6">
         <v>89379.520000000004</v>
       </c>
-      <c r="E20" s="44" t="str">
+      <c r="E20" s="43" t="str">
         <f>VLOOKUP(A20, 'State Abbreviations'!A20:B70,2,1)</f>
         <v>LA</v>
       </c>
-      <c r="F20" s="41" t="str">
+      <c r="F20" s="40" t="str">
         <f>IFERROR(VLOOKUP(A20,'State Income (2001-2004)'!A20:C208, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9831,11 +9942,11 @@
       <c r="D21" s="6">
         <v>38247.689999999995</v>
       </c>
-      <c r="E21" s="44" t="str">
+      <c r="E21" s="43" t="str">
         <f>VLOOKUP(A21, 'State Abbreviations'!A21:B71,2,1)</f>
         <v>ME</v>
       </c>
-      <c r="F21" s="41" t="str">
+      <c r="F21" s="40" t="str">
         <f>IFERROR(VLOOKUP(A21,'State Income (2001-2004)'!A21:C209, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9853,11 +9964,11 @@
       <c r="D22" s="6">
         <v>158894.57999999999</v>
       </c>
-      <c r="E22" s="44" t="str">
+      <c r="E22" s="43" t="str">
         <f>VLOOKUP(A22, 'State Abbreviations'!A22:B72,2,1)</f>
         <v>MD</v>
       </c>
-      <c r="F22" s="41" t="str">
+      <c r="F22" s="40" t="str">
         <f>IFERROR(VLOOKUP(A22,'State Income (2001-2004)'!A22:C210, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9875,11 +9986,11 @@
       <c r="D23" s="6">
         <v>253963.88</v>
       </c>
-      <c r="E23" s="44" t="str">
+      <c r="E23" s="43" t="str">
         <f>VLOOKUP(A23, 'State Abbreviations'!A23:B73,2,1)</f>
         <v>MA</v>
       </c>
-      <c r="F23" s="41" t="str">
+      <c r="F23" s="40" t="str">
         <f>IFERROR(VLOOKUP(A23,'State Income (2001-2004)'!A23:C211, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9897,11 +10008,11 @@
       <c r="D24" s="6">
         <v>198768.88</v>
       </c>
-      <c r="E24" s="44" t="str">
+      <c r="E24" s="43" t="str">
         <f>VLOOKUP(A24, 'State Abbreviations'!A24:B74,2,1)</f>
         <v>MI</v>
       </c>
-      <c r="F24" s="41" t="str">
+      <c r="F24" s="40" t="str">
         <f>IFERROR(VLOOKUP(A24,'State Income (2001-2004)'!A24:C212, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9919,11 +10030,11 @@
       <c r="D25" s="6">
         <v>196779.16</v>
       </c>
-      <c r="E25" s="44" t="str">
+      <c r="E25" s="43" t="str">
         <f>VLOOKUP(A25, 'State Abbreviations'!A25:B75,2,1)</f>
         <v>MN</v>
       </c>
-      <c r="F25" s="41" t="str">
+      <c r="F25" s="40" t="str">
         <f>IFERROR(VLOOKUP(A25,'State Income (2001-2004)'!A25:C213, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -9941,11 +10052,11 @@
       <c r="D26" s="6">
         <v>85339.739999999991</v>
       </c>
-      <c r="E26" s="44" t="str">
+      <c r="E26" s="43" t="str">
         <f>VLOOKUP(A26, 'State Abbreviations'!A26:B76,2,1)</f>
         <v>MS</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="40">
         <f>IFERROR(VLOOKUP(A26,'State Income (2001-2004)'!A26:C214, 3, 1), "NO INCOME DATA")</f>
         <v>22372</v>
       </c>
@@ -9963,11 +10074,11 @@
       <c r="D27" s="6">
         <v>111904.22</v>
       </c>
-      <c r="E27" s="44" t="str">
+      <c r="E27" s="43" t="str">
         <f>VLOOKUP(A27, 'State Abbreviations'!A27:B77,2,1)</f>
         <v>MO</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <f>IFERROR(VLOOKUP(A27,'State Income (2001-2004)'!A27:C215, 3, 1), "NO INCOME DATA")</f>
         <v>28936</v>
       </c>
@@ -9985,11 +10096,11 @@
       <c r="D28" s="6">
         <v>36087.800000000003</v>
       </c>
-      <c r="E28" s="44" t="str">
+      <c r="E28" s="43" t="str">
         <f>VLOOKUP(A28, 'State Abbreviations'!A28:B78,2,1)</f>
         <v>MT</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <f>IFERROR(VLOOKUP(A28,'State Income (2001-2004)'!A28:C216, 3, 1), "NO INCOME DATA")</f>
         <v>25020</v>
       </c>
@@ -10007,11 +10118,11 @@
       <c r="D29" s="6">
         <v>51337.89</v>
       </c>
-      <c r="E29" s="44" t="str">
+      <c r="E29" s="43" t="str">
         <f>VLOOKUP(A29, 'State Abbreviations'!A29:B79,2,1)</f>
         <v>NE</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="40">
         <f>IFERROR(VLOOKUP(A29,'State Income (2001-2004)'!A29:C217, 3, 1), "NO INCOME DATA")</f>
         <v>29771</v>
       </c>
@@ -10029,11 +10140,11 @@
       <c r="D30" s="6">
         <v>79930.28</v>
       </c>
-      <c r="E30" s="44" t="str">
+      <c r="E30" s="43" t="str">
         <f>VLOOKUP(A30, 'State Abbreviations'!A30:B80,2,1)</f>
         <v>NV</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="40">
         <f>IFERROR(VLOOKUP(A30,'State Income (2001-2004)'!A30:C218, 3, 1), "NO INCOME DATA")</f>
         <v>30180</v>
       </c>
@@ -10051,11 +10162,11 @@
       <c r="D31" s="6">
         <v>37073.58</v>
       </c>
-      <c r="E31" s="44" t="str">
+      <c r="E31" s="43" t="str">
         <f>VLOOKUP(A31, 'State Abbreviations'!A31:B81,2,1)</f>
         <v>NH</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="40">
         <f>IFERROR(VLOOKUP(A31,'State Income (2001-2004)'!A31:C219, 3, 1), "NO INCOME DATA")</f>
         <v>34334</v>
       </c>
@@ -10073,11 +10184,11 @@
       <c r="D32" s="6">
         <v>336574</v>
       </c>
-      <c r="E32" s="44" t="str">
+      <c r="E32" s="43" t="str">
         <f>VLOOKUP(A32, 'State Abbreviations'!A32:B82,2,1)</f>
         <v>NJ</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="40">
         <f>IFERROR(VLOOKUP(A32,'State Income (2001-2004)'!A32:C220, 3, 1), "NO INCOME DATA")</f>
         <v>39453</v>
       </c>
@@ -10095,11 +10206,11 @@
       <c r="D33" s="6">
         <v>54571.38</v>
       </c>
-      <c r="E33" s="44" t="str">
+      <c r="E33" s="43" t="str">
         <f>VLOOKUP(A33, 'State Abbreviations'!A33:B83,2,1)</f>
         <v>NM</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="40">
         <f>IFERROR(VLOOKUP(A33,'State Income (2001-2004)'!A33:C221, 3, 1), "NO INCOME DATA")</f>
         <v>23941</v>
       </c>
@@ -10117,11 +10228,11 @@
       <c r="D34" s="6">
         <v>759058.28</v>
       </c>
-      <c r="E34" s="44" t="str">
+      <c r="E34" s="43" t="str">
         <f>VLOOKUP(A34, 'State Abbreviations'!A34:B84,2,1)</f>
         <v>NY</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <f>IFERROR(VLOOKUP(A34,'State Income (2001-2004)'!A34:C222, 3, 1), "NO INCOME DATA")</f>
         <v>36043</v>
       </c>
@@ -10139,11 +10250,11 @@
       <c r="D35" s="6">
         <v>241479.38999999998</v>
       </c>
-      <c r="E35" s="44" t="str">
+      <c r="E35" s="43" t="str">
         <f>VLOOKUP(A35, 'State Abbreviations'!A35:B85,2,1)</f>
         <v>NC</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <f>IFERROR(VLOOKUP(A35,'State Income (2001-2004)'!A35:C223, 3, 1), "NO INCOME DATA")</f>
         <v>27711</v>
       </c>
@@ -10161,11 +10272,11 @@
       <c r="D36" s="6">
         <v>25688</v>
       </c>
-      <c r="E36" s="44" t="str">
+      <c r="E36" s="43" t="str">
         <f>VLOOKUP(A36, 'State Abbreviations'!A36:B86,2,1)</f>
         <v>ND</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <f>IFERROR(VLOOKUP(A36,'State Income (2001-2004)'!A36:C224, 3, 1), "NO INCOME DATA")</f>
         <v>26982</v>
       </c>
@@ -10183,11 +10294,11 @@
       <c r="D37" s="6">
         <v>227062.80000000002</v>
       </c>
-      <c r="E37" s="44" t="str">
+      <c r="E37" s="43" t="str">
         <f>VLOOKUP(A37, 'State Abbreviations'!A37:B87,2,1)</f>
         <v>OH</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <f>IFERROR(VLOOKUP(A37,'State Income (2001-2004)'!A37:C225, 3, 1), "NO INCOME DATA")</f>
         <v>29405</v>
       </c>
@@ -10205,11 +10316,11 @@
       <c r="D38" s="6">
         <v>69013.08</v>
       </c>
-      <c r="E38" s="44" t="str">
+      <c r="E38" s="43" t="str">
         <f>VLOOKUP(A38, 'State Abbreviations'!A38:B88,2,1)</f>
         <v>OK</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <f>IFERROR(VLOOKUP(A38,'State Income (2001-2004)'!A38:C226, 3, 1), "NO INCOME DATA")</f>
         <v>25575</v>
       </c>
@@ -10227,11 +10338,11 @@
       <c r="D39" s="6">
         <v>68427.98</v>
       </c>
-      <c r="E39" s="44" t="str">
+      <c r="E39" s="43" t="str">
         <f>VLOOKUP(A39, 'State Abbreviations'!A39:B89,2,1)</f>
         <v>OR</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <f>IFERROR(VLOOKUP(A39,'State Income (2001-2004)'!A39:C227, 3, 1), "NO INCOME DATA")</f>
         <v>28731</v>
       </c>
@@ -10249,11 +10360,11 @@
       <c r="D40" s="6">
         <v>245621.08000000002</v>
       </c>
-      <c r="E40" s="44" t="str">
+      <c r="E40" s="43" t="str">
         <f>VLOOKUP(A40, 'State Abbreviations'!A40:B90,2,1)</f>
         <v>PA</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="40">
         <f>IFERROR(VLOOKUP(A40,'State Income (2001-2004)'!A40:C228, 3, 1), "NO INCOME DATA")</f>
         <v>31727</v>
       </c>
@@ -10271,11 +10382,11 @@
       <c r="D41" s="6">
         <v>41932.76</v>
       </c>
-      <c r="E41" s="44" t="str">
+      <c r="E41" s="43" t="str">
         <f>VLOOKUP(A41, 'State Abbreviations'!A41:B91,2,1)</f>
         <v>RI</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="40">
         <f>IFERROR(VLOOKUP(A41,'State Income (2001-2004)'!A41:C229, 3, 1), "NO INCOME DATA")</f>
         <v>31319</v>
       </c>
@@ -10293,11 +10404,11 @@
       <c r="D42" s="6">
         <v>160480.48000000001</v>
       </c>
-      <c r="E42" s="44" t="str">
+      <c r="E42" s="43" t="str">
         <f>VLOOKUP(A42, 'State Abbreviations'!A42:B92,2,1)</f>
         <v>SC</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="40">
         <f>IFERROR(VLOOKUP(A42,'State Income (2001-2004)'!A42:C230, 3, 1), "NO INCOME DATA")</f>
         <v>25400</v>
       </c>
@@ -10315,11 +10426,11 @@
       <c r="D43" s="6">
         <v>30193.760000000002</v>
       </c>
-      <c r="E43" s="44" t="str">
+      <c r="E43" s="43" t="str">
         <f>VLOOKUP(A43, 'State Abbreviations'!A43:B93,2,1)</f>
         <v>SD</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="40">
         <f>IFERROR(VLOOKUP(A43,'State Income (2001-2004)'!A43:C231, 3, 1), "NO INCOME DATA")</f>
         <v>26894</v>
       </c>
@@ -10337,11 +10448,11 @@
       <c r="D44" s="6">
         <v>170678.49</v>
       </c>
-      <c r="E44" s="44" t="str">
+      <c r="E44" s="43" t="str">
         <f>VLOOKUP(A44, 'State Abbreviations'!A44:B94,2,1)</f>
         <v>TN</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="40">
         <f>IFERROR(VLOOKUP(A44,'State Income (2001-2004)'!A44:C232, 3, 1), "NO INCOME DATA")</f>
         <v>27671</v>
       </c>
@@ -10359,11 +10470,11 @@
       <c r="D45" s="6">
         <v>417036.4</v>
       </c>
-      <c r="E45" s="44" t="str">
+      <c r="E45" s="43" t="str">
         <f>VLOOKUP(A45, 'State Abbreviations'!A45:B95,2,1)</f>
         <v>TX</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="40">
         <f>IFERROR(VLOOKUP(A45,'State Income (2001-2004)'!A45:C233, 3, 1), "NO INCOME DATA")</f>
         <v>28551</v>
       </c>
@@ -10381,11 +10492,11 @@
       <c r="D46" s="6">
         <v>66995.069999999992</v>
       </c>
-      <c r="E46" s="44" t="str">
+      <c r="E46" s="43" t="str">
         <f>VLOOKUP(A46, 'State Abbreviations'!A46:B96,2,1)</f>
         <v>UT</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="40">
         <f>IFERROR(VLOOKUP(A46,'State Income (2001-2004)'!A46:C234, 3, 1), "NO INCOME DATA")</f>
         <v>24306</v>
       </c>
@@ -10403,11 +10514,11 @@
       <c r="D47" s="6">
         <v>18264.809999999998</v>
       </c>
-      <c r="E47" s="44" t="str">
+      <c r="E47" s="43" t="str">
         <f>VLOOKUP(A47, 'State Abbreviations'!A47:B97,2,1)</f>
         <v>VT</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="40">
         <f>IFERROR(VLOOKUP(A47,'State Income (2001-2004)'!A47:C235, 3, 1), "NO INCOME DATA")</f>
         <v>29567</v>
       </c>
@@ -10425,11 +10536,11 @@
       <c r="D48" s="6">
         <v>212355.44999999998</v>
       </c>
-      <c r="E48" s="44" t="str">
+      <c r="E48" s="43" t="str">
         <f>VLOOKUP(A48, 'State Abbreviations'!A48:B98,2,1)</f>
         <v>VA</v>
       </c>
-      <c r="F48" s="41">
+      <c r="F48" s="40">
         <f>IFERROR(VLOOKUP(A48,'State Income (2001-2004)'!A48:C236, 3, 1), "NO INCOME DATA")</f>
         <v>32922</v>
       </c>
@@ -10447,11 +10558,11 @@
       <c r="D49" s="6">
         <v>176823.63</v>
       </c>
-      <c r="E49" s="44" t="str">
+      <c r="E49" s="43" t="str">
         <f>VLOOKUP(A49, 'State Abbreviations'!A49:B99,2,1)</f>
         <v>WA</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F49" s="40">
         <f>IFERROR(VLOOKUP(A49,'State Income (2001-2004)'!A49:C237, 3, 1), "NO INCOME DATA")</f>
         <v>32677</v>
       </c>
@@ -10469,11 +10580,11 @@
       <c r="D50" s="6">
         <v>72333.759999999995</v>
       </c>
-      <c r="E50" s="44" t="str">
+      <c r="E50" s="43" t="str">
         <f>VLOOKUP(A50, 'State Abbreviations'!A50:B100,2,1)</f>
         <v>WV</v>
       </c>
-      <c r="F50" s="41">
+      <c r="F50" s="40">
         <f>IFERROR(VLOOKUP(A50,'State Income (2001-2004)'!A50:C238, 3, 1), "NO INCOME DATA")</f>
         <v>27215</v>
       </c>
@@ -10491,11 +10602,11 @@
       <c r="D51" s="6">
         <v>214547</v>
       </c>
-      <c r="E51" s="44" t="str">
+      <c r="E51" s="43" t="str">
         <f>VLOOKUP(A51, 'State Abbreviations'!A51:B101,2,1)</f>
         <v>WI</v>
       </c>
-      <c r="F51" s="41">
+      <c r="F51" s="40">
         <f>IFERROR(VLOOKUP(A51,'State Income (2001-2004)'!A51:C239, 3, 1), "NO INCOME DATA")</f>
         <v>33565</v>
       </c>
@@ -10513,11 +10624,11 @@
       <c r="D52" s="6">
         <v>19751.28</v>
       </c>
-      <c r="E52" s="44" t="str">
+      <c r="E52" s="43" t="str">
         <f>VLOOKUP(A52, 'State Abbreviations'!A52:B102,2,1)</f>
         <v>WY</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52" s="40">
         <f>IFERROR(VLOOKUP(A52,'State Income (2001-2004)'!A52:C240, 3, 1), "NO INCOME DATA")</f>
         <v>36778</v>
       </c>
@@ -10535,11 +10646,11 @@
       <c r="D53" s="6">
         <v>135905.46</v>
       </c>
-      <c r="E53" s="44" t="e">
+      <c r="E53" s="43" t="e">
         <f>VLOOKUP(A53, 'State Abbreviations'!A53:B103,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F53" s="41" t="str">
+      <c r="F53" s="40" t="str">
         <f>IFERROR(VLOOKUP(A53,'State Income (2001-2004)'!A53:C241, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10557,11 +10668,11 @@
       <c r="D54" s="6">
         <v>19663.05</v>
       </c>
-      <c r="E54" s="44" t="e">
+      <c r="E54" s="43" t="e">
         <f>VLOOKUP(A54, 'State Abbreviations'!A54:B104,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F54" s="41" t="str">
+      <c r="F54" s="40" t="str">
         <f>IFERROR(VLOOKUP(A54,'State Income (2001-2004)'!A54:C242, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10579,11 +10690,11 @@
       <c r="D55" s="6">
         <v>114876.68000000001</v>
       </c>
-      <c r="E55" s="44" t="e">
+      <c r="E55" s="43" t="e">
         <f>VLOOKUP(A55, 'State Abbreviations'!A55:B105,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F55" s="41" t="str">
+      <c r="F55" s="40" t="str">
         <f>IFERROR(VLOOKUP(A55,'State Income (2001-2004)'!A55:C243, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10601,11 +10712,11 @@
       <c r="D56" s="6">
         <v>110105.16</v>
       </c>
-      <c r="E56" s="44" t="e">
+      <c r="E56" s="43" t="e">
         <f>VLOOKUP(A56, 'State Abbreviations'!A56:B106,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F56" s="41" t="str">
+      <c r="F56" s="40" t="str">
         <f>IFERROR(VLOOKUP(A56,'State Income (2001-2004)'!A56:C244, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10623,11 +10734,11 @@
       <c r="D57" s="6">
         <v>1076813.97</v>
       </c>
-      <c r="E57" s="44" t="e">
+      <c r="E57" s="43" t="e">
         <f>VLOOKUP(A57, 'State Abbreviations'!A57:B107,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="41" t="str">
+      <c r="F57" s="40" t="str">
         <f>IFERROR(VLOOKUP(A57,'State Income (2001-2004)'!A57:C245, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10645,11 +10756,11 @@
       <c r="D58" s="6">
         <v>138042.09</v>
       </c>
-      <c r="E58" s="44" t="e">
+      <c r="E58" s="43" t="e">
         <f>VLOOKUP(A58, 'State Abbreviations'!A58:B108,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F58" s="41" t="str">
+      <c r="F58" s="40" t="str">
         <f>IFERROR(VLOOKUP(A58,'State Income (2001-2004)'!A58:C246, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10667,11 +10778,11 @@
       <c r="D59" s="6">
         <v>140144.16</v>
       </c>
-      <c r="E59" s="44" t="e">
+      <c r="E59" s="43" t="e">
         <f>VLOOKUP(A59, 'State Abbreviations'!A59:B109,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F59" s="41" t="str">
+      <c r="F59" s="40" t="str">
         <f>IFERROR(VLOOKUP(A59,'State Income (2001-2004)'!A59:C247, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10689,11 +10800,11 @@
       <c r="D60" s="6">
         <v>33214.559999999998</v>
       </c>
-      <c r="E60" s="44" t="e">
+      <c r="E60" s="43" t="e">
         <f>VLOOKUP(A60, 'State Abbreviations'!A60:B110,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="41" t="str">
+      <c r="F60" s="40" t="str">
         <f>IFERROR(VLOOKUP(A60,'State Income (2001-2004)'!A60:C248, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10711,11 +10822,11 @@
       <c r="D61" s="6">
         <v>16605.689999999999</v>
       </c>
-      <c r="E61" s="44" t="e">
+      <c r="E61" s="43" t="e">
         <f>VLOOKUP(A61, 'State Abbreviations'!A61:B111,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F61" s="41" t="str">
+      <c r="F61" s="40" t="str">
         <f>IFERROR(VLOOKUP(A61,'State Income (2001-2004)'!A61:C249, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10733,11 +10844,11 @@
       <c r="D62" s="6">
         <v>695886.44000000006</v>
       </c>
-      <c r="E62" s="44" t="e">
+      <c r="E62" s="43" t="e">
         <f>VLOOKUP(A62, 'State Abbreviations'!A62:B112,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F62" s="41" t="str">
+      <c r="F62" s="40" t="str">
         <f>IFERROR(VLOOKUP(A62,'State Income (2001-2004)'!A62:C250, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10755,11 +10866,11 @@
       <c r="D63" s="6">
         <v>176587.66</v>
       </c>
-      <c r="E63" s="44" t="e">
+      <c r="E63" s="43" t="e">
         <f>VLOOKUP(A63, 'State Abbreviations'!A63:B113,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F63" s="41" t="str">
+      <c r="F63" s="40" t="str">
         <f>IFERROR(VLOOKUP(A63,'State Income (2001-2004)'!A63:C251, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10777,11 +10888,11 @@
       <c r="D64" s="6">
         <v>50513.599999999999</v>
       </c>
-      <c r="E64" s="44" t="e">
+      <c r="E64" s="43" t="e">
         <f>VLOOKUP(A64, 'State Abbreviations'!A64:B114,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F64" s="41" t="str">
+      <c r="F64" s="40" t="str">
         <f>IFERROR(VLOOKUP(A64,'State Income (2001-2004)'!A64:C252, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10799,11 +10910,11 @@
       <c r="D65" s="6">
         <v>55730.48</v>
       </c>
-      <c r="E65" s="44" t="e">
+      <c r="E65" s="43" t="e">
         <f>VLOOKUP(A65, 'State Abbreviations'!A65:B115,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F65" s="41" t="str">
+      <c r="F65" s="40" t="str">
         <f>IFERROR(VLOOKUP(A65,'State Income (2001-2004)'!A65:C253, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10821,11 +10932,11 @@
       <c r="D66" s="6">
         <v>381409.01999999996</v>
       </c>
-      <c r="E66" s="44" t="e">
+      <c r="E66" s="43" t="e">
         <f>VLOOKUP(A66, 'State Abbreviations'!A66:B116,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F66" s="41" t="str">
+      <c r="F66" s="40" t="str">
         <f>IFERROR(VLOOKUP(A66,'State Income (2001-2004)'!A66:C254, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10843,11 +10954,11 @@
       <c r="D67" s="6">
         <v>187127.07</v>
       </c>
-      <c r="E67" s="44" t="e">
+      <c r="E67" s="43" t="e">
         <f>VLOOKUP(A67, 'State Abbreviations'!A67:B117,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F67" s="41" t="str">
+      <c r="F67" s="40" t="str">
         <f>IFERROR(VLOOKUP(A67,'State Income (2001-2004)'!A67:C255, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10865,11 +10976,11 @@
       <c r="D68" s="6">
         <v>59089.020000000004</v>
       </c>
-      <c r="E68" s="44" t="e">
+      <c r="E68" s="43" t="e">
         <f>VLOOKUP(A68, 'State Abbreviations'!A68:B118,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F68" s="41" t="str">
+      <c r="F68" s="40" t="str">
         <f>IFERROR(VLOOKUP(A68,'State Income (2001-2004)'!A68:C256, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10887,11 +10998,11 @@
       <c r="D69" s="6">
         <v>109420.08</v>
       </c>
-      <c r="E69" s="44" t="e">
+      <c r="E69" s="43" t="e">
         <f>VLOOKUP(A69, 'State Abbreviations'!A69:B119,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F69" s="41" t="str">
+      <c r="F69" s="40" t="str">
         <f>IFERROR(VLOOKUP(A69,'State Income (2001-2004)'!A69:C257, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10909,11 +11020,11 @@
       <c r="D70" s="6">
         <v>124377.65999999999</v>
       </c>
-      <c r="E70" s="44" t="e">
+      <c r="E70" s="43" t="e">
         <f>VLOOKUP(A70, 'State Abbreviations'!A70:B120,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F70" s="41" t="str">
+      <c r="F70" s="40" t="str">
         <f>IFERROR(VLOOKUP(A70,'State Income (2001-2004)'!A70:C258, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10931,11 +11042,11 @@
       <c r="D71" s="6">
         <v>180630.80000000002</v>
       </c>
-      <c r="E71" s="44" t="e">
+      <c r="E71" s="43" t="e">
         <f>VLOOKUP(A71, 'State Abbreviations'!A71:B121,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F71" s="41" t="str">
+      <c r="F71" s="40" t="str">
         <f>IFERROR(VLOOKUP(A71,'State Income (2001-2004)'!A71:C259, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10953,11 +11064,11 @@
       <c r="D72" s="6">
         <v>52690.12</v>
       </c>
-      <c r="E72" s="44" t="e">
+      <c r="E72" s="43" t="e">
         <f>VLOOKUP(A72, 'State Abbreviations'!A72:B122,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F72" s="41" t="str">
+      <c r="F72" s="40" t="str">
         <f>IFERROR(VLOOKUP(A72,'State Income (2001-2004)'!A72:C260, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10975,11 +11086,11 @@
       <c r="D73" s="6">
         <v>111161.16</v>
       </c>
-      <c r="E73" s="44" t="e">
+      <c r="E73" s="43" t="e">
         <f>VLOOKUP(A73, 'State Abbreviations'!A73:B123,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F73" s="41" t="str">
+      <c r="F73" s="40" t="str">
         <f>IFERROR(VLOOKUP(A73,'State Income (2001-2004)'!A73:C261, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -10997,11 +11108,11 @@
       <c r="D74" s="6">
         <v>192495.15</v>
       </c>
-      <c r="E74" s="44" t="e">
+      <c r="E74" s="43" t="e">
         <f>VLOOKUP(A74, 'State Abbreviations'!A74:B124,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F74" s="41">
+      <c r="F74" s="40">
         <f>IFERROR(VLOOKUP(A74,'State Income (2001-2004)'!A74:C262, 3, 1), "NO INCOME DATA")</f>
         <v>39815</v>
       </c>
@@ -11019,11 +11130,11 @@
       <c r="D75" s="6">
         <v>202252.4</v>
       </c>
-      <c r="E75" s="44" t="e">
+      <c r="E75" s="43" t="e">
         <f>VLOOKUP(A75, 'State Abbreviations'!A75:B125,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F75" s="41">
+      <c r="F75" s="40">
         <f>IFERROR(VLOOKUP(A75,'State Income (2001-2004)'!A75:C263, 3, 1), "NO INCOME DATA")</f>
         <v>30439</v>
       </c>
@@ -11041,11 +11152,11 @@
       <c r="D76" s="6">
         <v>102019.16</v>
       </c>
-      <c r="E76" s="44" t="e">
+      <c r="E76" s="43" t="e">
         <f>VLOOKUP(A76, 'State Abbreviations'!A76:B126,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F76" s="41">
+      <c r="F76" s="40">
         <f>IFERROR(VLOOKUP(A76,'State Income (2001-2004)'!A76:C264, 3, 1), "NO INCOME DATA")</f>
         <v>34443</v>
       </c>
@@ -11063,11 +11174,11 @@
       <c r="D77" s="6">
         <v>58059.32</v>
       </c>
-      <c r="E77" s="44" t="e">
+      <c r="E77" s="43" t="e">
         <f>VLOOKUP(A77, 'State Abbreviations'!A77:B127,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F77" s="41">
+      <c r="F77" s="40">
         <f>IFERROR(VLOOKUP(A77,'State Income (2001-2004)'!A77:C265, 3, 1), "NO INCOME DATA")</f>
         <v>23448</v>
       </c>
@@ -11085,11 +11196,11 @@
       <c r="D78" s="6">
         <v>115092.36</v>
       </c>
-      <c r="E78" s="44" t="e">
+      <c r="E78" s="43" t="e">
         <f>VLOOKUP(A78, 'State Abbreviations'!A78:B128,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F78" s="41">
+      <c r="F78" s="40">
         <f>IFERROR(VLOOKUP(A78,'State Income (2001-2004)'!A78:C266, 3, 1), "NO INCOME DATA")</f>
         <v>29252</v>
       </c>
@@ -11107,11 +11218,11 @@
       <c r="D79" s="6">
         <v>27805.95</v>
       </c>
-      <c r="E79" s="44" t="e">
+      <c r="E79" s="43" t="e">
         <f>VLOOKUP(A79, 'State Abbreviations'!A79:B129,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F79" s="41">
+      <c r="F79" s="40">
         <f>IFERROR(VLOOKUP(A79,'State Income (2001-2004)'!A79:C267, 3, 1), "NO INCOME DATA")</f>
         <v>25920</v>
       </c>
@@ -11129,11 +11240,11 @@
       <c r="D80" s="6">
         <v>69888.56</v>
       </c>
-      <c r="E80" s="44" t="e">
+      <c r="E80" s="43" t="e">
         <f>VLOOKUP(A80, 'State Abbreviations'!A80:B130,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="40">
         <f>IFERROR(VLOOKUP(A80,'State Income (2001-2004)'!A80:C268, 3, 1), "NO INCOME DATA")</f>
         <v>30758</v>
       </c>
@@ -11151,11 +11262,11 @@
       <c r="D81" s="6">
         <v>93390.84</v>
       </c>
-      <c r="E81" s="44" t="e">
+      <c r="E81" s="43" t="e">
         <f>VLOOKUP(A81, 'State Abbreviations'!A81:B131,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F81" s="41">
+      <c r="F81" s="40">
         <f>IFERROR(VLOOKUP(A81,'State Income (2001-2004)'!A81:C269, 3, 1), "NO INCOME DATA")</f>
         <v>31266</v>
       </c>
@@ -11173,11 +11284,11 @@
       <c r="D82" s="6">
         <v>51980</v>
       </c>
-      <c r="E82" s="44" t="e">
+      <c r="E82" s="43" t="e">
         <f>VLOOKUP(A82, 'State Abbreviations'!A82:B132,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F82" s="41">
+      <c r="F82" s="40">
         <f>IFERROR(VLOOKUP(A82,'State Income (2001-2004)'!A82:C270, 3, 1), "NO INCOME DATA")</f>
         <v>34702</v>
       </c>
@@ -11195,11 +11306,11 @@
       <c r="D83" s="6">
         <v>260966.37</v>
       </c>
-      <c r="E83" s="44" t="e">
+      <c r="E83" s="43" t="e">
         <f>VLOOKUP(A83, 'State Abbreviations'!A83:B133,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F83" s="41">
+      <c r="F83" s="40">
         <f>IFERROR(VLOOKUP(A83,'State Income (2001-2004)'!A83:C271, 3, 1), "NO INCOME DATA")</f>
         <v>40427</v>
       </c>
@@ -11217,11 +11328,11 @@
       <c r="D84" s="6">
         <v>76131.56</v>
       </c>
-      <c r="E84" s="44" t="e">
+      <c r="E84" s="43" t="e">
         <f>VLOOKUP(A84, 'State Abbreviations'!A84:B134,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="41">
+      <c r="F84" s="40">
         <f>IFERROR(VLOOKUP(A84,'State Income (2001-2004)'!A84:C272, 3, 1), "NO INCOME DATA")</f>
         <v>25541</v>
       </c>
@@ -11239,11 +11350,11 @@
       <c r="D85" s="6">
         <v>576812.64</v>
       </c>
-      <c r="E85" s="44" t="e">
+      <c r="E85" s="43" t="e">
         <f>VLOOKUP(A85, 'State Abbreviations'!A85:B135,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="41">
+      <c r="F85" s="40">
         <f>IFERROR(VLOOKUP(A85,'State Income (2001-2004)'!A85:C273, 3, 1), "NO INCOME DATA")</f>
         <v>36574</v>
       </c>
@@ -11261,11 +11372,11 @@
       <c r="D86" s="6">
         <v>341648.84</v>
       </c>
-      <c r="E86" s="44" t="e">
+      <c r="E86" s="43" t="e">
         <f>VLOOKUP(A86, 'State Abbreviations'!A86:B136,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="41">
+      <c r="F86" s="40">
         <f>IFERROR(VLOOKUP(A86,'State Income (2001-2004)'!A86:C274, 3, 1), "NO INCOME DATA")</f>
         <v>28235</v>
       </c>
@@ -11283,11 +11394,11 @@
       <c r="D87" s="6">
         <v>19030.98</v>
       </c>
-      <c r="E87" s="44" t="e">
+      <c r="E87" s="43" t="e">
         <f>VLOOKUP(A87, 'State Abbreviations'!A87:B137,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="41">
+      <c r="F87" s="40">
         <f>IFERROR(VLOOKUP(A87,'State Income (2001-2004)'!A87:C275, 3, 1), "NO INCOME DATA")</f>
         <v>29204</v>
       </c>
@@ -11305,11 +11416,11 @@
       <c r="D88" s="6">
         <v>343770.33</v>
       </c>
-      <c r="E88" s="44" t="e">
+      <c r="E88" s="43" t="e">
         <f>VLOOKUP(A88, 'State Abbreviations'!A88:B138,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="41">
+      <c r="F88" s="40">
         <f>IFERROR(VLOOKUP(A88,'State Income (2001-2004)'!A88:C276, 3, 1), "NO INCOME DATA")</f>
         <v>29944</v>
       </c>
@@ -11327,11 +11438,11 @@
       <c r="D89" s="6">
         <v>140942.12</v>
       </c>
-      <c r="E89" s="44" t="e">
+      <c r="E89" s="43" t="e">
         <f>VLOOKUP(A89, 'State Abbreviations'!A89:B139,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="41">
+      <c r="F89" s="40">
         <f>IFERROR(VLOOKUP(A89,'State Income (2001-2004)'!A89:C277, 3, 1), "NO INCOME DATA")</f>
         <v>26656</v>
       </c>
@@ -11349,11 +11460,11 @@
       <c r="D90" s="6">
         <v>143783.44</v>
       </c>
-      <c r="E90" s="44" t="e">
+      <c r="E90" s="43" t="e">
         <f>VLOOKUP(A90, 'State Abbreviations'!A90:B140,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="41">
+      <c r="F90" s="40">
         <f>IFERROR(VLOOKUP(A90,'State Income (2001-2004)'!A90:C278, 3, 1), "NO INCOME DATA")</f>
         <v>29340</v>
       </c>
@@ -11371,11 +11482,11 @@
       <c r="D91" s="6">
         <v>496251.68</v>
       </c>
-      <c r="E91" s="44" t="e">
+      <c r="E91" s="43" t="e">
         <f>VLOOKUP(A91, 'State Abbreviations'!A91:B141,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="41">
+      <c r="F91" s="40">
         <f>IFERROR(VLOOKUP(A91,'State Income (2001-2004)'!A91:C279, 3, 1), "NO INCOME DATA")</f>
         <v>31998</v>
       </c>
@@ -11393,11 +11504,11 @@
       <c r="D92" s="6">
         <v>43225.279999999999</v>
       </c>
-      <c r="E92" s="44" t="e">
+      <c r="E92" s="43" t="e">
         <f>VLOOKUP(A92, 'State Abbreviations'!A92:B142,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="41">
+      <c r="F92" s="40">
         <f>IFERROR(VLOOKUP(A92,'State Income (2001-2004)'!A92:C280, 3, 1), "NO INCOME DATA")</f>
         <v>31916</v>
       </c>
@@ -11415,11 +11526,11 @@
       <c r="D93" s="6">
         <v>83961.36</v>
       </c>
-      <c r="E93" s="44" t="e">
+      <c r="E93" s="43" t="e">
         <f>VLOOKUP(A93, 'State Abbreviations'!A93:B143,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="41">
+      <c r="F93" s="40">
         <f>IFERROR(VLOOKUP(A93,'State Income (2001-2004)'!A93:C281, 3, 1), "NO INCOME DATA")</f>
         <v>26132</v>
       </c>
@@ -11437,11 +11548,11 @@
       <c r="D94" s="6">
         <v>23126.489999999998</v>
       </c>
-      <c r="E94" s="44" t="e">
+      <c r="E94" s="43" t="e">
         <f>VLOOKUP(A94, 'State Abbreviations'!A94:B144,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="41">
+      <c r="F94" s="40">
         <f>IFERROR(VLOOKUP(A94,'State Income (2001-2004)'!A94:C282, 3, 1), "NO INCOME DATA")</f>
         <v>29234</v>
       </c>
@@ -11459,11 +11570,11 @@
       <c r="D95" s="6">
         <v>118019.24</v>
       </c>
-      <c r="E95" s="44" t="e">
+      <c r="E95" s="43" t="e">
         <f>VLOOKUP(A95, 'State Abbreviations'!A95:B145,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="41">
+      <c r="F95" s="40">
         <f>IFERROR(VLOOKUP(A95,'State Income (2001-2004)'!A95:C283, 3, 1), "NO INCOME DATA")</f>
         <v>28455</v>
       </c>
@@ -11481,11 +11592,11 @@
       <c r="D96" s="6">
         <v>950569.24</v>
       </c>
-      <c r="E96" s="44" t="e">
+      <c r="E96" s="43" t="e">
         <f>VLOOKUP(A96, 'State Abbreviations'!A96:B146,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="41">
+      <c r="F96" s="40">
         <f>IFERROR(VLOOKUP(A96,'State Income (2001-2004)'!A96:C284, 3, 1), "NO INCOME DATA")</f>
         <v>29372</v>
       </c>
@@ -11503,11 +11614,11 @@
       <c r="D97" s="6">
         <v>47780.78</v>
       </c>
-      <c r="E97" s="44" t="e">
+      <c r="E97" s="43" t="e">
         <f>VLOOKUP(A97, 'State Abbreviations'!A97:B147,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="41">
+      <c r="F97" s="40">
         <f>IFERROR(VLOOKUP(A97,'State Income (2001-2004)'!A97:C285, 3, 1), "NO INCOME DATA")</f>
         <v>24977</v>
       </c>
@@ -11525,11 +11636,11 @@
       <c r="D98" s="6">
         <v>12427.880000000001</v>
       </c>
-      <c r="E98" s="44" t="e">
+      <c r="E98" s="43" t="e">
         <f>VLOOKUP(A98, 'State Abbreviations'!A98:B148,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="41">
+      <c r="F98" s="40">
         <f>IFERROR(VLOOKUP(A98,'State Income (2001-2004)'!A98:C286, 3, 1), "NO INCOME DATA")</f>
         <v>33327</v>
       </c>
@@ -11547,11 +11658,11 @@
       <c r="D99" s="6">
         <v>298393.08</v>
       </c>
-      <c r="E99" s="44" t="e">
+      <c r="E99" s="43" t="e">
         <f>VLOOKUP(A99, 'State Abbreviations'!A99:B149,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F99" s="41">
+      <c r="F99" s="40">
         <f>IFERROR(VLOOKUP(A99,'State Income (2001-2004)'!A99:C287, 3, 1), "NO INCOME DATA")</f>
         <v>38390</v>
       </c>
@@ -11569,11 +11680,11 @@
       <c r="D100" s="6">
         <v>124075.76000000001</v>
       </c>
-      <c r="E100" s="44" t="e">
+      <c r="E100" s="43" t="e">
         <f>VLOOKUP(A100, 'State Abbreviations'!A100:B150,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F100" s="41">
+      <c r="F100" s="40">
         <f>IFERROR(VLOOKUP(A100,'State Income (2001-2004)'!A100:C288, 3, 1), "NO INCOME DATA")</f>
         <v>35409</v>
       </c>
@@ -11591,11 +11702,11 @@
       <c r="D101" s="6">
         <v>36307.08</v>
       </c>
-      <c r="E101" s="44" t="e">
+      <c r="E101" s="43" t="e">
         <f>VLOOKUP(A101, 'State Abbreviations'!A101:B151,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F101" s="41">
+      <c r="F101" s="40">
         <f>IFERROR(VLOOKUP(A101,'State Income (2001-2004)'!A101:C289, 3, 1), "NO INCOME DATA")</f>
         <v>27215</v>
       </c>
@@ -11613,11 +11724,11 @@
       <c r="D102" s="6">
         <v>220361.04</v>
       </c>
-      <c r="E102" s="44" t="e">
+      <c r="E102" s="43" t="e">
         <f>VLOOKUP(A102, 'State Abbreviations'!A102:B152,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F102" s="41">
+      <c r="F102" s="40">
         <f>IFERROR(VLOOKUP(A102,'State Income (2001-2004)'!A102:C290, 3, 1), "NO INCOME DATA")</f>
         <v>33565</v>
       </c>
@@ -11635,11 +11746,11 @@
       <c r="D103" s="6">
         <v>15195.869999999999</v>
       </c>
-      <c r="E103" s="44" t="e">
+      <c r="E103" s="43" t="e">
         <f>VLOOKUP(A103, 'State Abbreviations'!A103:B153,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F103" s="41">
+      <c r="F103" s="40">
         <f>IFERROR(VLOOKUP(A103,'State Income (2001-2004)'!A103:C291, 3, 1), "NO INCOME DATA")</f>
         <v>36778</v>
       </c>
@@ -11657,11 +11768,11 @@
       <c r="D104" s="6">
         <v>143392.04999999999</v>
       </c>
-      <c r="E104" s="44" t="e">
+      <c r="E104" s="43" t="e">
         <f>VLOOKUP(A104, 'State Abbreviations'!A104:B154,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F104" s="41" t="str">
+      <c r="F104" s="40" t="str">
         <f>IFERROR(VLOOKUP(A104,'State Income (2001-2004)'!A104:C292, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11679,11 +11790,11 @@
       <c r="D105" s="6">
         <v>14204.62</v>
       </c>
-      <c r="E105" s="44" t="e">
+      <c r="E105" s="43" t="e">
         <f>VLOOKUP(A105, 'State Abbreviations'!A105:B155,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F105" s="41" t="str">
+      <c r="F105" s="40" t="str">
         <f>IFERROR(VLOOKUP(A105,'State Income (2001-2004)'!A105:C293, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11701,11 +11812,11 @@
       <c r="D106" s="6">
         <v>126580.26000000001</v>
       </c>
-      <c r="E106" s="44" t="e">
+      <c r="E106" s="43" t="e">
         <f>VLOOKUP(A106, 'State Abbreviations'!A106:B156,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F106" s="41" t="str">
+      <c r="F106" s="40" t="str">
         <f>IFERROR(VLOOKUP(A106,'State Income (2001-2004)'!A106:C294, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11723,11 +11834,11 @@
       <c r="D107" s="6">
         <v>58318.42</v>
       </c>
-      <c r="E107" s="44" t="e">
+      <c r="E107" s="43" t="e">
         <f>VLOOKUP(A107, 'State Abbreviations'!A107:B157,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F107" s="41" t="str">
+      <c r="F107" s="40" t="str">
         <f>IFERROR(VLOOKUP(A107,'State Income (2001-2004)'!A107:C295, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11745,11 +11856,11 @@
       <c r="D108" s="6">
         <v>745079.12</v>
       </c>
-      <c r="E108" s="44" t="e">
+      <c r="E108" s="43" t="e">
         <f>VLOOKUP(A108, 'State Abbreviations'!A108:B158,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F108" s="41" t="str">
+      <c r="F108" s="40" t="str">
         <f>IFERROR(VLOOKUP(A108,'State Income (2001-2004)'!A108:C296, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11767,11 +11878,11 @@
       <c r="D109" s="6">
         <v>201167.84</v>
       </c>
-      <c r="E109" s="44" t="e">
+      <c r="E109" s="43" t="e">
         <f>VLOOKUP(A109, 'State Abbreviations'!A109:B159,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F109" s="41" t="str">
+      <c r="F109" s="40" t="str">
         <f>IFERROR(VLOOKUP(A109,'State Income (2001-2004)'!A109:C297, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11789,11 +11900,11 @@
       <c r="D110" s="6">
         <v>142963.88</v>
       </c>
-      <c r="E110" s="44" t="e">
+      <c r="E110" s="43" t="e">
         <f>VLOOKUP(A110, 'State Abbreviations'!A110:B160,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F110" s="41" t="str">
+      <c r="F110" s="40" t="str">
         <f>IFERROR(VLOOKUP(A110,'State Income (2001-2004)'!A110:C298, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11811,11 +11922,11 @@
       <c r="D111" s="6">
         <v>26938.02</v>
       </c>
-      <c r="E111" s="44" t="e">
+      <c r="E111" s="43" t="e">
         <f>VLOOKUP(A111, 'State Abbreviations'!A111:B161,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F111" s="41" t="str">
+      <c r="F111" s="40" t="str">
         <f>IFERROR(VLOOKUP(A111,'State Income (2001-2004)'!A111:C299, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11833,11 +11944,11 @@
       <c r="D112" s="6">
         <v>18051.689999999999</v>
       </c>
-      <c r="E112" s="44" t="e">
+      <c r="E112" s="43" t="e">
         <f>VLOOKUP(A112, 'State Abbreviations'!A112:B162,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F112" s="41" t="str">
+      <c r="F112" s="40" t="str">
         <f>IFERROR(VLOOKUP(A112,'State Income (2001-2004)'!A112:C300, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11855,11 +11966,11 @@
       <c r="D113" s="6">
         <v>752052.44000000006</v>
       </c>
-      <c r="E113" s="44" t="e">
+      <c r="E113" s="43" t="e">
         <f>VLOOKUP(A113, 'State Abbreviations'!A113:B163,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F113" s="41" t="str">
+      <c r="F113" s="40" t="str">
         <f>IFERROR(VLOOKUP(A113,'State Income (2001-2004)'!A113:C301, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11877,11 +11988,11 @@
       <c r="D114" s="6">
         <v>193753.06</v>
       </c>
-      <c r="E114" s="44" t="e">
+      <c r="E114" s="43" t="e">
         <f>VLOOKUP(A114, 'State Abbreviations'!A114:B164,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F114" s="41" t="str">
+      <c r="F114" s="40" t="str">
         <f>IFERROR(VLOOKUP(A114,'State Income (2001-2004)'!A114:C302, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11899,11 +12010,11 @@
       <c r="D115" s="6">
         <v>54412.04</v>
       </c>
-      <c r="E115" s="44" t="e">
+      <c r="E115" s="43" t="e">
         <f>VLOOKUP(A115, 'State Abbreviations'!A115:B165,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F115" s="41" t="str">
+      <c r="F115" s="40" t="str">
         <f>IFERROR(VLOOKUP(A115,'State Income (2001-2004)'!A115:C303, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11921,11 +12032,11 @@
       <c r="D116" s="6">
         <v>47027.46</v>
       </c>
-      <c r="E116" s="44" t="e">
+      <c r="E116" s="43" t="e">
         <f>VLOOKUP(A116, 'State Abbreviations'!A116:B166,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F116" s="41" t="str">
+      <c r="F116" s="40" t="str">
         <f>IFERROR(VLOOKUP(A116,'State Income (2001-2004)'!A116:C304, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11943,11 +12054,11 @@
       <c r="D117" s="6">
         <v>256612.64</v>
       </c>
-      <c r="E117" s="44" t="e">
+      <c r="E117" s="43" t="e">
         <f>VLOOKUP(A117, 'State Abbreviations'!A117:B167,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F117" s="41" t="str">
+      <c r="F117" s="40" t="str">
         <f>IFERROR(VLOOKUP(A117,'State Income (2001-2004)'!A117:C305, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11965,11 +12076,11 @@
       <c r="D118" s="6">
         <v>259352</v>
       </c>
-      <c r="E118" s="44" t="e">
+      <c r="E118" s="43" t="e">
         <f>VLOOKUP(A118, 'State Abbreviations'!A118:B168,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F118" s="41" t="str">
+      <c r="F118" s="40" t="str">
         <f>IFERROR(VLOOKUP(A118,'State Income (2001-2004)'!A118:C306, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -11987,11 +12098,11 @@
       <c r="D119" s="6">
         <v>60927</v>
       </c>
-      <c r="E119" s="44" t="e">
+      <c r="E119" s="43" t="e">
         <f>VLOOKUP(A119, 'State Abbreviations'!A119:B169,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F119" s="41" t="str">
+      <c r="F119" s="40" t="str">
         <f>IFERROR(VLOOKUP(A119,'State Income (2001-2004)'!A119:C307, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12009,11 +12120,11 @@
       <c r="D120" s="6">
         <v>85593.54</v>
       </c>
-      <c r="E120" s="44" t="e">
+      <c r="E120" s="43" t="e">
         <f>VLOOKUP(A120, 'State Abbreviations'!A120:B170,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F120" s="41" t="str">
+      <c r="F120" s="40" t="str">
         <f>IFERROR(VLOOKUP(A120,'State Income (2001-2004)'!A120:C308, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12031,11 +12142,11 @@
       <c r="D121" s="6">
         <v>130180.86</v>
       </c>
-      <c r="E121" s="44" t="e">
+      <c r="E121" s="43" t="e">
         <f>VLOOKUP(A121, 'State Abbreviations'!A121:B171,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F121" s="41" t="str">
+      <c r="F121" s="40" t="str">
         <f>IFERROR(VLOOKUP(A121,'State Income (2001-2004)'!A121:C309, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12053,11 +12164,11 @@
       <c r="D122" s="6">
         <v>136001.16</v>
       </c>
-      <c r="E122" s="44" t="e">
+      <c r="E122" s="43" t="e">
         <f>VLOOKUP(A122, 'State Abbreviations'!A122:B172,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F122" s="41">
+      <c r="F122" s="40">
         <f>IFERROR(VLOOKUP(A122,'State Income (2001-2004)'!A122:C310, 3, 1), "NO INCOME DATA")</f>
         <v>24820</v>
       </c>
@@ -12075,11 +12186,11 @@
       <c r="D123" s="6">
         <v>26567.22</v>
       </c>
-      <c r="E123" s="44" t="e">
+      <c r="E123" s="43" t="e">
         <f>VLOOKUP(A123, 'State Abbreviations'!A123:B173,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F123" s="41">
+      <c r="F123" s="40">
         <f>IFERROR(VLOOKUP(A123,'State Income (2001-2004)'!A123:C311, 3, 1), "NO INCOME DATA")</f>
         <v>31252</v>
       </c>
@@ -12097,11 +12208,11 @@
       <c r="D124" s="6">
         <v>230942.08000000002</v>
       </c>
-      <c r="E124" s="44" t="e">
+      <c r="E124" s="43" t="e">
         <f>VLOOKUP(A124, 'State Abbreviations'!A124:B174,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F124" s="41">
+      <c r="F124" s="40">
         <f>IFERROR(VLOOKUP(A124,'State Income (2001-2004)'!A124:C312, 3, 1), "NO INCOME DATA")</f>
         <v>41760</v>
       </c>
@@ -12119,11 +12230,11 @@
       <c r="D125" s="6">
         <v>130952.58</v>
       </c>
-      <c r="E125" s="44" t="e">
+      <c r="E125" s="43" t="e">
         <f>VLOOKUP(A125, 'State Abbreviations'!A125:B175,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F125" s="41">
+      <c r="F125" s="40">
         <f>IFERROR(VLOOKUP(A125,'State Income (2001-2004)'!A125:C313, 3, 1), "NO INCOME DATA")</f>
         <v>44289</v>
       </c>
@@ -12141,11 +12252,11 @@
       <c r="D126" s="6">
         <v>197672.7</v>
       </c>
-      <c r="E126" s="44" t="e">
+      <c r="E126" s="43" t="e">
         <f>VLOOKUP(A126, 'State Abbreviations'!A126:B176,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F126" s="41">
+      <c r="F126" s="40">
         <f>IFERROR(VLOOKUP(A126,'State Income (2001-2004)'!A126:C314, 3, 1), "NO INCOME DATA")</f>
         <v>33116</v>
       </c>
@@ -12163,11 +12274,11 @@
       <c r="D127" s="6">
         <v>106078.5</v>
       </c>
-      <c r="E127" s="44" t="e">
+      <c r="E127" s="43" t="e">
         <f>VLOOKUP(A127, 'State Abbreviations'!A127:B177,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F127" s="41">
+      <c r="F127" s="40">
         <f>IFERROR(VLOOKUP(A127,'State Income (2001-2004)'!A127:C315, 3, 1), "NO INCOME DATA")</f>
         <v>37373</v>
       </c>
@@ -12185,11 +12296,11 @@
       <c r="D128" s="6">
         <v>89018.91</v>
       </c>
-      <c r="E128" s="44" t="e">
+      <c r="E128" s="43" t="e">
         <f>VLOOKUP(A128, 'State Abbreviations'!A128:B178,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F128" s="41">
+      <c r="F128" s="40">
         <f>IFERROR(VLOOKUP(A128,'State Income (2001-2004)'!A128:C316, 3, 1), "NO INCOME DATA")</f>
         <v>25318</v>
       </c>
@@ -12207,11 +12318,11 @@
       <c r="D129" s="6">
         <v>119778.54000000001</v>
       </c>
-      <c r="E129" s="44" t="e">
+      <c r="E129" s="43" t="e">
         <f>VLOOKUP(A129, 'State Abbreviations'!A129:B179,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F129" s="41">
+      <c r="F129" s="40">
         <f>IFERROR(VLOOKUP(A129,'State Income (2001-2004)'!A129:C317, 3, 1), "NO INCOME DATA")</f>
         <v>31899</v>
       </c>
@@ -12229,11 +12340,11 @@
       <c r="D130" s="6">
         <v>29682.449999999997</v>
       </c>
-      <c r="E130" s="44" t="e">
+      <c r="E130" s="43" t="e">
         <f>VLOOKUP(A130, 'State Abbreviations'!A130:B180,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F130" s="41">
+      <c r="F130" s="40">
         <f>IFERROR(VLOOKUP(A130,'State Income (2001-2004)'!A130:C318, 3, 1), "NO INCOME DATA")</f>
         <v>29387</v>
       </c>
@@ -12251,11 +12362,11 @@
       <c r="D131" s="6">
         <v>36526.82</v>
       </c>
-      <c r="E131" s="44" t="e">
+      <c r="E131" s="43" t="e">
         <f>VLOOKUP(A131, 'State Abbreviations'!A131:B181,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F131" s="41">
+      <c r="F131" s="40">
         <f>IFERROR(VLOOKUP(A131,'State Income (2001-2004)'!A131:C319, 3, 1), "NO INCOME DATA")</f>
         <v>33616</v>
       </c>
@@ -12273,11 +12384,11 @@
       <c r="D132" s="6">
         <v>81016.53</v>
       </c>
-      <c r="E132" s="44" t="e">
+      <c r="E132" s="43" t="e">
         <f>VLOOKUP(A132, 'State Abbreviations'!A132:B182,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F132" s="41">
+      <c r="F132" s="40">
         <f>IFERROR(VLOOKUP(A132,'State Income (2001-2004)'!A132:C320, 3, 1), "NO INCOME DATA")</f>
         <v>33616</v>
       </c>
@@ -12295,11 +12406,11 @@
       <c r="D133" s="6">
         <v>26329.440000000002</v>
       </c>
-      <c r="E133" s="44" t="e">
+      <c r="E133" s="43" t="e">
         <f>VLOOKUP(A133, 'State Abbreviations'!A133:B183,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F133" s="41">
+      <c r="F133" s="40">
         <f>IFERROR(VLOOKUP(A133,'State Income (2001-2004)'!A133:C321, 3, 1), "NO INCOME DATA")</f>
         <v>38408</v>
       </c>
@@ -12317,11 +12428,11 @@
       <c r="D134" s="6">
         <v>263756.82</v>
       </c>
-      <c r="E134" s="44" t="e">
+      <c r="E134" s="43" t="e">
         <f>VLOOKUP(A134, 'State Abbreviations'!A134:B184,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F134" s="41">
+      <c r="F134" s="40">
         <f>IFERROR(VLOOKUP(A134,'State Income (2001-2004)'!A134:C322, 3, 1), "NO INCOME DATA")</f>
         <v>38408</v>
       </c>
@@ -12339,11 +12450,11 @@
       <c r="D135" s="6">
         <v>61775.399999999994</v>
       </c>
-      <c r="E135" s="44" t="e">
+      <c r="E135" s="43" t="e">
         <f>VLOOKUP(A135, 'State Abbreviations'!A135:B185,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F135" s="41">
+      <c r="F135" s="40">
         <f>IFERROR(VLOOKUP(A135,'State Income (2001-2004)'!A135:C323, 3, 1), "NO INCOME DATA")</f>
         <v>27644</v>
       </c>
@@ -12361,11 +12472,11 @@
       <c r="D136" s="6">
         <v>387562.08</v>
       </c>
-      <c r="E136" s="44" t="e">
+      <c r="E136" s="43" t="e">
         <f>VLOOKUP(A136, 'State Abbreviations'!A136:B186,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F136" s="41">
+      <c r="F136" s="40">
         <f>IFERROR(VLOOKUP(A136,'State Income (2001-2004)'!A136:C324, 3, 1), "NO INCOME DATA")</f>
         <v>27644</v>
       </c>
@@ -12383,11 +12494,11 @@
       <c r="D137" s="6">
         <v>190709.5</v>
       </c>
-      <c r="E137" s="44" t="e">
+      <c r="E137" s="43" t="e">
         <f>VLOOKUP(A137, 'State Abbreviations'!A137:B187,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F137" s="41">
+      <c r="F137" s="40">
         <f>IFERROR(VLOOKUP(A137,'State Income (2001-2004)'!A137:C325, 3, 1), "NO INCOME DATA")</f>
         <v>30553</v>
       </c>
@@ -12405,11 +12516,11 @@
       <c r="D138" s="6">
         <v>20177.73</v>
       </c>
-      <c r="E138" s="44" t="e">
+      <c r="E138" s="43" t="e">
         <f>VLOOKUP(A138, 'State Abbreviations'!A138:B188,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F138" s="41">
+      <c r="F138" s="40">
         <f>IFERROR(VLOOKUP(A138,'State Income (2001-2004)'!A138:C326, 3, 1), "NO INCOME DATA")</f>
         <v>31395</v>
       </c>
@@ -12427,11 +12538,11 @@
       <c r="D139" s="6">
         <v>346095.06</v>
       </c>
-      <c r="E139" s="44" t="e">
+      <c r="E139" s="43" t="e">
         <f>VLOOKUP(A139, 'State Abbreviations'!A139:B189,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F139" s="41">
+      <c r="F139" s="40">
         <f>IFERROR(VLOOKUP(A139,'State Income (2001-2004)'!A139:C327, 3, 1), "NO INCOME DATA")</f>
         <v>32478</v>
       </c>
@@ -12449,11 +12560,11 @@
       <c r="D140" s="6">
         <v>112540.62</v>
       </c>
-      <c r="E140" s="44" t="e">
+      <c r="E140" s="43" t="e">
         <f>VLOOKUP(A140, 'State Abbreviations'!A140:B190,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F140" s="41">
+      <c r="F140" s="40">
         <f>IFERROR(VLOOKUP(A140,'State Income (2001-2004)'!A140:C328, 3, 1), "NO INCOME DATA")</f>
         <v>29330</v>
       </c>
@@ -12471,11 +12582,11 @@
       <c r="D141" s="6">
         <v>114932.22</v>
       </c>
-      <c r="E141" s="44" t="e">
+      <c r="E141" s="43" t="e">
         <f>VLOOKUP(A141, 'State Abbreviations'!A141:B191,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F141" s="41">
+      <c r="F141" s="40">
         <f>IFERROR(VLOOKUP(A141,'State Income (2001-2004)'!A141:C329, 3, 1), "NO INCOME DATA")</f>
         <v>32103</v>
       </c>
@@ -12493,11 +12604,11 @@
       <c r="D142" s="6">
         <v>254047.58000000002</v>
       </c>
-      <c r="E142" s="44" t="e">
+      <c r="E142" s="43" t="e">
         <f>VLOOKUP(A142, 'State Abbreviations'!A142:B192,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F142" s="41">
+      <c r="F142" s="40">
         <f>IFERROR(VLOOKUP(A142,'State Income (2001-2004)'!A142:C330, 3, 1), "NO INCOME DATA")</f>
         <v>34897</v>
       </c>
@@ -12515,11 +12626,11 @@
       <c r="D143" s="6">
         <v>42102.68</v>
       </c>
-      <c r="E143" s="44" t="e">
+      <c r="E143" s="43" t="e">
         <f>VLOOKUP(A143, 'State Abbreviations'!A143:B193,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F143" s="41">
+      <c r="F143" s="40">
         <f>IFERROR(VLOOKUP(A143,'State Income (2001-2004)'!A143:C331, 3, 1), "NO INCOME DATA")</f>
         <v>36153</v>
       </c>
@@ -12537,11 +12648,11 @@
       <c r="D144" s="6">
         <v>138760.91999999998</v>
       </c>
-      <c r="E144" s="44" t="e">
+      <c r="E144" s="43" t="e">
         <f>VLOOKUP(A144, 'State Abbreviations'!A144:B194,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F144" s="41">
+      <c r="F144" s="40">
         <f>IFERROR(VLOOKUP(A144,'State Income (2001-2004)'!A144:C332, 3, 1), "NO INCOME DATA")</f>
         <v>28352</v>
       </c>
@@ -12559,11 +12670,11 @@
       <c r="D145" s="6">
         <v>24425.399999999998</v>
       </c>
-      <c r="E145" s="44" t="e">
+      <c r="E145" s="43" t="e">
         <f>VLOOKUP(A145, 'State Abbreviations'!A145:B195,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F145" s="41">
+      <c r="F145" s="40">
         <f>IFERROR(VLOOKUP(A145,'State Income (2001-2004)'!A145:C333, 3, 1), "NO INCOME DATA")</f>
         <v>31614</v>
       </c>
@@ -12581,11 +12692,11 @@
       <c r="D146" s="6">
         <v>253844.4</v>
       </c>
-      <c r="E146" s="44" t="e">
+      <c r="E146" s="43" t="e">
         <f>VLOOKUP(A146, 'State Abbreviations'!A146:B196,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F146" s="41">
+      <c r="F146" s="40">
         <f>IFERROR(VLOOKUP(A146,'State Income (2001-2004)'!A146:C334, 3, 1), "NO INCOME DATA")</f>
         <v>31107</v>
       </c>
@@ -12603,11 +12714,11 @@
       <c r="D147" s="6">
         <v>754366.83</v>
       </c>
-      <c r="E147" s="44" t="e">
+      <c r="E147" s="43" t="e">
         <f>VLOOKUP(A147, 'State Abbreviations'!A147:B197,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F147" s="41">
+      <c r="F147" s="40">
         <f>IFERROR(VLOOKUP(A147,'State Income (2001-2004)'!A147:C335, 3, 1), "NO INCOME DATA")</f>
         <v>32462</v>
       </c>
@@ -12625,11 +12736,11 @@
       <c r="D148" s="6">
         <v>55277.700000000004</v>
       </c>
-      <c r="E148" s="44" t="e">
+      <c r="E148" s="43" t="e">
         <f>VLOOKUP(A148, 'State Abbreviations'!A148:B198,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F148" s="41">
+      <c r="F148" s="40">
         <f>IFERROR(VLOOKUP(A148,'State Income (2001-2004)'!A148:C336, 3, 1), "NO INCOME DATA")</f>
         <v>32462</v>
       </c>
@@ -12647,11 +12758,11 @@
       <c r="D149" s="6">
         <v>12514.82</v>
       </c>
-      <c r="E149" s="44" t="e">
+      <c r="E149" s="43" t="e">
         <f>VLOOKUP(A149, 'State Abbreviations'!A149:B199,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F149" s="41">
+      <c r="F149" s="40">
         <f>IFERROR(VLOOKUP(A149,'State Income (2001-2004)'!A149:C337, 3, 1), "NO INCOME DATA")</f>
         <v>33327</v>
       </c>
@@ -12669,11 +12780,11 @@
       <c r="D150" s="6">
         <v>240030.72</v>
       </c>
-      <c r="E150" s="44" t="e">
+      <c r="E150" s="43" t="e">
         <f>VLOOKUP(A150, 'State Abbreviations'!A150:B200,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F150" s="41">
+      <c r="F150" s="40">
         <f>IFERROR(VLOOKUP(A150,'State Income (2001-2004)'!A150:C338, 3, 1), "NO INCOME DATA")</f>
         <v>38390</v>
       </c>
@@ -12691,11 +12802,11 @@
       <c r="D151" s="6">
         <v>268981.59999999998</v>
       </c>
-      <c r="E151" s="44" t="e">
+      <c r="E151" s="43" t="e">
         <f>VLOOKUP(A151, 'State Abbreviations'!A151:B201,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F151" s="41">
+      <c r="F151" s="40">
         <f>IFERROR(VLOOKUP(A151,'State Income (2001-2004)'!A151:C339, 3, 1), "NO INCOME DATA")</f>
         <v>35409</v>
       </c>
@@ -12713,11 +12824,11 @@
       <c r="D152" s="6">
         <v>37059.919999999998</v>
       </c>
-      <c r="E152" s="44" t="e">
+      <c r="E152" s="43" t="e">
         <f>VLOOKUP(A152, 'State Abbreviations'!A152:B202,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F152" s="41">
+      <c r="F152" s="40">
         <f>IFERROR(VLOOKUP(A152,'State Income (2001-2004)'!A152:C340, 3, 1), "NO INCOME DATA")</f>
         <v>27215</v>
       </c>
@@ -12735,11 +12846,11 @@
       <c r="D153" s="6">
         <v>113739.72</v>
       </c>
-      <c r="E153" s="44" t="e">
+      <c r="E153" s="43" t="e">
         <f>VLOOKUP(A153, 'State Abbreviations'!A153:B203,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F153" s="41">
+      <c r="F153" s="40">
         <f>IFERROR(VLOOKUP(A153,'State Income (2001-2004)'!A153:C341, 3, 1), "NO INCOME DATA")</f>
         <v>33565</v>
       </c>
@@ -12757,11 +12868,11 @@
       <c r="D154" s="6">
         <v>11272.52</v>
       </c>
-      <c r="E154" s="44" t="e">
+      <c r="E154" s="43" t="e">
         <f>VLOOKUP(A154, 'State Abbreviations'!A154:B204,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F154" s="41">
+      <c r="F154" s="40">
         <f>IFERROR(VLOOKUP(A154,'State Income (2001-2004)'!A154:C342, 3, 1), "NO INCOME DATA")</f>
         <v>36778</v>
       </c>
@@ -12779,11 +12890,11 @@
       <c r="D155" s="6">
         <v>96440.46</v>
       </c>
-      <c r="E155" s="44" t="e">
+      <c r="E155" s="43" t="e">
         <f>VLOOKUP(A155, 'State Abbreviations'!A155:B205,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F155" s="41" t="str">
+      <c r="F155" s="40" t="str">
         <f>IFERROR(VLOOKUP(A155,'State Income (2001-2004)'!A155:C343, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12801,11 +12912,11 @@
       <c r="D156" s="6">
         <v>14628.98</v>
       </c>
-      <c r="E156" s="44" t="e">
+      <c r="E156" s="43" t="e">
         <f>VLOOKUP(A156, 'State Abbreviations'!A156:B206,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F156" s="41" t="str">
+      <c r="F156" s="40" t="str">
         <f>IFERROR(VLOOKUP(A156,'State Income (2001-2004)'!A156:C344, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12823,11 +12934,11 @@
       <c r="D157" s="6">
         <v>262130.2</v>
       </c>
-      <c r="E157" s="44" t="e">
+      <c r="E157" s="43" t="e">
         <f>VLOOKUP(A157, 'State Abbreviations'!A157:B207,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F157" s="41" t="str">
+      <c r="F157" s="40" t="str">
         <f>IFERROR(VLOOKUP(A157,'State Income (2001-2004)'!A157:C345, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12845,11 +12956,11 @@
       <c r="D158" s="6">
         <v>88473.93</v>
       </c>
-      <c r="E158" s="44" t="e">
+      <c r="E158" s="43" t="e">
         <f>VLOOKUP(A158, 'State Abbreviations'!A158:B208,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F158" s="41" t="str">
+      <c r="F158" s="40" t="str">
         <f>IFERROR(VLOOKUP(A158,'State Income (2001-2004)'!A158:C346, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12867,11 +12978,11 @@
       <c r="D159" s="6">
         <v>1141242.8999999999</v>
       </c>
-      <c r="E159" s="44" t="e">
+      <c r="E159" s="43" t="e">
         <f>VLOOKUP(A159, 'State Abbreviations'!A159:B209,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F159" s="41" t="str">
+      <c r="F159" s="40" t="str">
         <f>IFERROR(VLOOKUP(A159,'State Income (2001-2004)'!A159:C347, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12889,11 +13000,11 @@
       <c r="D160" s="6">
         <v>155627.46</v>
       </c>
-      <c r="E160" s="44" t="e">
+      <c r="E160" s="43" t="e">
         <f>VLOOKUP(A160, 'State Abbreviations'!A160:B210,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F160" s="41" t="str">
+      <c r="F160" s="40" t="str">
         <f>IFERROR(VLOOKUP(A160,'State Income (2001-2004)'!A160:C348, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12911,11 +13022,11 @@
       <c r="D161" s="6">
         <v>71806.94</v>
       </c>
-      <c r="E161" s="44" t="e">
+      <c r="E161" s="43" t="e">
         <f>VLOOKUP(A161, 'State Abbreviations'!A161:B211,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F161" s="41" t="str">
+      <c r="F161" s="40" t="str">
         <f>IFERROR(VLOOKUP(A161,'State Income (2001-2004)'!A161:C349, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12933,11 +13044,11 @@
       <c r="D162" s="6">
         <v>18341.84</v>
       </c>
-      <c r="E162" s="44" t="e">
+      <c r="E162" s="43" t="e">
         <f>VLOOKUP(A162, 'State Abbreviations'!A162:B212,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F162" s="41" t="str">
+      <c r="F162" s="40" t="str">
         <f>IFERROR(VLOOKUP(A162,'State Income (2001-2004)'!A162:C350, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12955,11 +13066,11 @@
       <c r="D163" s="6">
         <v>25292.920000000002</v>
       </c>
-      <c r="E163" s="44" t="e">
+      <c r="E163" s="43" t="e">
         <f>VLOOKUP(A163, 'State Abbreviations'!A163:B213,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F163" s="41" t="str">
+      <c r="F163" s="40" t="str">
         <f>IFERROR(VLOOKUP(A163,'State Income (2001-2004)'!A163:C351, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12977,11 +13088,11 @@
       <c r="D164" s="6">
         <v>579527.03999999992</v>
       </c>
-      <c r="E164" s="44" t="e">
+      <c r="E164" s="43" t="e">
         <f>VLOOKUP(A164, 'State Abbreviations'!A164:B214,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F164" s="41" t="str">
+      <c r="F164" s="40" t="str">
         <f>IFERROR(VLOOKUP(A164,'State Income (2001-2004)'!A164:C352, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -12999,11 +13110,11 @@
       <c r="D165" s="6">
         <v>396797.8</v>
       </c>
-      <c r="E165" s="44" t="e">
+      <c r="E165" s="43" t="e">
         <f>VLOOKUP(A165, 'State Abbreviations'!A165:B215,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F165" s="41" t="str">
+      <c r="F165" s="40" t="str">
         <f>IFERROR(VLOOKUP(A165,'State Income (2001-2004)'!A165:C353, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13021,11 +13132,11 @@
       <c r="D166" s="6">
         <v>55692.520000000004</v>
       </c>
-      <c r="E166" s="44" t="e">
+      <c r="E166" s="43" t="e">
         <f>VLOOKUP(A166, 'State Abbreviations'!A166:B216,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F166" s="41" t="str">
+      <c r="F166" s="40" t="str">
         <f>IFERROR(VLOOKUP(A166,'State Income (2001-2004)'!A166:C354, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13043,11 +13154,11 @@
       <c r="D167" s="6">
         <v>31914.560000000001</v>
       </c>
-      <c r="E167" s="44" t="e">
+      <c r="E167" s="43" t="e">
         <f>VLOOKUP(A167, 'State Abbreviations'!A167:B217,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F167" s="41" t="str">
+      <c r="F167" s="40" t="str">
         <f>IFERROR(VLOOKUP(A167,'State Income (2001-2004)'!A167:C355, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13065,11 +13176,11 @@
       <c r="D168" s="6">
         <v>386257.64999999997</v>
       </c>
-      <c r="E168" s="44" t="e">
+      <c r="E168" s="43" t="e">
         <f>VLOOKUP(A168, 'State Abbreviations'!A168:B218,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F168" s="41" t="str">
+      <c r="F168" s="40" t="str">
         <f>IFERROR(VLOOKUP(A168,'State Income (2001-2004)'!A168:C356, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13087,11 +13198,11 @@
       <c r="D169" s="6">
         <v>261493.36000000002</v>
       </c>
-      <c r="E169" s="44" t="e">
+      <c r="E169" s="43" t="e">
         <f>VLOOKUP(A169, 'State Abbreviations'!A169:B219,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F169" s="41" t="str">
+      <c r="F169" s="40" t="str">
         <f>IFERROR(VLOOKUP(A169,'State Income (2001-2004)'!A169:C357, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13109,11 +13220,11 @@
       <c r="D170" s="6">
         <v>122967.44</v>
       </c>
-      <c r="E170" s="44" t="e">
+      <c r="E170" s="43" t="e">
         <f>VLOOKUP(A170, 'State Abbreviations'!A170:B220,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F170" s="41" t="str">
+      <c r="F170" s="40" t="str">
         <f>IFERROR(VLOOKUP(A170,'State Income (2001-2004)'!A170:C358, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13131,11 +13242,11 @@
       <c r="D171" s="6">
         <v>86577.15</v>
       </c>
-      <c r="E171" s="44" t="e">
+      <c r="E171" s="43" t="e">
         <f>VLOOKUP(A171, 'State Abbreviations'!A171:B221,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F171" s="41" t="str">
+      <c r="F171" s="40" t="str">
         <f>IFERROR(VLOOKUP(A171,'State Income (2001-2004)'!A171:C359, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13153,11 +13264,11 @@
       <c r="D172" s="6">
         <v>175216.6</v>
       </c>
-      <c r="E172" s="44" t="e">
+      <c r="E172" s="43" t="e">
         <f>VLOOKUP(A172, 'State Abbreviations'!A172:B222,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F172" s="41" t="str">
+      <c r="F172" s="40" t="str">
         <f>IFERROR(VLOOKUP(A172,'State Income (2001-2004)'!A172:C360, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13175,11 +13286,11 @@
       <c r="D173" s="6">
         <v>92037.86</v>
       </c>
-      <c r="E173" s="44" t="e">
+      <c r="E173" s="43" t="e">
         <f>VLOOKUP(A173, 'State Abbreviations'!A173:B223,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F173" s="41" t="str">
+      <c r="F173" s="40" t="str">
         <f>IFERROR(VLOOKUP(A173,'State Income (2001-2004)'!A173:C361, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13197,11 +13308,11 @@
       <c r="D174" s="6">
         <v>39875.760000000002</v>
       </c>
-      <c r="E174" s="44" t="e">
+      <c r="E174" s="43" t="e">
         <f>VLOOKUP(A174, 'State Abbreviations'!A174:B224,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F174" s="41" t="str">
+      <c r="F174" s="40" t="str">
         <f>IFERROR(VLOOKUP(A174,'State Income (2001-2004)'!A174:C362, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13219,11 +13330,11 @@
       <c r="D175" s="6">
         <v>235382.52000000002</v>
       </c>
-      <c r="E175" s="44" t="e">
+      <c r="E175" s="43" t="e">
         <f>VLOOKUP(A175, 'State Abbreviations'!A175:B225,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F175" s="41" t="str">
+      <c r="F175" s="40" t="str">
         <f>IFERROR(VLOOKUP(A175,'State Income (2001-2004)'!A175:C363, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13241,11 +13352,11 @@
       <c r="D176" s="6">
         <v>265845.76000000001</v>
       </c>
-      <c r="E176" s="44" t="e">
+      <c r="E176" s="43" t="e">
         <f>VLOOKUP(A176, 'State Abbreviations'!A176:B226,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F176" s="41" t="str">
+      <c r="F176" s="40" t="str">
         <f>IFERROR(VLOOKUP(A176,'State Income (2001-2004)'!A176:C364, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13263,11 +13374,11 @@
       <c r="D177" s="6">
         <v>296500.8</v>
       </c>
-      <c r="E177" s="44" t="e">
+      <c r="E177" s="43" t="e">
         <f>VLOOKUP(A177, 'State Abbreviations'!A177:B227,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F177" s="41" t="str">
+      <c r="F177" s="40" t="str">
         <f>IFERROR(VLOOKUP(A177,'State Income (2001-2004)'!A177:C365, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13285,11 +13396,11 @@
       <c r="D178" s="6">
         <v>107582.78</v>
       </c>
-      <c r="E178" s="44" t="e">
+      <c r="E178" s="43" t="e">
         <f>VLOOKUP(A178, 'State Abbreviations'!A178:B228,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F178" s="41" t="str">
+      <c r="F178" s="40" t="str">
         <f>IFERROR(VLOOKUP(A178,'State Income (2001-2004)'!A178:C366, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13307,11 +13418,11 @@
       <c r="D179" s="6">
         <v>119397.04000000001</v>
       </c>
-      <c r="E179" s="44" t="e">
+      <c r="E179" s="43" t="e">
         <f>VLOOKUP(A179, 'State Abbreviations'!A179:B229,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F179" s="41" t="str">
+      <c r="F179" s="40" t="str">
         <f>IFERROR(VLOOKUP(A179,'State Income (2001-2004)'!A179:C367, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13329,11 +13440,11 @@
       <c r="D180" s="6">
         <v>120439.76000000001</v>
       </c>
-      <c r="E180" s="44" t="e">
+      <c r="E180" s="43" t="e">
         <f>VLOOKUP(A180, 'State Abbreviations'!A180:B230,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F180" s="41" t="str">
+      <c r="F180" s="40" t="str">
         <f>IFERROR(VLOOKUP(A180,'State Income (2001-2004)'!A180:C368, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13351,11 +13462,11 @@
       <c r="D181" s="6">
         <v>40205.64</v>
       </c>
-      <c r="E181" s="44" t="e">
+      <c r="E181" s="43" t="e">
         <f>VLOOKUP(A181, 'State Abbreviations'!A181:B231,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F181" s="41" t="str">
+      <c r="F181" s="40" t="str">
         <f>IFERROR(VLOOKUP(A181,'State Income (2001-2004)'!A181:C369, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13373,11 +13484,11 @@
       <c r="D182" s="6">
         <v>55665.75</v>
       </c>
-      <c r="E182" s="44" t="e">
+      <c r="E182" s="43" t="e">
         <f>VLOOKUP(A182, 'State Abbreviations'!A182:B232,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F182" s="41" t="str">
+      <c r="F182" s="40" t="str">
         <f>IFERROR(VLOOKUP(A182,'State Income (2001-2004)'!A182:C370, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13395,11 +13506,11 @@
       <c r="D183" s="6">
         <v>110357.24</v>
       </c>
-      <c r="E183" s="44" t="e">
+      <c r="E183" s="43" t="e">
         <f>VLOOKUP(A183, 'State Abbreviations'!A183:B233,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F183" s="41" t="str">
+      <c r="F183" s="40" t="str">
         <f>IFERROR(VLOOKUP(A183,'State Income (2001-2004)'!A183:C371, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13417,11 +13528,11 @@
       <c r="D184" s="6">
         <v>52828.72</v>
       </c>
-      <c r="E184" s="44" t="e">
+      <c r="E184" s="43" t="e">
         <f>VLOOKUP(A184, 'State Abbreviations'!A184:B234,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F184" s="41" t="str">
+      <c r="F184" s="40" t="str">
         <f>IFERROR(VLOOKUP(A184,'State Income (2001-2004)'!A184:C372, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13439,11 +13550,11 @@
       <c r="D185" s="6">
         <v>177291.80000000002</v>
       </c>
-      <c r="E185" s="44" t="e">
+      <c r="E185" s="43" t="e">
         <f>VLOOKUP(A185, 'State Abbreviations'!A185:B235,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F185" s="41" t="str">
+      <c r="F185" s="40" t="str">
         <f>IFERROR(VLOOKUP(A185,'State Income (2001-2004)'!A185:C373, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13461,11 +13572,11 @@
       <c r="D186" s="6">
         <v>83421.52</v>
       </c>
-      <c r="E186" s="44" t="e">
+      <c r="E186" s="43" t="e">
         <f>VLOOKUP(A186, 'State Abbreviations'!A186:B236,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F186" s="41" t="str">
+      <c r="F186" s="40" t="str">
         <f>IFERROR(VLOOKUP(A186,'State Income (2001-2004)'!A186:C374, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13483,11 +13594,11 @@
       <c r="D187" s="6">
         <v>587107.82999999996</v>
       </c>
-      <c r="E187" s="44" t="e">
+      <c r="E187" s="43" t="e">
         <f>VLOOKUP(A187, 'State Abbreviations'!A187:B237,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F187" s="41" t="str">
+      <c r="F187" s="40" t="str">
         <f>IFERROR(VLOOKUP(A187,'State Income (2001-2004)'!A187:C375, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13505,11 +13616,11 @@
       <c r="D188" s="6">
         <v>195041.46</v>
       </c>
-      <c r="E188" s="44" t="e">
+      <c r="E188" s="43" t="e">
         <f>VLOOKUP(A188, 'State Abbreviations'!A188:B238,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F188" s="41" t="str">
+      <c r="F188" s="40" t="str">
         <f>IFERROR(VLOOKUP(A188,'State Income (2001-2004)'!A188:C376, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13527,11 +13638,11 @@
       <c r="D189" s="6">
         <v>27985.119999999999</v>
       </c>
-      <c r="E189" s="44" t="e">
+      <c r="E189" s="43" t="e">
         <f>VLOOKUP(A189, 'State Abbreviations'!A189:B239,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F189" s="41" t="str">
+      <c r="F189" s="40" t="str">
         <f>IFERROR(VLOOKUP(A189,'State Income (2001-2004)'!A189:C377, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13549,11 +13660,11 @@
       <c r="D190" s="6">
         <v>230884.5</v>
       </c>
-      <c r="E190" s="44" t="e">
+      <c r="E190" s="43" t="e">
         <f>VLOOKUP(A190, 'State Abbreviations'!A190:B240,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F190" s="41" t="str">
+      <c r="F190" s="40" t="str">
         <f>IFERROR(VLOOKUP(A190,'State Income (2001-2004)'!A190:C378, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13571,11 +13682,11 @@
       <c r="D191" s="6">
         <v>152592.80000000002</v>
       </c>
-      <c r="E191" s="44" t="e">
+      <c r="E191" s="43" t="e">
         <f>VLOOKUP(A191, 'State Abbreviations'!A191:B241,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F191" s="41" t="str">
+      <c r="F191" s="40" t="str">
         <f>IFERROR(VLOOKUP(A191,'State Income (2001-2004)'!A191:C379, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13593,11 +13704,11 @@
       <c r="D192" s="6">
         <v>77987.06</v>
       </c>
-      <c r="E192" s="44" t="e">
+      <c r="E192" s="43" t="e">
         <f>VLOOKUP(A192, 'State Abbreviations'!A192:B242,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F192" s="41" t="str">
+      <c r="F192" s="40" t="str">
         <f>IFERROR(VLOOKUP(A192,'State Income (2001-2004)'!A192:C380, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13615,11 +13726,11 @@
       <c r="D193" s="6">
         <v>382906.07999999996</v>
       </c>
-      <c r="E193" s="44" t="e">
+      <c r="E193" s="43" t="e">
         <f>VLOOKUP(A193, 'State Abbreviations'!A193:B243,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F193" s="41" t="str">
+      <c r="F193" s="40" t="str">
         <f>IFERROR(VLOOKUP(A193,'State Income (2001-2004)'!A193:C381, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13637,11 +13748,11 @@
       <c r="D194" s="6">
         <v>31508.76</v>
       </c>
-      <c r="E194" s="44" t="e">
+      <c r="E194" s="43" t="e">
         <f>VLOOKUP(A194, 'State Abbreviations'!A194:B244,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F194" s="41" t="str">
+      <c r="F194" s="40" t="str">
         <f>IFERROR(VLOOKUP(A194,'State Income (2001-2004)'!A194:C382, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13659,11 +13770,11 @@
       <c r="D195" s="6">
         <v>141711.69</v>
       </c>
-      <c r="E195" s="44" t="e">
+      <c r="E195" s="43" t="e">
         <f>VLOOKUP(A195, 'State Abbreviations'!A195:B245,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F195" s="41" t="str">
+      <c r="F195" s="40" t="str">
         <f>IFERROR(VLOOKUP(A195,'State Income (2001-2004)'!A195:C383, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13681,11 +13792,11 @@
       <c r="D196" s="6">
         <v>33334.160000000003</v>
       </c>
-      <c r="E196" s="44" t="e">
+      <c r="E196" s="43" t="e">
         <f>VLOOKUP(A196, 'State Abbreviations'!A196:B246,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F196" s="41" t="str">
+      <c r="F196" s="40" t="str">
         <f>IFERROR(VLOOKUP(A196,'State Income (2001-2004)'!A196:C384, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13703,11 +13814,11 @@
       <c r="D197" s="6">
         <v>258249.72</v>
       </c>
-      <c r="E197" s="44" t="e">
+      <c r="E197" s="43" t="e">
         <f>VLOOKUP(A197, 'State Abbreviations'!A197:B247,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F197" s="41" t="str">
+      <c r="F197" s="40" t="str">
         <f>IFERROR(VLOOKUP(A197,'State Income (2001-2004)'!A197:C385, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13725,11 +13836,11 @@
       <c r="D198" s="6">
         <v>1042368.12</v>
       </c>
-      <c r="E198" s="44" t="e">
+      <c r="E198" s="43" t="e">
         <f>VLOOKUP(A198, 'State Abbreviations'!A198:B248,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F198" s="41" t="str">
+      <c r="F198" s="40" t="str">
         <f>IFERROR(VLOOKUP(A198,'State Income (2001-2004)'!A198:C386, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13747,11 +13858,11 @@
       <c r="D199" s="6">
         <v>114211.48</v>
       </c>
-      <c r="E199" s="44" t="e">
+      <c r="E199" s="43" t="e">
         <f>VLOOKUP(A199, 'State Abbreviations'!A199:B249,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F199" s="41" t="str">
+      <c r="F199" s="40" t="str">
         <f>IFERROR(VLOOKUP(A199,'State Income (2001-2004)'!A199:C387, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13769,11 +13880,11 @@
       <c r="D200" s="6">
         <v>25040.440000000002</v>
       </c>
-      <c r="E200" s="44" t="e">
+      <c r="E200" s="43" t="e">
         <f>VLOOKUP(A200, 'State Abbreviations'!A200:B250,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F200" s="41" t="str">
+      <c r="F200" s="40" t="str">
         <f>IFERROR(VLOOKUP(A200,'State Income (2001-2004)'!A200:C388, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13791,11 +13902,11 @@
       <c r="D201" s="6">
         <v>163717.34</v>
       </c>
-      <c r="E201" s="44" t="e">
+      <c r="E201" s="43" t="e">
         <f>VLOOKUP(A201, 'State Abbreviations'!A201:B251,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F201" s="41" t="str">
+      <c r="F201" s="40" t="str">
         <f>IFERROR(VLOOKUP(A201,'State Income (2001-2004)'!A201:C389, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13813,11 +13924,11 @@
       <c r="D202" s="6">
         <v>137940.24</v>
       </c>
-      <c r="E202" s="44" t="e">
+      <c r="E202" s="43" t="e">
         <f>VLOOKUP(A202, 'State Abbreviations'!A202:B252,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F202" s="41" t="str">
+      <c r="F202" s="40" t="str">
         <f>IFERROR(VLOOKUP(A202,'State Income (2001-2004)'!A202:C390, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13835,11 +13946,11 @@
       <c r="D203" s="6">
         <v>74216.52</v>
       </c>
-      <c r="E203" s="44" t="e">
+      <c r="E203" s="43" t="e">
         <f>VLOOKUP(A203, 'State Abbreviations'!A203:B253,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F203" s="41" t="str">
+      <c r="F203" s="40" t="str">
         <f>IFERROR(VLOOKUP(A203,'State Income (2001-2004)'!A203:C391, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13857,11 +13968,11 @@
       <c r="D204" s="6">
         <v>114527.96</v>
       </c>
-      <c r="E204" s="44" t="e">
+      <c r="E204" s="43" t="e">
         <f>VLOOKUP(A204, 'State Abbreviations'!A204:B254,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F204" s="41" t="str">
+      <c r="F204" s="40" t="str">
         <f>IFERROR(VLOOKUP(A204,'State Income (2001-2004)'!A204:C392, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -13879,11 +13990,11 @@
       <c r="D205" s="6">
         <v>11528.24</v>
       </c>
-      <c r="E205" s="44" t="e">
+      <c r="E205" s="43" t="e">
         <f>VLOOKUP(A205, 'State Abbreviations'!A205:B255,2,1)</f>
         <v>#N/A</v>
       </c>
-      <c r="F205" s="41" t="str">
+      <c r="F205" s="40" t="str">
         <f>IFERROR(VLOOKUP(A205,'State Income (2001-2004)'!A205:C393, 3, 1), "NO INCOME DATA")</f>
         <v>NO INCOME DATA</v>
       </c>
@@ -16469,7 +16580,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="46" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
@@ -16479,7 +16590,7 @@
       <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>204</v>
       </c>
       <c r="C1" s="19" t="s">
@@ -16505,7 +16616,7 @@
       <c r="F2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <v>2004</v>
       </c>
     </row>
@@ -16525,7 +16636,7 @@
       <c r="F3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>148</v>
       </c>
     </row>
@@ -16559,7 +16670,7 @@
       <c r="F5" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="44">
         <f>INDEX(B2:D18,MATCH(G2,A2:A18,0), MATCH(G3,B1:D1,0))</f>
         <v>46</v>
       </c>
@@ -16778,14 +16889,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -16794,7 +16905,7 @@
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>42370</v>
       </c>
       <c r="B2" s="2">
@@ -16803,13 +16914,13 @@
       <c r="C2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <f>COUNTA(A:A)-1</f>
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>42371</v>
       </c>
       <c r="B3" s="2">
@@ -16818,7 +16929,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>42372</v>
       </c>
       <c r="B4" s="2">
@@ -16827,13 +16938,13 @@
       <c r="C4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <f ca="1">OFFSET(A1,COUNTA(A:A)-1,0,1,1)</f>
         <v>42389</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>42373</v>
       </c>
       <c r="B5" s="2">
@@ -16842,7 +16953,7 @@
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>42374</v>
       </c>
       <c r="B6" s="2">
@@ -16851,22 +16962,22 @@
       <c r="C6" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <f ca="1">OFFSET(B1,COUNTA(B:B)-1,0,1,1)</f>
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>42375</v>
       </c>
       <c r="B7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>42376</v>
       </c>
       <c r="B8" s="2">
@@ -16875,26 +16986,26 @@
       <c r="C8" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <f>SUM(B2:B21)</f>
         <v>997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>42377</v>
       </c>
       <c r="B9" s="2">
         <v>53</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <f ca="1">SUM(OFFSET($B$1,0,0,COUNTA(B:B),1))</f>
         <v>997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>42378</v>
       </c>
       <c r="B10" s="2">
@@ -16903,13 +17014,13 @@
       <c r="C10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <f ca="1">SUM(OFFSET($B$1,0,0,COUNTA(B:B)-1,1))</f>
         <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>42379</v>
       </c>
       <c r="B11" s="2">
@@ -16918,7 +17029,7 @@
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>42380</v>
       </c>
       <c r="B12" s="2">
@@ -16926,7 +17037,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>42381</v>
       </c>
       <c r="B13" s="2">
@@ -16934,7 +17045,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>42382</v>
       </c>
       <c r="B14" s="2">
@@ -16942,7 +17053,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>42383</v>
       </c>
       <c r="B15" s="2">
@@ -16950,7 +17061,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>42384</v>
       </c>
       <c r="B16" s="2">
@@ -16958,7 +17069,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>42385</v>
       </c>
       <c r="B17" s="2">
@@ -16966,7 +17077,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>42386</v>
       </c>
       <c r="B18" s="2">
@@ -16974,7 +17085,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>42387</v>
       </c>
       <c r="B19" s="2">
@@ -16982,7 +17093,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>42388</v>
       </c>
       <c r="B20" s="2">
@@ -16990,7 +17101,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>42389</v>
       </c>
       <c r="B21" s="2">
@@ -17057,31 +17168,31 @@
       <c r="A2" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="41" t="str">
         <f>LEFT(A2,6)</f>
         <v>133462</v>
       </c>
-      <c r="C2" s="55" t="str">
+      <c r="C2" s="53" t="str">
         <f>LEFT(A2, SEARCH("-", A2)-1)</f>
         <v>133462</v>
       </c>
-      <c r="D2" s="42" t="str">
+      <c r="D2" s="41" t="str">
         <f>MID(A2,SEARCH("-",A2)+1,2)</f>
         <v>AA</v>
       </c>
-      <c r="E2" s="42" t="str">
+      <c r="E2" s="41" t="str">
         <f>IF(ISNUMBER(SEARCH("SMALL",A2)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A2)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A2)),"Large",IF(ISNUMBER(SEARCH("XL",A2)),"XL"))))</f>
         <v>Small</v>
       </c>
-      <c r="F2" s="42" t="str">
+      <c r="F2" s="41" t="str">
         <f>RIGHT(A2, LEN(A2)-SEARCH("_", A2))</f>
         <v>SMALL</v>
       </c>
-      <c r="G2" s="42" t="str">
+      <c r="G2" s="41" t="str">
         <f>SUBSTITUTE(A2,"-","|", 2)</f>
         <v>133462-AA|BOS_SMALL</v>
       </c>
-      <c r="H2" s="42" t="str">
+      <c r="H2" s="41" t="str">
         <f>MID(G2, SEARCH("|", G2)+1,3)</f>
         <v>BOS</v>
       </c>
@@ -17090,31 +17201,31 @@
       <c r="A3" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="41" t="str">
         <f t="shared" ref="B3:B15" si="0">LEFT(A3,6)</f>
         <v>191768</v>
       </c>
-      <c r="C3" s="55" t="str">
+      <c r="C3" s="53" t="str">
         <f t="shared" ref="C3:C15" si="1">LEFT(A3, SEARCH("-", A3)-1)</f>
         <v>191768</v>
       </c>
-      <c r="D3" s="42" t="str">
+      <c r="D3" s="41" t="str">
         <f t="shared" ref="D3:D15" si="2">MID(A3,SEARCH("-",A3)+1,2)</f>
         <v>AC</v>
       </c>
-      <c r="E3" s="42" t="str">
+      <c r="E3" s="41" t="str">
         <f t="shared" ref="E3:E15" si="3">IF(ISNUMBER(SEARCH("SMALL",A3)),"Small",IF(ISNUMBER(SEARCH("MEDIUM",A3)),"Medium",IF(ISNUMBER(SEARCH("LARGE",A3)),"Large",IF(ISNUMBER(SEARCH("XL",A3)),"XL"))))</f>
         <v>Medium</v>
       </c>
-      <c r="F3" s="42" t="str">
+      <c r="F3" s="41" t="str">
         <f t="shared" ref="F3:F15" si="4">RIGHT(A3, LEN(A3)-SEARCH("_", A3))</f>
         <v>MEDIUM</v>
       </c>
-      <c r="G3" s="42" t="str">
+      <c r="G3" s="41" t="str">
         <f t="shared" ref="G3:G15" si="5">SUBSTITUTE(A3,"-","|", 2)</f>
         <v>191768-AC|NYC_MEDIUM</v>
       </c>
-      <c r="H3" s="42" t="str">
+      <c r="H3" s="41" t="str">
         <f t="shared" ref="H3:H15" si="6">MID(G3, SEARCH("|", G3)+1,3)</f>
         <v>NYC</v>
       </c>
@@ -17123,31 +17234,31 @@
       <c r="A4" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="42" t="str">
+      <c r="B4" s="41" t="str">
         <f t="shared" si="0"/>
         <v>157263</v>
       </c>
-      <c r="C4" s="55" t="str">
+      <c r="C4" s="53" t="str">
         <f t="shared" si="1"/>
         <v>157263</v>
       </c>
-      <c r="D4" s="42" t="str">
+      <c r="D4" s="41" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E4" s="42" t="str">
+      <c r="E4" s="41" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F4" s="42" t="str">
+      <c r="F4" s="41" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G4" s="42" t="str">
+      <c r="G4" s="41" t="str">
         <f t="shared" si="5"/>
         <v>157263-BB|BOS_XL</v>
       </c>
-      <c r="H4" s="42" t="str">
+      <c r="H4" s="41" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -17156,31 +17267,31 @@
       <c r="A5" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="42" t="str">
+      <c r="B5" s="41" t="str">
         <f t="shared" si="0"/>
         <v>173437</v>
       </c>
-      <c r="C5" s="55" t="str">
+      <c r="C5" s="53" t="str">
         <f t="shared" si="1"/>
         <v>1734372</v>
       </c>
-      <c r="D5" s="42" t="str">
+      <c r="D5" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
       </c>
-      <c r="E5" s="42" t="str">
+      <c r="E5" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Small</v>
       </c>
-      <c r="F5" s="42" t="str">
+      <c r="F5" s="41" t="str">
         <f t="shared" si="4"/>
         <v>SMALL</v>
       </c>
-      <c r="G5" s="42" t="str">
+      <c r="G5" s="41" t="str">
         <f t="shared" si="5"/>
         <v>1734372-AA|CHI_SMALL</v>
       </c>
-      <c r="H5" s="42" t="str">
+      <c r="H5" s="41" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -17189,31 +17300,31 @@
       <c r="A6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="42" t="str">
+      <c r="B6" s="41" t="str">
         <f t="shared" si="0"/>
         <v>135351</v>
       </c>
-      <c r="C6" s="55" t="str">
+      <c r="C6" s="53" t="str">
         <f t="shared" si="1"/>
         <v>135351</v>
       </c>
-      <c r="D6" s="42" t="str">
+      <c r="D6" s="41" t="str">
         <f t="shared" si="2"/>
         <v>BC</v>
       </c>
-      <c r="E6" s="42" t="str">
+      <c r="E6" s="41" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F6" s="42" t="str">
+      <c r="F6" s="41" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G6" s="42" t="str">
+      <c r="G6" s="41" t="str">
         <f t="shared" si="5"/>
         <v>135351-BC|NYC_XL</v>
       </c>
-      <c r="H6" s="42" t="str">
+      <c r="H6" s="41" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -17222,31 +17333,31 @@
       <c r="A7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="42" t="str">
+      <c r="B7" s="41" t="str">
         <f t="shared" si="0"/>
         <v>143303</v>
       </c>
-      <c r="C7" s="55" t="str">
+      <c r="C7" s="53" t="str">
         <f t="shared" si="1"/>
         <v>14330305</v>
       </c>
-      <c r="D7" s="42" t="str">
+      <c r="D7" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AC</v>
       </c>
-      <c r="E7" s="42" t="str">
+      <c r="E7" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F7" s="42" t="str">
+      <c r="F7" s="41" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G7" s="42" t="str">
+      <c r="G7" s="41" t="str">
         <f t="shared" si="5"/>
         <v>14330305-AC|BOS_LARGE</v>
       </c>
-      <c r="H7" s="42" t="str">
+      <c r="H7" s="41" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -17255,31 +17366,31 @@
       <c r="A8" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="42" t="str">
+      <c r="B8" s="41" t="str">
         <f t="shared" si="0"/>
         <v>177772</v>
       </c>
-      <c r="C8" s="55" t="str">
+      <c r="C8" s="53" t="str">
         <f t="shared" si="1"/>
         <v>177772</v>
       </c>
-      <c r="D8" s="42" t="str">
+      <c r="D8" s="41" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E8" s="42" t="str">
+      <c r="E8" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F8" s="42" t="str">
+      <c r="F8" s="41" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G8" s="42" t="str">
+      <c r="G8" s="41" t="str">
         <f t="shared" si="5"/>
         <v>177772-BB|NYC_MEDIUM</v>
       </c>
-      <c r="H8" s="42" t="str">
+      <c r="H8" s="41" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -17288,31 +17399,31 @@
       <c r="A9" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="42" t="str">
+      <c r="B9" s="41" t="str">
         <f t="shared" si="0"/>
         <v>871928</v>
       </c>
-      <c r="C9" s="55" t="str">
+      <c r="C9" s="53" t="str">
         <f t="shared" si="1"/>
         <v>87192837</v>
       </c>
-      <c r="D9" s="42" t="str">
+      <c r="D9" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
       </c>
-      <c r="E9" s="42" t="str">
+      <c r="E9" s="41" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F9" s="42" t="str">
+      <c r="F9" s="41" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G9" s="42" t="str">
+      <c r="G9" s="41" t="str">
         <f t="shared" si="5"/>
         <v>87192837-AB|CHI_XL</v>
       </c>
-      <c r="H9" s="42" t="str">
+      <c r="H9" s="41" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -17321,31 +17432,31 @@
       <c r="A10" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="42" t="str">
+      <c r="B10" s="41" t="str">
         <f t="shared" si="0"/>
         <v>161266</v>
       </c>
-      <c r="C10" s="55" t="str">
+      <c r="C10" s="53" t="str">
         <f t="shared" si="1"/>
         <v>161266</v>
       </c>
-      <c r="D10" s="42" t="str">
+      <c r="D10" s="41" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E10" s="42" t="str">
+      <c r="E10" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Small</v>
       </c>
-      <c r="F10" s="42" t="str">
+      <c r="F10" s="41" t="str">
         <f t="shared" si="4"/>
         <v>SMALL</v>
       </c>
-      <c r="G10" s="42" t="str">
+      <c r="G10" s="41" t="str">
         <f t="shared" si="5"/>
         <v>161266-BB|CHI_SMALL</v>
       </c>
-      <c r="H10" s="42" t="str">
+      <c r="H10" s="41" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -17354,31 +17465,31 @@
       <c r="A11" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="42" t="str">
+      <c r="B11" s="41" t="str">
         <f t="shared" si="0"/>
         <v>122892</v>
       </c>
-      <c r="C11" s="55" t="str">
+      <c r="C11" s="53" t="str">
         <f t="shared" si="1"/>
         <v>122892</v>
       </c>
-      <c r="D11" s="42" t="str">
+      <c r="D11" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AA</v>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="41" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G11" s="42" t="str">
+      <c r="G11" s="41" t="str">
         <f t="shared" si="5"/>
         <v>122892-AA|NYC_MEDIUM</v>
       </c>
-      <c r="H11" s="42" t="str">
+      <c r="H11" s="41" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -17387,31 +17498,31 @@
       <c r="A12" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f t="shared" si="0"/>
         <v>128919</v>
       </c>
-      <c r="C12" s="55" t="str">
+      <c r="C12" s="53" t="str">
         <f t="shared" si="1"/>
         <v>128919</v>
       </c>
-      <c r="D12" s="42" t="str">
+      <c r="D12" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AC</v>
       </c>
-      <c r="E12" s="42" t="str">
+      <c r="E12" s="41" t="str">
         <f t="shared" si="3"/>
         <v>XL</v>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="41" t="str">
         <f t="shared" si="4"/>
         <v>XL</v>
       </c>
-      <c r="G12" s="42" t="str">
+      <c r="G12" s="41" t="str">
         <f t="shared" si="5"/>
         <v>128919-AC|CHI_XL</v>
       </c>
-      <c r="H12" s="42" t="str">
+      <c r="H12" s="41" t="str">
         <f t="shared" si="6"/>
         <v>CHI</v>
       </c>
@@ -17420,31 +17531,31 @@
       <c r="A13" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="42" t="str">
+      <c r="B13" s="41" t="str">
         <f t="shared" si="0"/>
         <v>191999</v>
       </c>
-      <c r="C13" s="55" t="str">
+      <c r="C13" s="53" t="str">
         <f t="shared" si="1"/>
         <v>191999</v>
       </c>
-      <c r="D13" s="42" t="str">
+      <c r="D13" s="41" t="str">
         <f t="shared" si="2"/>
         <v>BB</v>
       </c>
-      <c r="E13" s="42" t="str">
+      <c r="E13" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="41" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G13" s="42" t="str">
+      <c r="G13" s="41" t="str">
         <f t="shared" si="5"/>
         <v>191999-BB|BOS_LARGE</v>
       </c>
-      <c r="H13" s="42" t="str">
+      <c r="H13" s="41" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
@@ -17453,31 +17564,31 @@
       <c r="A14" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="42" t="str">
+      <c r="B14" s="41" t="str">
         <f t="shared" si="0"/>
         <v>117091</v>
       </c>
-      <c r="C14" s="55" t="str">
+      <c r="C14" s="53" t="str">
         <f t="shared" si="1"/>
         <v>117091126</v>
       </c>
-      <c r="D14" s="42" t="str">
+      <c r="D14" s="41" t="str">
         <f t="shared" si="2"/>
         <v>BC</v>
       </c>
-      <c r="E14" s="42" t="str">
+      <c r="E14" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Large</v>
       </c>
-      <c r="F14" s="42" t="str">
+      <c r="F14" s="41" t="str">
         <f t="shared" si="4"/>
         <v>LARGE</v>
       </c>
-      <c r="G14" s="42" t="str">
+      <c r="G14" s="41" t="str">
         <f t="shared" si="5"/>
         <v>117091126-BC|NYC_LARGE</v>
       </c>
-      <c r="H14" s="42" t="str">
+      <c r="H14" s="41" t="str">
         <f t="shared" si="6"/>
         <v>NYC</v>
       </c>
@@ -17486,31 +17597,31 @@
       <c r="A15" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="B15" s="42" t="str">
+      <c r="B15" s="41" t="str">
         <f t="shared" si="0"/>
         <v>112283</v>
       </c>
-      <c r="C15" s="55" t="str">
+      <c r="C15" s="53" t="str">
         <f t="shared" si="1"/>
         <v>112283</v>
       </c>
-      <c r="D15" s="42" t="str">
+      <c r="D15" s="41" t="str">
         <f t="shared" si="2"/>
         <v>AB</v>
       </c>
-      <c r="E15" s="42" t="str">
+      <c r="E15" s="41" t="str">
         <f t="shared" si="3"/>
         <v>Medium</v>
       </c>
-      <c r="F15" s="42" t="str">
+      <c r="F15" s="41" t="str">
         <f t="shared" si="4"/>
         <v>MEDIUM</v>
       </c>
-      <c r="G15" s="42" t="str">
+      <c r="G15" s="41" t="str">
         <f t="shared" si="5"/>
         <v>112283-AB|BOS_MEDIUM</v>
       </c>
-      <c r="H15" s="42" t="str">
+      <c r="H15" s="41" t="str">
         <f t="shared" si="6"/>
         <v>BOS</v>
       </c>
